--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JB102"/>
+  <dimension ref="A1:JC102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1210,6 +1210,9 @@
       <c r="JB1" t="n">
         <v>10739</v>
       </c>
+      <c r="JC1" t="n">
+        <v>10756</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2000,6 +2003,9 @@
       <c r="JB2" t="n">
         <v>2022</v>
       </c>
+      <c r="JC2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2790,6 +2796,9 @@
       <c r="JB3" t="n">
         <v>23</v>
       </c>
+      <c r="JC3" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3580,6 +3589,9 @@
       <c r="JB4" t="n">
         <v>1</v>
       </c>
+      <c r="JC4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4370,6 +4382,9 @@
       <c r="JB5" t="n">
         <v>1</v>
       </c>
+      <c r="JC5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5160,6 +5175,9 @@
       <c r="JB6" t="n">
         <v>114</v>
       </c>
+      <c r="JC6" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5950,6 +5968,9 @@
       <c r="JB7" t="n">
         <v>47</v>
       </c>
+      <c r="JC7" t="n">
+        <v>110</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6740,6 +6761,9 @@
       <c r="JB8" t="n">
         <v>67</v>
       </c>
+      <c r="JC8" t="n">
+        <v>-49</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7530,6 +7554,9 @@
       <c r="JB9" t="n">
         <v>1</v>
       </c>
+      <c r="JC9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8320,6 +8347,9 @@
       <c r="JB10" t="n">
         <v>12</v>
       </c>
+      <c r="JC10" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9110,6 +9140,9 @@
       <c r="JB11" t="n">
         <v>249</v>
       </c>
+      <c r="JC11" t="n">
+        <v>225</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9900,6 +9933,9 @@
       <c r="JB12" t="n">
         <v>128</v>
       </c>
+      <c r="JC12" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10690,6 +10726,9 @@
       <c r="JB13" t="n">
         <v>377</v>
       </c>
+      <c r="JC13" t="n">
+        <v>366</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11480,6 +11519,9 @@
       <c r="JB14" t="n">
         <v>1.95</v>
       </c>
+      <c r="JC14" t="n">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12270,6 +12312,9 @@
       <c r="JB15" t="n">
         <v>109</v>
       </c>
+      <c r="JC15" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13060,6 +13105,9 @@
       <c r="JB16" t="n">
         <v>61</v>
       </c>
+      <c r="JC16" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13850,6 +13898,9 @@
       <c r="JB17" t="n">
         <v>35</v>
       </c>
+      <c r="JC17" t="n">
+        <v>56</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14640,6 +14691,9 @@
       <c r="JB18" t="n">
         <v>19</v>
       </c>
+      <c r="JC18" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15430,6 +15484,9 @@
       <c r="JB19" t="n">
         <v>19</v>
       </c>
+      <c r="JC19" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16220,6 +16277,9 @@
       <c r="JB20" t="n">
         <v>16</v>
       </c>
+      <c r="JC20" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17010,6 +17070,9 @@
       <c r="JB21" t="n">
         <v>13</v>
       </c>
+      <c r="JC21" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17800,6 +17863,9 @@
       <c r="JB22" t="n">
         <v>17</v>
       </c>
+      <c r="JC22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18590,6 +18656,9 @@
       <c r="JB23" t="n">
         <v>1</v>
       </c>
+      <c r="JC23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19380,6 +19449,9 @@
       <c r="JB24" t="n">
         <v>34</v>
       </c>
+      <c r="JC24" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20170,6 +20242,9 @@
       <c r="JB25" t="n">
         <v>47.1</v>
       </c>
+      <c r="JC25" t="n">
+        <v>56.2</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -20960,6 +21035,9 @@
       <c r="JB26" t="n">
         <v>23.56</v>
       </c>
+      <c r="JC26" t="n">
+        <v>40.67</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21750,6 +21828,9 @@
       <c r="JB27" t="n">
         <v>11.09</v>
       </c>
+      <c r="JC27" t="n">
+        <v>22.88</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22540,6 +22621,9 @@
       <c r="JB28" t="n">
         <v>44</v>
       </c>
+      <c r="JC28" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23330,6 +23414,9 @@
       <c r="JB29" t="n">
         <v>59</v>
       </c>
+      <c r="JC29" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24120,6 +24207,9 @@
       <c r="JB30" t="n">
         <v>38</v>
       </c>
+      <c r="JC30" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -24910,6 +25000,9 @@
       <c r="JB31" t="n">
         <v>72</v>
       </c>
+      <c r="JC31" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25700,6 +25793,9 @@
       <c r="JB32" t="n">
         <v>2.12</v>
       </c>
+      <c r="JC32" t="n">
+        <v>2.75</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26490,6 +26586,9 @@
       <c r="JB33" t="n">
         <v>4.5</v>
       </c>
+      <c r="JC33" t="n">
+        <v>4.89</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27280,6 +27379,9 @@
       <c r="JB34" t="n">
         <v>45.8</v>
       </c>
+      <c r="JC34" t="n">
+        <v>31.8</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28070,6 +28172,9 @@
       <c r="JB35" t="n">
         <v>22.2</v>
       </c>
+      <c r="JC35" t="n">
+        <v>20.5</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28860,6 +28965,9 @@
       <c r="JB36" t="n">
         <v>188.1</v>
       </c>
+      <c r="JC36" t="n">
+        <v>189.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29650,6 +29758,9 @@
       <c r="JB37" t="n">
         <v>85.09999999999999</v>
       </c>
+      <c r="JC37" t="n">
+        <v>88</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30440,6 +30551,9 @@
       <c r="JB38" t="n">
         <v>24.58</v>
       </c>
+      <c r="JC38" t="n">
+        <v>24.91</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31230,6 +31344,9 @@
       <c r="JB39" t="n">
         <v>79.40000000000001</v>
       </c>
+      <c r="JC39" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32020,6 +32137,9 @@
       <c r="JB40" t="n">
         <v>10</v>
       </c>
+      <c r="JC40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32810,6 +32930,9 @@
       <c r="JB41" t="n">
         <v>6</v>
       </c>
+      <c r="JC41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33600,6 +33723,9 @@
       <c r="JB42" t="n">
         <v>2</v>
       </c>
+      <c r="JC42" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34390,6 +34516,9 @@
       <c r="JB43" t="n">
         <v>5</v>
       </c>
+      <c r="JC43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35180,6 +35309,9 @@
       <c r="JB44" t="n">
         <v>147</v>
       </c>
+      <c r="JC44" t="n">
+        <v>165</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -35970,6 +36102,9 @@
       <c r="JB45" t="n">
         <v>227</v>
       </c>
+      <c r="JC45" t="n">
+        <v>184</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36760,6 +36895,9 @@
       <c r="JB46" t="n">
         <v>279</v>
       </c>
+      <c r="JC46" t="n">
+        <v>221</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37550,6 +37688,9 @@
       <c r="JB47" t="n">
         <v>74</v>
       </c>
+      <c r="JC47" t="n">
+        <v>60.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38340,6 +38481,9 @@
       <c r="JB48" t="n">
         <v>59</v>
       </c>
+      <c r="JC48" t="n">
+        <v>78</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39130,6 +39274,9 @@
       <c r="JB49" t="n">
         <v>9</v>
       </c>
+      <c r="JC49" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -39920,6 +40067,9 @@
       <c r="JB50" t="n">
         <v>16</v>
       </c>
+      <c r="JC50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40710,6 +40860,9 @@
       <c r="JB51" t="n">
         <v>44</v>
       </c>
+      <c r="JC51" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41500,6 +41653,9 @@
       <c r="JB52" t="n">
         <v>38</v>
       </c>
+      <c r="JC52" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42290,6 +42446,9 @@
       <c r="JB53" t="n">
         <v>53</v>
       </c>
+      <c r="JC53" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43080,6 +43239,9 @@
       <c r="JB54" t="n">
         <v>14</v>
       </c>
+      <c r="JC54" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -43870,6 +44032,9 @@
       <c r="JB55" t="n">
         <v>13</v>
       </c>
+      <c r="JC55" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44660,6 +44825,9 @@
       <c r="JB56" t="n">
         <v>81.2</v>
       </c>
+      <c r="JC56" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45450,6 +45618,9 @@
       <c r="JB57" t="n">
         <v>217</v>
       </c>
+      <c r="JC57" t="n">
+        <v>259</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46240,6 +46411,9 @@
       <c r="JB58" t="n">
         <v>184</v>
       </c>
+      <c r="JC58" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47030,6 +47204,9 @@
       <c r="JB59" t="n">
         <v>401</v>
       </c>
+      <c r="JC59" t="n">
+        <v>417</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -47820,6 +47997,9 @@
       <c r="JB60" t="n">
         <v>1.18</v>
       </c>
+      <c r="JC60" t="n">
+        <v>1.64</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48610,6 +48790,9 @@
       <c r="JB61" t="n">
         <v>106</v>
       </c>
+      <c r="JC61" t="n">
+        <v>89</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49400,6 +49583,9 @@
       <c r="JB62" t="n">
         <v>53</v>
       </c>
+      <c r="JC62" t="n">
+        <v>84</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50190,6 +50376,9 @@
       <c r="JB63" t="n">
         <v>35</v>
       </c>
+      <c r="JC63" t="n">
+        <v>22</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -50980,6 +51169,9 @@
       <c r="JB64" t="n">
         <v>19</v>
       </c>
+      <c r="JC64" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51770,6 +51962,9 @@
       <c r="JB65" t="n">
         <v>19</v>
       </c>
+      <c r="JC65" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52560,6 +52755,9 @@
       <c r="JB66" t="n">
         <v>6</v>
       </c>
+      <c r="JC66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53350,6 +53548,9 @@
       <c r="JB67" t="n">
         <v>4</v>
       </c>
+      <c r="JC67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54140,6 +54341,9 @@
       <c r="JB68" t="n">
         <v>9</v>
       </c>
+      <c r="JC68" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -54930,6 +55134,9 @@
       <c r="JB69" t="n">
         <v>2</v>
       </c>
+      <c r="JC69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55720,6 +55927,9 @@
       <c r="JB70" t="n">
         <v>17</v>
       </c>
+      <c r="JC70" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56510,6 +56720,9 @@
       <c r="JB71" t="n">
         <v>35.3</v>
       </c>
+      <c r="JC71" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57300,6 +57513,9 @@
       <c r="JB72" t="n">
         <v>66.83</v>
       </c>
+      <c r="JC72" t="n">
+        <v>26.06</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58090,6 +58306,9 @@
       <c r="JB73" t="n">
         <v>23.59</v>
       </c>
+      <c r="JC73" t="n">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -58880,6 +59099,9 @@
       <c r="JB74" t="n">
         <v>26</v>
       </c>
+      <c r="JC74" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59670,6 +59892,9 @@
       <c r="JB75" t="n">
         <v>56</v>
       </c>
+      <c r="JC75" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60460,6 +60685,9 @@
       <c r="JB76" t="n">
         <v>55</v>
       </c>
+      <c r="JC76" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61250,6 +61478,9 @@
       <c r="JB77" t="n">
         <v>45</v>
       </c>
+      <c r="JC77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62040,6 +62271,9 @@
       <c r="JB78" t="n">
         <v>2.65</v>
       </c>
+      <c r="JC78" t="n">
+        <v>2.13</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -62830,6 +63064,9 @@
       <c r="JB79" t="n">
         <v>7.5</v>
       </c>
+      <c r="JC79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63620,6 +63857,9 @@
       <c r="JB80" t="n">
         <v>33.3</v>
       </c>
+      <c r="JC80" t="n">
+        <v>42.2</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -64410,6 +64650,9 @@
       <c r="JB81" t="n">
         <v>13.3</v>
       </c>
+      <c r="JC81" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -65200,6 +65443,9 @@
       <c r="JB82" t="n">
         <v>189</v>
       </c>
+      <c r="JC82" t="n">
+        <v>187.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -65990,6 +66236,9 @@
       <c r="JB83" t="n">
         <v>84.3</v>
       </c>
+      <c r="JC83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -66780,6 +67029,9 @@
       <c r="JB84" t="n">
         <v>24.16</v>
       </c>
+      <c r="JC84" t="n">
+        <v>25.24</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67570,6 +67822,9 @@
       <c r="JB85" t="n">
         <v>75.7</v>
       </c>
+      <c r="JC85" t="n">
+        <v>106.6</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -68360,6 +68615,9 @@
       <c r="JB86" t="n">
         <v>10</v>
       </c>
+      <c r="JC86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -69150,6 +69408,9 @@
       <c r="JB87" t="n">
         <v>6</v>
       </c>
+      <c r="JC87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -69940,6 +70201,9 @@
       <c r="JB88" t="n">
         <v>4</v>
       </c>
+      <c r="JC88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70730,6 +70994,9 @@
       <c r="JB89" t="n">
         <v>3</v>
       </c>
+      <c r="JC89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -71520,6 +71787,9 @@
       <c r="JB90" t="n">
         <v>122</v>
       </c>
+      <c r="JC90" t="n">
+        <v>159</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -72310,6 +72580,9 @@
       <c r="JB91" t="n">
         <v>271</v>
       </c>
+      <c r="JC91" t="n">
+        <v>239</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -73100,6 +73373,9 @@
       <c r="JB92" t="n">
         <v>311</v>
       </c>
+      <c r="JC92" t="n">
+        <v>287</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -73890,6 +74166,9 @@
       <c r="JB93" t="n">
         <v>77.59999999999999</v>
       </c>
+      <c r="JC93" t="n">
+        <v>68.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74680,6 +74959,9 @@
       <c r="JB94" t="n">
         <v>56</v>
       </c>
+      <c r="JC94" t="n">
+        <v>68</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -75470,6 +75752,9 @@
       <c r="JB95" t="n">
         <v>9</v>
       </c>
+      <c r="JC95" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -76260,6 +76545,9 @@
       <c r="JB96" t="n">
         <v>6</v>
       </c>
+      <c r="JC96" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -77050,6 +77338,9 @@
       <c r="JB97" t="n">
         <v>26</v>
       </c>
+      <c r="JC97" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -77840,6 +78131,9 @@
       <c r="JB98" t="n">
         <v>55</v>
       </c>
+      <c r="JC98" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78630,6 +78924,9 @@
       <c r="JB99" t="n">
         <v>42</v>
       </c>
+      <c r="JC99" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -79420,6 +79717,9 @@
       <c r="JB100" t="n">
         <v>12</v>
       </c>
+      <c r="JC100" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -80210,6 +80510,9 @@
       <c r="JB101" t="n">
         <v>4</v>
       </c>
+      <c r="JC101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -81000,6 +81303,9 @@
       <c r="JB102" t="n">
         <v>66.7</v>
       </c>
+      <c r="JC102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JC102"/>
+  <dimension ref="A1:JD102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1213,6 +1213,9 @@
       <c r="JC1" t="n">
         <v>10756</v>
       </c>
+      <c r="JD1" t="n">
+        <v>10767</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2006,6 +2009,9 @@
       <c r="JC2" t="n">
         <v>2023</v>
       </c>
+      <c r="JD2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2799,6 +2805,9 @@
       <c r="JC3" t="n">
         <v>1</v>
       </c>
+      <c r="JD3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3592,6 +3601,9 @@
       <c r="JC4" t="n">
         <v>0</v>
       </c>
+      <c r="JD4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4385,6 +4397,9 @@
       <c r="JC5" t="n">
         <v>1</v>
       </c>
+      <c r="JD5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5178,6 +5193,9 @@
       <c r="JC6" t="n">
         <v>61</v>
       </c>
+      <c r="JD6" t="n">
+        <v>80</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -5971,6 +5989,9 @@
       <c r="JC7" t="n">
         <v>110</v>
       </c>
+      <c r="JD7" t="n">
+        <v>108</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6764,6 +6785,9 @@
       <c r="JC8" t="n">
         <v>-49</v>
       </c>
+      <c r="JD8" t="n">
+        <v>-28</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7557,6 +7581,9 @@
       <c r="JC9" t="n">
         <v>0</v>
       </c>
+      <c r="JD9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8350,6 +8377,9 @@
       <c r="JC10" t="n">
         <v>16</v>
       </c>
+      <c r="JD10" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9143,6 +9173,9 @@
       <c r="JC11" t="n">
         <v>225</v>
       </c>
+      <c r="JD11" t="n">
+        <v>216</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -9936,6 +9969,9 @@
       <c r="JC12" t="n">
         <v>141</v>
       </c>
+      <c r="JD12" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10729,6 +10765,9 @@
       <c r="JC13" t="n">
         <v>366</v>
       </c>
+      <c r="JD13" t="n">
+        <v>331</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11522,6 +11561,9 @@
       <c r="JC14" t="n">
         <v>1.6</v>
       </c>
+      <c r="JD14" t="n">
+        <v>1.88</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12315,6 +12357,9 @@
       <c r="JC15" t="n">
         <v>56</v>
       </c>
+      <c r="JD15" t="n">
+        <v>91</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13108,6 +13153,9 @@
       <c r="JC16" t="n">
         <v>60</v>
       </c>
+      <c r="JD16" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -13901,6 +13949,9 @@
       <c r="JC17" t="n">
         <v>56</v>
       </c>
+      <c r="JD17" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14694,6 +14745,9 @@
       <c r="JC18" t="n">
         <v>21</v>
       </c>
+      <c r="JD18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15487,6 +15541,9 @@
       <c r="JC19" t="n">
         <v>15</v>
       </c>
+      <c r="JD19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16280,6 +16337,9 @@
       <c r="JC20" t="n">
         <v>9</v>
       </c>
+      <c r="JD20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17073,6 +17133,9 @@
       <c r="JC21" t="n">
         <v>7</v>
       </c>
+      <c r="JD21" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17866,6 +17929,9 @@
       <c r="JC22" t="n">
         <v>5</v>
       </c>
+      <c r="JD22" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18659,6 +18725,9 @@
       <c r="JC23" t="n">
         <v>2</v>
       </c>
+      <c r="JD23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19452,6 +19521,9 @@
       <c r="JC24" t="n">
         <v>16</v>
       </c>
+      <c r="JD24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20245,6 +20317,9 @@
       <c r="JC25" t="n">
         <v>56.2</v>
       </c>
+      <c r="JD25" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21038,6 +21113,9 @@
       <c r="JC26" t="n">
         <v>40.67</v>
       </c>
+      <c r="JD26" t="n">
+        <v>30.09</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21831,6 +21909,9 @@
       <c r="JC27" t="n">
         <v>22.88</v>
       </c>
+      <c r="JD27" t="n">
+        <v>13.24</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22624,6 +22705,9 @@
       <c r="JC28" t="n">
         <v>46</v>
       </c>
+      <c r="JD28" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23417,6 +23501,9 @@
       <c r="JC29" t="n">
         <v>78</v>
       </c>
+      <c r="JD29" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24210,6 +24297,9 @@
       <c r="JC30" t="n">
         <v>48</v>
       </c>
+      <c r="JD30" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25003,6 +25093,9 @@
       <c r="JC31" t="n">
         <v>44</v>
       </c>
+      <c r="JD31" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25796,6 +25889,9 @@
       <c r="JC32" t="n">
         <v>2.75</v>
       </c>
+      <c r="JD32" t="n">
+        <v>2.28</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26589,6 +26685,9 @@
       <c r="JC33" t="n">
         <v>4.89</v>
       </c>
+      <c r="JD33" t="n">
+        <v>5.18</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27382,6 +27481,9 @@
       <c r="JC34" t="n">
         <v>31.8</v>
       </c>
+      <c r="JD34" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28175,6 +28277,9 @@
       <c r="JC35" t="n">
         <v>20.5</v>
       </c>
+      <c r="JD35" t="n">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -28968,6 +29073,9 @@
       <c r="JC36" t="n">
         <v>189.7</v>
       </c>
+      <c r="JD36" t="n">
+        <v>188</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29761,6 +29869,9 @@
       <c r="JC37" t="n">
         <v>88</v>
       </c>
+      <c r="JD37" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30554,6 +30665,9 @@
       <c r="JC38" t="n">
         <v>24.91</v>
       </c>
+      <c r="JD38" t="n">
+        <v>25.8</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31347,6 +31461,9 @@
       <c r="JC39" t="n">
         <v>72</v>
       </c>
+      <c r="JD39" t="n">
+        <v>82</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32140,6 +32257,9 @@
       <c r="JC40" t="n">
         <v>8</v>
       </c>
+      <c r="JD40" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -32933,6 +33053,9 @@
       <c r="JC41" t="n">
         <v>11</v>
       </c>
+      <c r="JD41" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33726,6 +33849,9 @@
       <c r="JC42" t="n">
         <v>1</v>
       </c>
+      <c r="JD42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34519,6 +34645,9 @@
       <c r="JC43" t="n">
         <v>3</v>
       </c>
+      <c r="JD43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35312,6 +35441,9 @@
       <c r="JC44" t="n">
         <v>165</v>
       </c>
+      <c r="JD44" t="n">
+        <v>137</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36105,6 +36237,9 @@
       <c r="JC45" t="n">
         <v>184</v>
       </c>
+      <c r="JD45" t="n">
+        <v>181</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -36898,6 +37033,9 @@
       <c r="JC46" t="n">
         <v>221</v>
       </c>
+      <c r="JD46" t="n">
+        <v>228</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37691,6 +37829,9 @@
       <c r="JC47" t="n">
         <v>60.4</v>
       </c>
+      <c r="JD47" t="n">
+        <v>68.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38484,6 +38625,9 @@
       <c r="JC48" t="n">
         <v>78</v>
       </c>
+      <c r="JD48" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39277,6 +39421,9 @@
       <c r="JC49" t="n">
         <v>4</v>
       </c>
+      <c r="JD49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40070,6 +40217,9 @@
       <c r="JC50" t="n">
         <v>3</v>
       </c>
+      <c r="JD50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -40863,6 +41013,9 @@
       <c r="JC51" t="n">
         <v>46</v>
       </c>
+      <c r="JD51" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41656,6 +41809,9 @@
       <c r="JC52" t="n">
         <v>48</v>
       </c>
+      <c r="JD52" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42449,6 +42605,9 @@
       <c r="JC53" t="n">
         <v>60</v>
       </c>
+      <c r="JD53" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43242,6 +43401,9 @@
       <c r="JC54" t="n">
         <v>1</v>
       </c>
+      <c r="JD54" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44035,6 +44197,9 @@
       <c r="JC55" t="n">
         <v>7</v>
       </c>
+      <c r="JD55" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -44828,6 +44993,9 @@
       <c r="JC56" t="n">
         <v>77.8</v>
       </c>
+      <c r="JD56" t="n">
+        <v>72.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45621,6 +45789,9 @@
       <c r="JC57" t="n">
         <v>259</v>
       </c>
+      <c r="JD57" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46414,6 +46585,9 @@
       <c r="JC58" t="n">
         <v>158</v>
       </c>
+      <c r="JD58" t="n">
+        <v>154</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47207,6 +47381,9 @@
       <c r="JC59" t="n">
         <v>417</v>
       </c>
+      <c r="JD59" t="n">
+        <v>367</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48000,6 +48177,9 @@
       <c r="JC60" t="n">
         <v>1.64</v>
       </c>
+      <c r="JD60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -48793,6 +48973,9 @@
       <c r="JC61" t="n">
         <v>89</v>
       </c>
+      <c r="JD61" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49586,6 +49769,9 @@
       <c r="JC62" t="n">
         <v>84</v>
       </c>
+      <c r="JD62" t="n">
+        <v>66</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50379,6 +50565,9 @@
       <c r="JC63" t="n">
         <v>22</v>
       </c>
+      <c r="JD63" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51172,6 +51361,9 @@
       <c r="JC64" t="n">
         <v>15</v>
       </c>
+      <c r="JD64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -51965,6 +52157,9 @@
       <c r="JC65" t="n">
         <v>21</v>
       </c>
+      <c r="JD65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -52758,6 +52953,9 @@
       <c r="JC66" t="n">
         <v>16</v>
       </c>
+      <c r="JD66" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53551,6 +53749,9 @@
       <c r="JC67" t="n">
         <v>10</v>
       </c>
+      <c r="JD67" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54344,6 +54545,9 @@
       <c r="JC68" t="n">
         <v>11</v>
       </c>
+      <c r="JD68" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55137,6 +55341,9 @@
       <c r="JC69" t="n">
         <v>3</v>
       </c>
+      <c r="JD69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -55930,6 +56137,9 @@
       <c r="JC70" t="n">
         <v>30</v>
       </c>
+      <c r="JD70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -56723,6 +56933,9 @@
       <c r="JC71" t="n">
         <v>53.3</v>
       </c>
+      <c r="JD71" t="n">
+        <v>57.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57516,6 +57729,9 @@
       <c r="JC72" t="n">
         <v>26.06</v>
       </c>
+      <c r="JD72" t="n">
+        <v>22.94</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58309,6 +58525,9 @@
       <c r="JC73" t="n">
         <v>13.9</v>
       </c>
+      <c r="JD73" t="n">
+        <v>13.11</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59102,6 +59321,9 @@
       <c r="JC74" t="n">
         <v>39</v>
       </c>
+      <c r="JD74" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -59895,6 +60117,9 @@
       <c r="JC75" t="n">
         <v>68</v>
       </c>
+      <c r="JD75" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -60688,6 +60913,9 @@
       <c r="JC76" t="n">
         <v>34</v>
       </c>
+      <c r="JD76" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61481,6 +61709,9 @@
       <c r="JC77" t="n">
         <v>64</v>
       </c>
+      <c r="JD77" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62274,6 +62505,9 @@
       <c r="JC78" t="n">
         <v>2.13</v>
       </c>
+      <c r="JD78" t="n">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63067,6 +63301,9 @@
       <c r="JC79" t="n">
         <v>4</v>
       </c>
+      <c r="JD79" t="n">
+        <v>3.56</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -63860,6 +64097,9 @@
       <c r="JC80" t="n">
         <v>42.2</v>
       </c>
+      <c r="JD80" t="n">
+        <v>42.1</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -64653,6 +64893,9 @@
       <c r="JC81" t="n">
         <v>25</v>
       </c>
+      <c r="JD81" t="n">
+        <v>28.1</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -65446,6 +65689,9 @@
       <c r="JC82" t="n">
         <v>187.3</v>
       </c>
+      <c r="JD82" t="n">
+        <v>188.1</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66239,6 +66485,9 @@
       <c r="JC83" t="n">
         <v>86.90000000000001</v>
       </c>
+      <c r="JD83" t="n">
+        <v>86.5</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67032,6 +67281,9 @@
       <c r="JC84" t="n">
         <v>25.24</v>
       </c>
+      <c r="JD84" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -67825,6 +68077,9 @@
       <c r="JC85" t="n">
         <v>106.6</v>
       </c>
+      <c r="JD85" t="n">
+        <v>77.90000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -68618,6 +68873,9 @@
       <c r="JC86" t="n">
         <v>8</v>
       </c>
+      <c r="JD86" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -69411,6 +69669,9 @@
       <c r="JC87" t="n">
         <v>5</v>
       </c>
+      <c r="JD87" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70204,6 +70465,9 @@
       <c r="JC88" t="n">
         <v>4</v>
       </c>
+      <c r="JD88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -70997,6 +71261,9 @@
       <c r="JC89" t="n">
         <v>6</v>
       </c>
+      <c r="JD89" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -71790,6 +72057,9 @@
       <c r="JC90" t="n">
         <v>159</v>
       </c>
+      <c r="JD90" t="n">
+        <v>140</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -72583,6 +72853,9 @@
       <c r="JC91" t="n">
         <v>239</v>
       </c>
+      <c r="JD91" t="n">
+        <v>218</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -73376,6 +73649,9 @@
       <c r="JC92" t="n">
         <v>287</v>
       </c>
+      <c r="JD92" t="n">
+        <v>286</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -74169,6 +74445,9 @@
       <c r="JC93" t="n">
         <v>68.8</v>
       </c>
+      <c r="JD93" t="n">
+        <v>77.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -74962,6 +75241,9 @@
       <c r="JC94" t="n">
         <v>68</v>
       </c>
+      <c r="JD94" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -75755,6 +76037,9 @@
       <c r="JC95" t="n">
         <v>7</v>
       </c>
+      <c r="JD95" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -76548,6 +76833,9 @@
       <c r="JC96" t="n">
         <v>12</v>
       </c>
+      <c r="JD96" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -77341,6 +77629,9 @@
       <c r="JC97" t="n">
         <v>39</v>
       </c>
+      <c r="JD97" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -78134,6 +78425,9 @@
       <c r="JC98" t="n">
         <v>34</v>
       </c>
+      <c r="JD98" t="n">
+        <v>44</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -78927,6 +79221,9 @@
       <c r="JC99" t="n">
         <v>60</v>
       </c>
+      <c r="JD99" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -79720,6 +80017,9 @@
       <c r="JC100" t="n">
         <v>6</v>
       </c>
+      <c r="JD100" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -80513,6 +80813,9 @@
       <c r="JC101" t="n">
         <v>10</v>
       </c>
+      <c r="JD101" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -81306,6 +81609,9 @@
       <c r="JC102" t="n">
         <v>62.5</v>
       </c>
+      <c r="JD102" t="n">
+        <v>62.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JE102"/>
+  <dimension ref="A1:JF102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1219,6 +1219,9 @@
       <c r="JE1" t="n">
         <v>10775</v>
       </c>
+      <c r="JF1" t="n">
+        <v>10782</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2018,6 +2021,9 @@
       <c r="JE2" t="n">
         <v>2023</v>
       </c>
+      <c r="JF2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2817,6 +2823,9 @@
       <c r="JE3" t="n">
         <v>3</v>
       </c>
+      <c r="JF3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3616,6 +3625,9 @@
       <c r="JE4" t="n">
         <v>0</v>
       </c>
+      <c r="JF4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4415,6 +4427,9 @@
       <c r="JE5" t="n">
         <v>0</v>
       </c>
+      <c r="JF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5214,6 +5229,9 @@
       <c r="JE6" t="n">
         <v>73</v>
       </c>
+      <c r="JF6" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6013,6 +6031,9 @@
       <c r="JE7" t="n">
         <v>54</v>
       </c>
+      <c r="JF7" t="n">
+        <v>113</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6812,6 +6833,9 @@
       <c r="JE8" t="n">
         <v>19</v>
       </c>
+      <c r="JF8" t="n">
+        <v>-53</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7611,6 +7635,9 @@
       <c r="JE9" t="n">
         <v>1</v>
       </c>
+      <c r="JF9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8410,6 +8437,9 @@
       <c r="JE10" t="n">
         <v>7</v>
       </c>
+      <c r="JF10" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9209,6 +9239,9 @@
       <c r="JE11" t="n">
         <v>210</v>
       </c>
+      <c r="JF11" t="n">
+        <v>222</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10008,6 +10041,9 @@
       <c r="JE12" t="n">
         <v>135</v>
       </c>
+      <c r="JF12" t="n">
+        <v>125</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10807,6 +10843,9 @@
       <c r="JE13" t="n">
         <v>345</v>
       </c>
+      <c r="JF13" t="n">
+        <v>347</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11606,6 +11645,9 @@
       <c r="JE14" t="n">
         <v>1.56</v>
       </c>
+      <c r="JF14" t="n">
+        <v>1.78</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12405,6 +12447,9 @@
       <c r="JE15" t="n">
         <v>83</v>
       </c>
+      <c r="JF15" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13204,6 +13249,9 @@
       <c r="JE16" t="n">
         <v>53</v>
       </c>
+      <c r="JF16" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14003,6 +14051,9 @@
       <c r="JE17" t="n">
         <v>38</v>
       </c>
+      <c r="JF17" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14802,6 +14853,9 @@
       <c r="JE18" t="n">
         <v>15</v>
       </c>
+      <c r="JF18" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15601,6 +15655,9 @@
       <c r="JE19" t="n">
         <v>14</v>
       </c>
+      <c r="JF19" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16400,6 +16457,9 @@
       <c r="JE20" t="n">
         <v>10</v>
       </c>
+      <c r="JF20" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17199,6 +17259,9 @@
       <c r="JE21" t="n">
         <v>7</v>
       </c>
+      <c r="JF21" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -17998,6 +18061,9 @@
       <c r="JE22" t="n">
         <v>13</v>
       </c>
+      <c r="JF22" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18797,6 +18863,9 @@
       <c r="JE23" t="n">
         <v>0</v>
       </c>
+      <c r="JF23" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19596,6 +19665,9 @@
       <c r="JE24" t="n">
         <v>23</v>
       </c>
+      <c r="JF24" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20395,6 +20467,9 @@
       <c r="JE25" t="n">
         <v>43.5</v>
       </c>
+      <c r="JF25" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21194,6 +21269,9 @@
       <c r="JE26" t="n">
         <v>34.5</v>
       </c>
+      <c r="JF26" t="n">
+        <v>43.38</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -21993,6 +22071,9 @@
       <c r="JE27" t="n">
         <v>15</v>
       </c>
+      <c r="JF27" t="n">
+        <v>17.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22792,6 +22873,9 @@
       <c r="JE28" t="n">
         <v>39</v>
       </c>
+      <c r="JF28" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23591,6 +23675,9 @@
       <c r="JE29" t="n">
         <v>72</v>
       </c>
+      <c r="JF29" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24390,6 +24477,9 @@
       <c r="JE30" t="n">
         <v>45</v>
       </c>
+      <c r="JF30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25189,6 +25279,9 @@
       <c r="JE31" t="n">
         <v>49</v>
       </c>
+      <c r="JF31" t="n">
+        <v>51</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -25988,6 +26081,9 @@
       <c r="JE32" t="n">
         <v>2.13</v>
       </c>
+      <c r="JF32" t="n">
+        <v>2.55</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26787,6 +26883,9 @@
       <c r="JE33" t="n">
         <v>4.9</v>
       </c>
+      <c r="JF33" t="n">
+        <v>6.38</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27586,6 +27685,9 @@
       <c r="JE34" t="n">
         <v>46.9</v>
       </c>
+      <c r="JF34" t="n">
+        <v>35.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28385,6 +28487,9 @@
       <c r="JE35" t="n">
         <v>20.4</v>
       </c>
+      <c r="JF35" t="n">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29184,6 +29289,9 @@
       <c r="JE36" t="n">
         <v>187.3</v>
       </c>
+      <c r="JF36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -29983,6 +30091,9 @@
       <c r="JE37" t="n">
         <v>85.8</v>
       </c>
+      <c r="JF37" t="n">
+        <v>85</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30782,6 +30893,9 @@
       <c r="JE38" t="n">
         <v>25.24</v>
       </c>
+      <c r="JF38" t="n">
+        <v>24.41</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31581,6 +31695,9 @@
       <c r="JE39" t="n">
         <v>83.2</v>
       </c>
+      <c r="JF39" t="n">
+        <v>75.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32380,6 +32497,9 @@
       <c r="JE40" t="n">
         <v>7</v>
       </c>
+      <c r="JF40" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33179,6 +33299,9 @@
       <c r="JE41" t="n">
         <v>10</v>
       </c>
+      <c r="JF41" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -33978,6 +34101,9 @@
       <c r="JE42" t="n">
         <v>2</v>
       </c>
+      <c r="JF42" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34777,6 +34903,9 @@
       <c r="JE43" t="n">
         <v>4</v>
       </c>
+      <c r="JF43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35576,6 +35705,9 @@
       <c r="JE44" t="n">
         <v>145</v>
       </c>
+      <c r="JF44" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36375,6 +36507,9 @@
       <c r="JE45" t="n">
         <v>191</v>
       </c>
+      <c r="JF45" t="n">
+        <v>183</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37174,6 +37309,9 @@
       <c r="JE46" t="n">
         <v>238</v>
       </c>
+      <c r="JF46" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -37973,6 +38111,9 @@
       <c r="JE47" t="n">
         <v>69</v>
       </c>
+      <c r="JF47" t="n">
+        <v>66.59999999999999</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38772,6 +38913,9 @@
       <c r="JE48" t="n">
         <v>72</v>
       </c>
+      <c r="JF48" t="n">
+        <v>71</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39571,6 +39715,9 @@
       <c r="JE49" t="n">
         <v>15</v>
       </c>
+      <c r="JF49" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40370,6 +40517,9 @@
       <c r="JE50" t="n">
         <v>12</v>
       </c>
+      <c r="JF50" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41169,6 +41319,9 @@
       <c r="JE51" t="n">
         <v>39</v>
       </c>
+      <c r="JF51" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -41968,6 +42121,9 @@
       <c r="JE52" t="n">
         <v>45</v>
       </c>
+      <c r="JF52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42767,6 +42923,9 @@
       <c r="JE53" t="n">
         <v>49</v>
       </c>
+      <c r="JF53" t="n">
+        <v>61</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43566,6 +43725,9 @@
       <c r="JE54" t="n">
         <v>6</v>
       </c>
+      <c r="JF54" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44365,6 +44527,9 @@
       <c r="JE55" t="n">
         <v>7</v>
       </c>
+      <c r="JF55" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45164,6 +45329,9 @@
       <c r="JE56" t="n">
         <v>70</v>
       </c>
+      <c r="JF56" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -45963,6 +46131,9 @@
       <c r="JE57" t="n">
         <v>220</v>
       </c>
+      <c r="JF57" t="n">
+        <v>266</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46762,6 +46933,9 @@
       <c r="JE58" t="n">
         <v>127</v>
       </c>
+      <c r="JF58" t="n">
+        <v>201</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47561,6 +47735,9 @@
       <c r="JE59" t="n">
         <v>347</v>
       </c>
+      <c r="JF59" t="n">
+        <v>467</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48360,6 +48537,9 @@
       <c r="JE60" t="n">
         <v>1.73</v>
       </c>
+      <c r="JF60" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49159,6 +49339,9 @@
       <c r="JE61" t="n">
         <v>114</v>
       </c>
+      <c r="JF61" t="n">
+        <v>117</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -49958,6 +50141,9 @@
       <c r="JE62" t="n">
         <v>55</v>
       </c>
+      <c r="JF62" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50757,6 +50943,9 @@
       <c r="JE63" t="n">
         <v>27</v>
       </c>
+      <c r="JF63" t="n">
+        <v>37</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51556,6 +51745,9 @@
       <c r="JE64" t="n">
         <v>14</v>
       </c>
+      <c r="JF64" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52355,6 +52547,9 @@
       <c r="JE65" t="n">
         <v>15</v>
       </c>
+      <c r="JF65" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53154,6 +53349,9 @@
       <c r="JE66" t="n">
         <v>7</v>
       </c>
+      <c r="JF66" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -53953,6 +54151,9 @@
       <c r="JE67" t="n">
         <v>5</v>
       </c>
+      <c r="JF67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54752,6 +54953,9 @@
       <c r="JE68" t="n">
         <v>9</v>
       </c>
+      <c r="JF68" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55551,6 +55755,9 @@
       <c r="JE69" t="n">
         <v>3</v>
       </c>
+      <c r="JF69" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56350,6 +56557,9 @@
       <c r="JE70" t="n">
         <v>19</v>
       </c>
+      <c r="JF70" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57149,6 +57359,9 @@
       <c r="JE71" t="n">
         <v>36.8</v>
       </c>
+      <c r="JF71" t="n">
+        <v>60.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -57948,6 +58161,9 @@
       <c r="JE72" t="n">
         <v>49.57</v>
       </c>
+      <c r="JF72" t="n">
+        <v>27.47</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58747,6 +58963,9 @@
       <c r="JE73" t="n">
         <v>18.26</v>
       </c>
+      <c r="JF73" t="n">
+        <v>16.68</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59546,6 +59765,9 @@
       <c r="JE74" t="n">
         <v>23</v>
       </c>
+      <c r="JF74" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -60345,6 +60567,9 @@
       <c r="JE75" t="n">
         <v>69</v>
       </c>
+      <c r="JF75" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61144,6 +61369,9 @@
       <c r="JE76" t="n">
         <v>39</v>
       </c>
+      <c r="JF76" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -61943,6 +62171,9 @@
       <c r="JE77" t="n">
         <v>52</v>
       </c>
+      <c r="JF77" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62742,6 +62973,9 @@
       <c r="JE78" t="n">
         <v>2.74</v>
       </c>
+      <c r="JF78" t="n">
+        <v>2.29</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63541,6 +63775,9 @@
       <c r="JE79" t="n">
         <v>7.43</v>
       </c>
+      <c r="JF79" t="n">
+        <v>3.76</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -64340,6 +64577,9 @@
       <c r="JE80" t="n">
         <v>30.8</v>
       </c>
+      <c r="JF80" t="n">
+        <v>37.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65139,6 +65379,9 @@
       <c r="JE81" t="n">
         <v>13.5</v>
       </c>
+      <c r="JF81" t="n">
+        <v>26.6</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -65938,6 +66181,9 @@
       <c r="JE82" t="n">
         <v>189.3</v>
       </c>
+      <c r="JF82" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66737,6 +66983,9 @@
       <c r="JE83" t="n">
         <v>89.09999999999999</v>
       </c>
+      <c r="JF83" t="n">
+        <v>85.40000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67536,6 +67785,9 @@
       <c r="JE84" t="n">
         <v>27.66</v>
       </c>
+      <c r="JF84" t="n">
+        <v>24.74</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -68335,6 +68587,9 @@
       <c r="JE85" t="n">
         <v>134</v>
       </c>
+      <c r="JF85" t="n">
+        <v>80.59999999999999</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69134,6 +69389,9 @@
       <c r="JE86" t="n">
         <v>5</v>
       </c>
+      <c r="JF86" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -69933,6 +70191,9 @@
       <c r="JE87" t="n">
         <v>7</v>
       </c>
+      <c r="JF87" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70732,6 +70993,9 @@
       <c r="JE88" t="n">
         <v>2</v>
       </c>
+      <c r="JF88" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -71531,6 +71795,9 @@
       <c r="JE89" t="n">
         <v>9</v>
       </c>
+      <c r="JF89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -72330,6 +72597,9 @@
       <c r="JE90" t="n">
         <v>121</v>
       </c>
+      <c r="JF90" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73129,6 +73399,9 @@
       <c r="JE91" t="n">
         <v>219</v>
       </c>
+      <c r="JF91" t="n">
+        <v>291</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -73928,6 +74201,9 @@
       <c r="JE92" t="n">
         <v>252</v>
       </c>
+      <c r="JF92" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -74727,6 +75003,9 @@
       <c r="JE93" t="n">
         <v>72.59999999999999</v>
       </c>
+      <c r="JF93" t="n">
+        <v>73.90000000000001</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -75526,6 +75805,9 @@
       <c r="JE94" t="n">
         <v>69</v>
       </c>
+      <c r="JF94" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -76325,6 +76607,9 @@
       <c r="JE95" t="n">
         <v>14</v>
       </c>
+      <c r="JF95" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77124,6 +77409,9 @@
       <c r="JE96" t="n">
         <v>16</v>
       </c>
+      <c r="JF96" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -77923,6 +78211,9 @@
       <c r="JE97" t="n">
         <v>23</v>
       </c>
+      <c r="JF97" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -78722,6 +79013,9 @@
       <c r="JE98" t="n">
         <v>39</v>
       </c>
+      <c r="JF98" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -79521,6 +79815,9 @@
       <c r="JE99" t="n">
         <v>33</v>
       </c>
+      <c r="JF99" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -80320,6 +80617,9 @@
       <c r="JE100" t="n">
         <v>9</v>
       </c>
+      <c r="JF100" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -81119,6 +81419,9 @@
       <c r="JE101" t="n">
         <v>5</v>
       </c>
+      <c r="JF101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -81918,6 +82221,9 @@
       <c r="JE102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="JF102" t="n">
+        <v>76.5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JF102"/>
+  <dimension ref="A1:JG102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1222,6 +1222,9 @@
       <c r="JF1" t="n">
         <v>10782</v>
       </c>
+      <c r="JG1" t="n">
+        <v>10788</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2024,6 +2027,9 @@
       <c r="JF2" t="n">
         <v>2023</v>
       </c>
+      <c r="JG2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2826,6 +2832,9 @@
       <c r="JF3" t="n">
         <v>4</v>
       </c>
+      <c r="JG3" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3628,6 +3637,9 @@
       <c r="JF4" t="n">
         <v>1</v>
       </c>
+      <c r="JG4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4430,6 +4442,9 @@
       <c r="JF5" t="n">
         <v>0</v>
       </c>
+      <c r="JG5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5232,6 +5247,9 @@
       <c r="JF6" t="n">
         <v>60</v>
       </c>
+      <c r="JG6" t="n">
+        <v>90</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6034,6 +6052,9 @@
       <c r="JF7" t="n">
         <v>113</v>
       </c>
+      <c r="JG7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -6836,6 +6857,9 @@
       <c r="JF8" t="n">
         <v>-53</v>
       </c>
+      <c r="JG8" t="n">
+        <v>-10</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7638,6 +7662,9 @@
       <c r="JF9" t="n">
         <v>0</v>
       </c>
+      <c r="JG9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8440,6 +8467,9 @@
       <c r="JF10" t="n">
         <v>15</v>
       </c>
+      <c r="JG10" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9242,6 +9272,9 @@
       <c r="JF11" t="n">
         <v>222</v>
       </c>
+      <c r="JG11" t="n">
+        <v>209</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10044,6 +10077,9 @@
       <c r="JF12" t="n">
         <v>125</v>
       </c>
+      <c r="JG12" t="n">
+        <v>79</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -10846,6 +10882,9 @@
       <c r="JF13" t="n">
         <v>347</v>
       </c>
+      <c r="JG13" t="n">
+        <v>288</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -11648,6 +11687,9 @@
       <c r="JF14" t="n">
         <v>1.78</v>
       </c>
+      <c r="JG14" t="n">
+        <v>2.65</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12450,6 +12492,9 @@
       <c r="JF15" t="n">
         <v>71</v>
       </c>
+      <c r="JG15" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13252,6 +13297,9 @@
       <c r="JF16" t="n">
         <v>75</v>
       </c>
+      <c r="JG16" t="n">
+        <v>62</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14054,6 +14102,9 @@
       <c r="JF17" t="n">
         <v>46</v>
       </c>
+      <c r="JG17" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -14856,6 +14907,9 @@
       <c r="JF18" t="n">
         <v>19</v>
       </c>
+      <c r="JG18" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -15658,6 +15712,9 @@
       <c r="JF19" t="n">
         <v>18</v>
       </c>
+      <c r="JG19" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -16460,6 +16517,9 @@
       <c r="JF20" t="n">
         <v>8</v>
       </c>
+      <c r="JG20" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17262,6 +17322,9 @@
       <c r="JF21" t="n">
         <v>4</v>
       </c>
+      <c r="JG21" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18064,6 +18127,9 @@
       <c r="JF22" t="n">
         <v>10</v>
       </c>
+      <c r="JG22" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -18866,6 +18932,9 @@
       <c r="JF23" t="n">
         <v>2</v>
       </c>
+      <c r="JG23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -19668,6 +19737,9 @@
       <c r="JF24" t="n">
         <v>20</v>
       </c>
+      <c r="JG24" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -20470,6 +20542,9 @@
       <c r="JF25" t="n">
         <v>40</v>
       </c>
+      <c r="JG25" t="n">
+        <v>52</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -21272,6 +21347,9 @@
       <c r="JF26" t="n">
         <v>43.38</v>
       </c>
+      <c r="JG26" t="n">
+        <v>22.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22074,6 +22152,9 @@
       <c r="JF27" t="n">
         <v>17.35</v>
       </c>
+      <c r="JG27" t="n">
+        <v>11.52</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -22876,6 +22957,9 @@
       <c r="JF28" t="n">
         <v>45</v>
       </c>
+      <c r="JG28" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -23678,6 +23762,9 @@
       <c r="JF29" t="n">
         <v>71</v>
       </c>
+      <c r="JG29" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -24480,6 +24567,9 @@
       <c r="JF30" t="n">
         <v>46</v>
       </c>
+      <c r="JG30" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -25282,6 +25372,9 @@
       <c r="JF31" t="n">
         <v>51</v>
       </c>
+      <c r="JG31" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -26084,6 +26177,9 @@
       <c r="JF32" t="n">
         <v>2.55</v>
       </c>
+      <c r="JG32" t="n">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -26886,6 +26982,9 @@
       <c r="JF33" t="n">
         <v>6.38</v>
       </c>
+      <c r="JG33" t="n">
+        <v>3.46</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -27688,6 +27787,9 @@
       <c r="JF34" t="n">
         <v>35.3</v>
       </c>
+      <c r="JG34" t="n">
+        <v>53.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -28490,6 +28592,9 @@
       <c r="JF35" t="n">
         <v>15.7</v>
       </c>
+      <c r="JG35" t="n">
+        <v>28.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -29292,6 +29397,9 @@
       <c r="JF36" t="n">
         <v>187.7</v>
       </c>
+      <c r="JG36" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -30094,6 +30202,9 @@
       <c r="JF37" t="n">
         <v>85</v>
       </c>
+      <c r="JG37" t="n">
+        <v>85.09999999999999</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -30896,6 +31007,9 @@
       <c r="JF38" t="n">
         <v>24.41</v>
       </c>
+      <c r="JG38" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -31698,6 +31812,9 @@
       <c r="JF39" t="n">
         <v>75.3</v>
       </c>
+      <c r="JG39" t="n">
+        <v>88.90000000000001</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -32500,6 +32617,9 @@
       <c r="JF40" t="n">
         <v>8</v>
       </c>
+      <c r="JG40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -33302,6 +33422,9 @@
       <c r="JF41" t="n">
         <v>9</v>
       </c>
+      <c r="JG41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -34104,6 +34227,9 @@
       <c r="JF42" t="n">
         <v>2</v>
       </c>
+      <c r="JG42" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -34906,6 +35032,9 @@
       <c r="JF43" t="n">
         <v>4</v>
       </c>
+      <c r="JG43" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -35708,6 +35837,9 @@
       <c r="JF44" t="n">
         <v>163</v>
       </c>
+      <c r="JG44" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -36510,6 +36642,9 @@
       <c r="JF45" t="n">
         <v>183</v>
       </c>
+      <c r="JG45" t="n">
+        <v>158</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -37312,6 +37447,9 @@
       <c r="JF46" t="n">
         <v>231</v>
       </c>
+      <c r="JG46" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -38114,6 +38252,9 @@
       <c r="JF47" t="n">
         <v>66.59999999999999</v>
       </c>
+      <c r="JG47" t="n">
+        <v>72.90000000000001</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -38916,6 +39057,9 @@
       <c r="JF48" t="n">
         <v>71</v>
       </c>
+      <c r="JG48" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -39718,6 +39862,9 @@
       <c r="JF49" t="n">
         <v>12</v>
       </c>
+      <c r="JG49" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -40520,6 +40667,9 @@
       <c r="JF50" t="n">
         <v>3</v>
       </c>
+      <c r="JG50" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -41322,6 +41472,9 @@
       <c r="JF51" t="n">
         <v>45</v>
       </c>
+      <c r="JG51" t="n">
+        <v>33</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -42124,6 +42277,9 @@
       <c r="JF52" t="n">
         <v>46</v>
       </c>
+      <c r="JG52" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -42926,6 +43082,9 @@
       <c r="JF53" t="n">
         <v>61</v>
       </c>
+      <c r="JG53" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -43728,6 +43887,9 @@
       <c r="JF54" t="n">
         <v>2</v>
       </c>
+      <c r="JG54" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -44530,6 +44692,9 @@
       <c r="JF55" t="n">
         <v>4</v>
       </c>
+      <c r="JG55" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -45332,6 +45497,9 @@
       <c r="JF56" t="n">
         <v>50</v>
       </c>
+      <c r="JG56" t="n">
+        <v>69.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -46134,6 +46302,9 @@
       <c r="JF57" t="n">
         <v>266</v>
       </c>
+      <c r="JG57" t="n">
+        <v>196</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -46936,6 +47107,9 @@
       <c r="JF58" t="n">
         <v>201</v>
       </c>
+      <c r="JG58" t="n">
+        <v>142</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -47738,6 +47912,9 @@
       <c r="JF59" t="n">
         <v>467</v>
       </c>
+      <c r="JG59" t="n">
+        <v>338</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -48540,6 +48717,9 @@
       <c r="JF60" t="n">
         <v>1.32</v>
       </c>
+      <c r="JG60" t="n">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -49342,6 +49522,9 @@
       <c r="JF61" t="n">
         <v>117</v>
       </c>
+      <c r="JG61" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -50144,6 +50327,9 @@
       <c r="JF62" t="n">
         <v>60</v>
       </c>
+      <c r="JG62" t="n">
+        <v>55</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -50946,6 +51132,9 @@
       <c r="JF63" t="n">
         <v>37</v>
       </c>
+      <c r="JG63" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -51748,6 +51937,9 @@
       <c r="JF64" t="n">
         <v>18</v>
       </c>
+      <c r="JG64" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -52550,6 +52742,9 @@
       <c r="JF65" t="n">
         <v>19</v>
       </c>
+      <c r="JG65" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -53352,6 +53547,9 @@
       <c r="JF66" t="n">
         <v>17</v>
       </c>
+      <c r="JG66" t="n">
+        <v>15</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -54154,6 +54352,9 @@
       <c r="JF67" t="n">
         <v>13</v>
       </c>
+      <c r="JG67" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -54956,6 +55157,9 @@
       <c r="JF68" t="n">
         <v>7</v>
       </c>
+      <c r="JG68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -55758,6 +55962,9 @@
       <c r="JF69" t="n">
         <v>4</v>
       </c>
+      <c r="JG69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -56560,6 +56767,9 @@
       <c r="JF70" t="n">
         <v>28</v>
       </c>
+      <c r="JG70" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -57362,6 +57572,9 @@
       <c r="JF71" t="n">
         <v>60.7</v>
       </c>
+      <c r="JG71" t="n">
+        <v>60</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -58164,6 +58377,9 @@
       <c r="JF72" t="n">
         <v>27.47</v>
       </c>
+      <c r="JG72" t="n">
+        <v>22.53</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -58966,6 +59182,9 @@
       <c r="JF73" t="n">
         <v>16.68</v>
       </c>
+      <c r="JG73" t="n">
+        <v>13.52</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -59768,6 +59987,9 @@
       <c r="JF74" t="n">
         <v>35</v>
       </c>
+      <c r="JG74" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -60570,6 +60792,9 @@
       <c r="JF75" t="n">
         <v>64</v>
       </c>
+      <c r="JG75" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -61372,6 +61597,9 @@
       <c r="JF76" t="n">
         <v>43</v>
       </c>
+      <c r="JG76" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -62174,6 +62402,9 @@
       <c r="JF77" t="n">
         <v>64</v>
       </c>
+      <c r="JG77" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -62976,6 +63207,9 @@
       <c r="JF78" t="n">
         <v>2.29</v>
       </c>
+      <c r="JG78" t="n">
+        <v>1.92</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -63778,6 +64012,9 @@
       <c r="JF79" t="n">
         <v>3.76</v>
       </c>
+      <c r="JG79" t="n">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -64580,6 +64817,9 @@
       <c r="JF80" t="n">
         <v>37.5</v>
       </c>
+      <c r="JG80" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -65382,6 +65622,9 @@
       <c r="JF81" t="n">
         <v>26.6</v>
       </c>
+      <c r="JG81" t="n">
+        <v>31.2</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -66184,6 +66427,9 @@
       <c r="JF82" t="n">
         <v>187.8</v>
       </c>
+      <c r="JG82" t="n">
+        <v>187.7</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -66986,6 +67232,9 @@
       <c r="JF83" t="n">
         <v>85.40000000000001</v>
       </c>
+      <c r="JG83" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -67788,6 +68037,9 @@
       <c r="JF84" t="n">
         <v>24.74</v>
       </c>
+      <c r="JG84" t="n">
+        <v>24.66</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -68590,6 +68842,9 @@
       <c r="JF85" t="n">
         <v>80.59999999999999</v>
       </c>
+      <c r="JG85" t="n">
+        <v>71.40000000000001</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -69392,6 +69647,9 @@
       <c r="JF86" t="n">
         <v>8</v>
       </c>
+      <c r="JG86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -70194,6 +70452,9 @@
       <c r="JF87" t="n">
         <v>7</v>
       </c>
+      <c r="JG87" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -70996,6 +71257,9 @@
       <c r="JF88" t="n">
         <v>6</v>
       </c>
+      <c r="JG88" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -71798,6 +72062,9 @@
       <c r="JF89" t="n">
         <v>2</v>
       </c>
+      <c r="JG89" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -72600,6 +72867,9 @@
       <c r="JF90" t="n">
         <v>166</v>
       </c>
+      <c r="JG90" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -73402,6 +73672,9 @@
       <c r="JF91" t="n">
         <v>291</v>
       </c>
+      <c r="JG91" t="n">
+        <v>213</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -74204,6 +74477,9 @@
       <c r="JF92" t="n">
         <v>345</v>
       </c>
+      <c r="JG92" t="n">
+        <v>263</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -75006,6 +75282,9 @@
       <c r="JF93" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="JG93" t="n">
+        <v>77.8</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -75808,6 +76087,9 @@
       <c r="JF94" t="n">
         <v>64</v>
       </c>
+      <c r="JG94" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -76610,6 +76892,9 @@
       <c r="JF95" t="n">
         <v>16</v>
       </c>
+      <c r="JG95" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -77412,6 +77697,9 @@
       <c r="JF96" t="n">
         <v>15</v>
       </c>
+      <c r="JG96" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -78214,6 +78502,9 @@
       <c r="JF97" t="n">
         <v>35</v>
       </c>
+      <c r="JG97" t="n">
+        <v>45</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -79016,6 +79307,9 @@
       <c r="JF98" t="n">
         <v>43</v>
       </c>
+      <c r="JG98" t="n">
+        <v>32</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -79818,6 +80112,9 @@
       <c r="JF99" t="n">
         <v>55</v>
       </c>
+      <c r="JG99" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -80620,6 +80917,9 @@
       <c r="JF100" t="n">
         <v>15</v>
       </c>
+      <c r="JG100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -81422,6 +81722,9 @@
       <c r="JF101" t="n">
         <v>13</v>
       </c>
+      <c r="JG101" t="n">
+        <v>13</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -82224,6 +82527,9 @@
       <c r="JF102" t="n">
         <v>76.5</v>
       </c>
+      <c r="JG102" t="n">
+        <v>86.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:JQ102"/>
+  <dimension ref="A1:JR102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1255,6 +1255,9 @@
       <c r="JQ1" t="n">
         <v>10802</v>
       </c>
+      <c r="JR1" t="n">
+        <v>10812</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2090,6 +2093,9 @@
       <c r="JQ2" t="n">
         <v>2023</v>
       </c>
+      <c r="JR2" t="n">
+        <v>2023</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2925,6 +2931,9 @@
       <c r="JQ3" t="n">
         <v>6</v>
       </c>
+      <c r="JR3" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3760,6 +3769,9 @@
       <c r="JQ4" t="n">
         <v>0</v>
       </c>
+      <c r="JR4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -4595,6 +4607,9 @@
       <c r="JQ5" t="n">
         <v>0</v>
       </c>
+      <c r="JR5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -5430,6 +5445,9 @@
       <c r="JQ6" t="n">
         <v>97</v>
       </c>
+      <c r="JR6" t="n">
+        <v>72</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -6265,6 +6283,9 @@
       <c r="JQ7" t="n">
         <v>54</v>
       </c>
+      <c r="JR7" t="n">
+        <v>48</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7100,6 +7121,9 @@
       <c r="JQ8" t="n">
         <v>43</v>
       </c>
+      <c r="JR8" t="n">
+        <v>24</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7935,6 +7959,9 @@
       <c r="JQ9" t="n">
         <v>1</v>
       </c>
+      <c r="JR9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -8770,6 +8797,9 @@
       <c r="JQ10" t="n">
         <v>12</v>
       </c>
+      <c r="JR10" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -9605,6 +9635,9 @@
       <c r="JQ11" t="n">
         <v>256</v>
       </c>
+      <c r="JR11" t="n">
+        <v>254</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -10440,6 +10473,9 @@
       <c r="JQ12" t="n">
         <v>114</v>
       </c>
+      <c r="JR12" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -11275,6 +11311,9 @@
       <c r="JQ13" t="n">
         <v>370</v>
       </c>
+      <c r="JR13" t="n">
+        <v>380</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -12110,6 +12149,9 @@
       <c r="JQ14" t="n">
         <v>2.25</v>
       </c>
+      <c r="JR14" t="n">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -12945,6 +12987,9 @@
       <c r="JQ15" t="n">
         <v>135</v>
       </c>
+      <c r="JR15" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -13780,6 +13825,9 @@
       <c r="JQ16" t="n">
         <v>52</v>
       </c>
+      <c r="JR16" t="n">
+        <v>64</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -14615,6 +14663,9 @@
       <c r="JQ17" t="n">
         <v>27</v>
       </c>
+      <c r="JR17" t="n">
+        <v>42</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -15450,6 +15501,9 @@
       <c r="JQ18" t="n">
         <v>17</v>
       </c>
+      <c r="JR18" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -16285,6 +16339,9 @@
       <c r="JQ19" t="n">
         <v>16</v>
       </c>
+      <c r="JR19" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -17120,6 +17177,9 @@
       <c r="JQ20" t="n">
         <v>14</v>
       </c>
+      <c r="JR20" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -17955,6 +18015,9 @@
       <c r="JQ21" t="n">
         <v>10</v>
       </c>
+      <c r="JR21" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -18790,6 +18853,9 @@
       <c r="JQ22" t="n">
         <v>12</v>
       </c>
+      <c r="JR22" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -19625,6 +19691,9 @@
       <c r="JQ23" t="n">
         <v>1</v>
       </c>
+      <c r="JR23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -20460,6 +20529,9 @@
       <c r="JQ24" t="n">
         <v>27</v>
       </c>
+      <c r="JR24" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -21295,6 +21367,9 @@
       <c r="JQ25" t="n">
         <v>51.9</v>
       </c>
+      <c r="JR25" t="n">
+        <v>64.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -22130,6 +22205,9 @@
       <c r="JQ26" t="n">
         <v>26.43</v>
       </c>
+      <c r="JR26" t="n">
+        <v>34.55</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -22965,6 +23043,9 @@
       <c r="JQ27" t="n">
         <v>13.7</v>
       </c>
+      <c r="JR27" t="n">
+        <v>22.35</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -23800,6 +23881,9 @@
       <c r="JQ28" t="n">
         <v>34</v>
       </c>
+      <c r="JR28" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -24635,6 +24719,9 @@
       <c r="JQ29" t="n">
         <v>53</v>
       </c>
+      <c r="JR29" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -25470,6 +25557,9 @@
       <c r="JQ30" t="n">
         <v>42</v>
       </c>
+      <c r="JR30" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -26305,6 +26395,9 @@
       <c r="JQ31" t="n">
         <v>51</v>
       </c>
+      <c r="JR31" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -27140,6 +27233,9 @@
       <c r="JQ32" t="n">
         <v>1.89</v>
       </c>
+      <c r="JR32" t="n">
+        <v>3.12</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -27975,6 +28071,9 @@
       <c r="JQ33" t="n">
         <v>3.64</v>
       </c>
+      <c r="JR33" t="n">
+        <v>4.82</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -28810,6 +28909,9 @@
       <c r="JQ34" t="n">
         <v>51</v>
       </c>
+      <c r="JR34" t="n">
+        <v>30.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -29645,6 +29747,9 @@
       <c r="JQ35" t="n">
         <v>27.5</v>
       </c>
+      <c r="JR35" t="n">
+        <v>20.8</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -30480,6 +30585,9 @@
       <c r="JQ36" t="n">
         <v>188.4</v>
       </c>
+      <c r="JR36" t="n">
+        <v>187.8</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -31315,6 +31423,9 @@
       <c r="JQ37" t="n">
         <v>86.7</v>
       </c>
+      <c r="JR37" t="n">
+        <v>86.3</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -32150,6 +32261,9 @@
       <c r="JQ38" t="n">
         <v>25.58</v>
       </c>
+      <c r="JR38" t="n">
+        <v>25.58</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -32985,6 +33099,9 @@
       <c r="JQ39" t="n">
         <v>97</v>
       </c>
+      <c r="JR39" t="n">
+        <v>95.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -33820,6 +33937,9 @@
       <c r="JQ40" t="n">
         <v>4</v>
       </c>
+      <c r="JR40" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -34655,6 +34775,9 @@
       <c r="JQ41" t="n">
         <v>11</v>
       </c>
+      <c r="JR41" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -35490,6 +35613,9 @@
       <c r="JQ42" t="n">
         <v>4</v>
       </c>
+      <c r="JR42" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -36325,6 +36451,9 @@
       <c r="JQ43" t="n">
         <v>4</v>
       </c>
+      <c r="JR43" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -37160,6 +37289,9 @@
       <c r="JQ44" t="n">
         <v>133</v>
       </c>
+      <c r="JR44" t="n">
+        <v>120</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -37995,6 +38127,9 @@
       <c r="JQ45" t="n">
         <v>238</v>
       </c>
+      <c r="JR45" t="n">
+        <v>252</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -38830,6 +38965,9 @@
       <c r="JQ46" t="n">
         <v>276</v>
       </c>
+      <c r="JR46" t="n">
+        <v>285</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -39665,6 +39803,9 @@
       <c r="JQ47" t="n">
         <v>74.59999999999999</v>
       </c>
+      <c r="JR47" t="n">
+        <v>75</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -40500,6 +40641,9 @@
       <c r="JQ48" t="n">
         <v>53</v>
       </c>
+      <c r="JR48" t="n">
+        <v>58</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -41335,6 +41479,9 @@
       <c r="JQ49" t="n">
         <v>12</v>
       </c>
+      <c r="JR49" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -42170,6 +42317,9 @@
       <c r="JQ50" t="n">
         <v>20</v>
       </c>
+      <c r="JR50" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -43005,6 +43155,9 @@
       <c r="JQ51" t="n">
         <v>34</v>
       </c>
+      <c r="JR51" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -43840,6 +43993,9 @@
       <c r="JQ52" t="n">
         <v>42</v>
       </c>
+      <c r="JR52" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -44675,6 +44831,9 @@
       <c r="JQ53" t="n">
         <v>34</v>
       </c>
+      <c r="JR53" t="n">
+        <v>38</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -45510,6 +45669,9 @@
       <c r="JQ54" t="n">
         <v>1</v>
       </c>
+      <c r="JR54" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -46345,6 +46507,9 @@
       <c r="JQ55" t="n">
         <v>10</v>
       </c>
+      <c r="JR55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -47180,6 +47345,9 @@
       <c r="JQ56" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="JR56" t="n">
+        <v>45.5</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -48015,6 +48183,9 @@
       <c r="JQ57" t="n">
         <v>188</v>
       </c>
+      <c r="JR57" t="n">
+        <v>200</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -48850,6 +49021,9 @@
       <c r="JQ58" t="n">
         <v>118</v>
       </c>
+      <c r="JR58" t="n">
+        <v>139</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -49685,6 +49859,9 @@
       <c r="JQ59" t="n">
         <v>306</v>
       </c>
+      <c r="JR59" t="n">
+        <v>339</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -50520,6 +50697,9 @@
       <c r="JQ60" t="n">
         <v>1.59</v>
       </c>
+      <c r="JR60" t="n">
+        <v>1.44</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -51355,6 +51535,9 @@
       <c r="JQ61" t="n">
         <v>69</v>
       </c>
+      <c r="JR61" t="n">
+        <v>96</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -52190,6 +52373,9 @@
       <c r="JQ62" t="n">
         <v>48</v>
       </c>
+      <c r="JR62" t="n">
+        <v>46</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -53025,6 +53211,9 @@
       <c r="JQ63" t="n">
         <v>34</v>
       </c>
+      <c r="JR63" t="n">
+        <v>29</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -53860,6 +54049,9 @@
       <c r="JQ64" t="n">
         <v>16</v>
       </c>
+      <c r="JR64" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -54695,6 +54887,9 @@
       <c r="JQ65" t="n">
         <v>17</v>
       </c>
+      <c r="JR65" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -55530,6 +55725,9 @@
       <c r="JQ66" t="n">
         <v>7</v>
       </c>
+      <c r="JR66" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -56365,6 +56563,9 @@
       <c r="JQ67" t="n">
         <v>5</v>
       </c>
+      <c r="JR67" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -57200,6 +57401,9 @@
       <c r="JQ68" t="n">
         <v>12</v>
       </c>
+      <c r="JR68" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -58035,6 +58239,9 @@
       <c r="JQ69" t="n">
         <v>0</v>
       </c>
+      <c r="JR69" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -58870,6 +59077,9 @@
       <c r="JQ70" t="n">
         <v>19</v>
       </c>
+      <c r="JR70" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -59705,6 +59915,9 @@
       <c r="JQ71" t="n">
         <v>36.8</v>
       </c>
+      <c r="JR71" t="n">
+        <v>33.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -60540,6 +60753,9 @@
       <c r="JQ72" t="n">
         <v>43.71</v>
       </c>
+      <c r="JR72" t="n">
+        <v>56.5</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -61375,6 +61591,9 @@
       <c r="JQ73" t="n">
         <v>16.11</v>
       </c>
+      <c r="JR73" t="n">
+        <v>18.83</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -62210,6 +62429,9 @@
       <c r="JQ74" t="n">
         <v>31</v>
       </c>
+      <c r="JR74" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -63045,6 +63267,9 @@
       <c r="JQ75" t="n">
         <v>54</v>
       </c>
+      <c r="JR75" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -63880,6 +64105,9 @@
       <c r="JQ76" t="n">
         <v>36</v>
       </c>
+      <c r="JR76" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -64715,6 +64943,9 @@
       <c r="JQ77" t="n">
         <v>50</v>
       </c>
+      <c r="JR77" t="n">
+        <v>53</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -65550,6 +65781,9 @@
       <c r="JQ78" t="n">
         <v>2.63</v>
       </c>
+      <c r="JR78" t="n">
+        <v>2.94</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -66385,6 +66619,9 @@
       <c r="JQ79" t="n">
         <v>7.14</v>
       </c>
+      <c r="JR79" t="n">
+        <v>8.83</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -67220,6 +67457,9 @@
       <c r="JQ80" t="n">
         <v>38</v>
       </c>
+      <c r="JR80" t="n">
+        <v>28.3</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -68055,6 +68295,9 @@
       <c r="JQ81" t="n">
         <v>14</v>
       </c>
+      <c r="JR81" t="n">
+        <v>11.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -68890,6 +69133,9 @@
       <c r="JQ82" t="n">
         <v>189.1</v>
       </c>
+      <c r="JR82" t="n">
+        <v>187.9</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -69725,6 +69971,9 @@
       <c r="JQ83" t="n">
         <v>85.7</v>
       </c>
+      <c r="JR83" t="n">
+        <v>86.90000000000001</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -70560,6 +70809,9 @@
       <c r="JQ84" t="n">
         <v>26</v>
       </c>
+      <c r="JR84" t="n">
+        <v>26.58</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -71395,6 +71647,9 @@
       <c r="JQ85" t="n">
         <v>109.3</v>
       </c>
+      <c r="JR85" t="n">
+        <v>112.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -72230,6 +72485,9 @@
       <c r="JQ86" t="n">
         <v>5</v>
       </c>
+      <c r="JR86" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -73065,6 +73323,9 @@
       <c r="JQ87" t="n">
         <v>8</v>
       </c>
+      <c r="JR87" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -73900,6 +74161,9 @@
       <c r="JQ88" t="n">
         <v>4</v>
       </c>
+      <c r="JR88" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -74735,6 +74999,9 @@
       <c r="JQ89" t="n">
         <v>6</v>
       </c>
+      <c r="JR89" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -75570,6 +75837,9 @@
       <c r="JQ90" t="n">
         <v>128</v>
       </c>
+      <c r="JR90" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -76405,6 +76675,9 @@
       <c r="JQ91" t="n">
         <v>167</v>
       </c>
+      <c r="JR91" t="n">
+        <v>210</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -77240,6 +77513,9 @@
       <c r="JQ92" t="n">
         <v>226</v>
       </c>
+      <c r="JR92" t="n">
+        <v>234</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -78075,6 +78351,9 @@
       <c r="JQ93" t="n">
         <v>73.90000000000001</v>
       </c>
+      <c r="JR93" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -78910,6 +79189,9 @@
       <c r="JQ94" t="n">
         <v>54</v>
       </c>
+      <c r="JR94" t="n">
+        <v>57</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -79745,6 +80027,9 @@
       <c r="JQ95" t="n">
         <v>9</v>
       </c>
+      <c r="JR95" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -80580,6 +80865,9 @@
       <c r="JQ96" t="n">
         <v>6</v>
       </c>
+      <c r="JR96" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -81415,6 +81703,9 @@
       <c r="JQ97" t="n">
         <v>31</v>
       </c>
+      <c r="JR97" t="n">
+        <v>43</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -82250,6 +82541,9 @@
       <c r="JQ98" t="n">
         <v>36</v>
       </c>
+      <c r="JR98" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -83085,6 +83379,9 @@
       <c r="JQ99" t="n">
         <v>41</v>
       </c>
+      <c r="JR99" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -83920,6 +84217,9 @@
       <c r="JQ100" t="n">
         <v>4</v>
       </c>
+      <c r="JR100" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -84755,6 +85055,9 @@
       <c r="JQ101" t="n">
         <v>5</v>
       </c>
+      <c r="JR101" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -85590,6 +85893,9 @@
       <c r="JQ102" t="n">
         <v>71.40000000000001</v>
       </c>
+      <c r="JR102" t="n">
+        <v>66.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JX102"/>
+  <dimension ref="A1:JY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1308,8 +1308,11 @@
       <c r="JW1" s="1" t="n">
         <v>10836</v>
       </c>
-      <c r="JX1" t="n">
+      <c r="JX1" s="1" t="n">
         <v>10845</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>10854</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2164,7 +2167,10 @@
       <c r="JW2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JX2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3020,8 +3026,11 @@
       <c r="JW3" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JX3" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3876,7 +3885,10 @@
       <c r="JW4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JX4" t="n">
+      <c r="JX4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4732,7 +4744,10 @@
       <c r="JW5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JX5" t="n">
+      <c r="JX5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5588,8 +5603,11 @@
       <c r="JW6" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="JX6" t="n">
+      <c r="JX6" s="1" t="n">
         <v>84</v>
+      </c>
+      <c r="JY6" t="n">
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6444,8 +6462,11 @@
       <c r="JW7" s="1" t="n">
         <v>107</v>
       </c>
-      <c r="JX7" t="n">
+      <c r="JX7" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7300,8 +7321,11 @@
       <c r="JW8" s="1" t="n">
         <v>-43</v>
       </c>
-      <c r="JX8" t="n">
+      <c r="JX8" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JY8" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8156,7 +8180,10 @@
       <c r="JW9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JX9" t="n">
+      <c r="JX9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9012,8 +9039,11 @@
       <c r="JW10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JX10" t="n">
+      <c r="JX10" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9868,8 +9898,11 @@
       <c r="JW11" s="1" t="n">
         <v>210</v>
       </c>
-      <c r="JX11" t="n">
+      <c r="JX11" s="1" t="n">
         <v>237</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10724,8 +10757,11 @@
       <c r="JW12" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="JX12" t="n">
+      <c r="JX12" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="JY12" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11580,8 +11616,11 @@
       <c r="JW13" s="1" t="n">
         <v>307</v>
       </c>
-      <c r="JX13" t="n">
+      <c r="JX13" s="1" t="n">
         <v>322</v>
+      </c>
+      <c r="JY13" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12436,8 +12475,11 @@
       <c r="JW14" s="1" t="n">
         <v>2.16</v>
       </c>
-      <c r="JX14" t="n">
+      <c r="JX14" s="1" t="n">
         <v>2.79</v>
+      </c>
+      <c r="JY14" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13292,8 +13334,11 @@
       <c r="JW15" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="JX15" t="n">
+      <c r="JX15" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="JY15" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14148,8 +14193,11 @@
       <c r="JW16" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JX16" t="n">
+      <c r="JX16" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15004,8 +15052,11 @@
       <c r="JW17" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JX17" t="n">
+      <c r="JX17" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15860,8 +15911,11 @@
       <c r="JW18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JX18" t="n">
+      <c r="JX18" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JY18" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16716,8 +16770,11 @@
       <c r="JW19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JX19" t="n">
+      <c r="JX19" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JY19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17572,8 +17629,11 @@
       <c r="JW20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JX20" t="n">
+      <c r="JX20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JY20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18428,8 +18488,11 @@
       <c r="JW21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JX21" t="n">
+      <c r="JX21" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JY21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19284,8 +19347,11 @@
       <c r="JW22" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JX22" t="n">
+      <c r="JX22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JY22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20140,8 +20206,11 @@
       <c r="JW23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JX23" t="n">
+      <c r="JX23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JY23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -20996,8 +21065,11 @@
       <c r="JW24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JX24" t="n">
+      <c r="JX24" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="JY24" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21852,8 +21924,11 @@
       <c r="JW25" s="1" t="n">
         <v>47.4</v>
       </c>
-      <c r="JX25" t="n">
+      <c r="JX25" s="1" t="n">
         <v>68.40000000000001</v>
+      </c>
+      <c r="JY25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22708,8 +22783,11 @@
       <c r="JW26" s="1" t="n">
         <v>34.11</v>
       </c>
-      <c r="JX26" t="n">
+      <c r="JX26" s="1" t="n">
         <v>24.77</v>
+      </c>
+      <c r="JY26" t="n">
+        <v>19.31</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23564,8 +23642,11 @@
       <c r="JW27" s="1" t="n">
         <v>16.16</v>
       </c>
-      <c r="JX27" t="n">
+      <c r="JX27" s="1" t="n">
         <v>16.95</v>
+      </c>
+      <c r="JY27" t="n">
+        <v>9.66</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24420,8 +24501,11 @@
       <c r="JW28" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JX28" t="n">
+      <c r="JX28" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JY28" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25276,8 +25360,11 @@
       <c r="JW29" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JX29" t="n">
+      <c r="JX29" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="JY29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26132,8 +26219,11 @@
       <c r="JW30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JX30" t="n">
+      <c r="JX30" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JY30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -26988,8 +27078,11 @@
       <c r="JW31" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="JX31" t="n">
+      <c r="JX31" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="JY31" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27844,8 +27937,11 @@
       <c r="JW32" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="JX32" t="n">
+      <c r="JX32" s="1" t="n">
         <v>2.53</v>
+      </c>
+      <c r="JY32" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28700,8 +28796,11 @@
       <c r="JW33" s="1" t="n">
         <v>4.33</v>
       </c>
-      <c r="JX33" t="n">
+      <c r="JX33" s="1" t="n">
         <v>3.69</v>
+      </c>
+      <c r="JY33" t="n">
+        <v>3.81</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29556,8 +29655,11 @@
       <c r="JW34" s="1" t="n">
         <v>43.6</v>
       </c>
-      <c r="JX34" t="n">
+      <c r="JX34" s="1" t="n">
         <v>37.5</v>
+      </c>
+      <c r="JY34" t="n">
+        <v>44.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30412,8 +30514,11 @@
       <c r="JW35" s="1" t="n">
         <v>23.1</v>
       </c>
-      <c r="JX35" t="n">
+      <c r="JX35" s="1" t="n">
         <v>27.1</v>
+      </c>
+      <c r="JY35" t="n">
+        <v>26.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31268,8 +31373,11 @@
       <c r="JW36" s="1" t="n">
         <v>189.2</v>
       </c>
-      <c r="JX36" t="n">
+      <c r="JX36" s="1" t="n">
         <v>189.3</v>
+      </c>
+      <c r="JY36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32124,8 +32232,11 @@
       <c r="JW37" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JX37" t="n">
+      <c r="JX37" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="JY37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -32980,7 +33091,10 @@
       <c r="JW38" s="1" t="n">
         <v>25.49</v>
       </c>
-      <c r="JX38" t="n">
+      <c r="JX38" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="JY38" t="n">
         <v>24.91</v>
       </c>
     </row>
@@ -33836,8 +33950,11 @@
       <c r="JW39" s="1" t="n">
         <v>94.5</v>
       </c>
-      <c r="JX39" t="n">
+      <c r="JX39" s="1" t="n">
         <v>78.2</v>
+      </c>
+      <c r="JY39" t="n">
+        <v>78.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34692,7 +34809,10 @@
       <c r="JW40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JX40" t="n">
+      <c r="JX40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -35548,7 +35668,10 @@
       <c r="JW41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JX41" t="n">
+      <c r="JX41" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="JY41" t="n">
         <v>10</v>
       </c>
     </row>
@@ -36404,7 +36527,10 @@
       <c r="JW42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JX42" t="n">
+      <c r="JX42" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -37260,7 +37386,10 @@
       <c r="JW43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JX43" t="n">
+      <c r="JX43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -38116,8 +38245,11 @@
       <c r="JW44" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="JX44" t="n">
+      <c r="JX44" s="1" t="n">
         <v>158</v>
+      </c>
+      <c r="JY44" t="n">
+        <v>174</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -38972,8 +39104,11 @@
       <c r="JW45" s="1" t="n">
         <v>171</v>
       </c>
-      <c r="JX45" t="n">
+      <c r="JX45" s="1" t="n">
         <v>147</v>
+      </c>
+      <c r="JY45" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39828,8 +39963,11 @@
       <c r="JW46" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="JX46" t="n">
+      <c r="JX46" s="1" t="n">
         <v>213</v>
+      </c>
+      <c r="JY46" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40684,8 +40822,11 @@
       <c r="JW47" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="JX47" t="n">
+      <c r="JX47" s="1" t="n">
         <v>66.09999999999999</v>
+      </c>
+      <c r="JY47" t="n">
+        <v>60.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41540,8 +41681,11 @@
       <c r="JW48" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JX48" t="n">
+      <c r="JX48" s="1" t="n">
         <v>79</v>
+      </c>
+      <c r="JY48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42396,8 +42540,11 @@
       <c r="JW49" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="JX49" t="n">
+      <c r="JX49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JY49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -43252,8 +43399,11 @@
       <c r="JW50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JX50" t="n">
+      <c r="JX50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JY50" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44108,8 +44258,11 @@
       <c r="JW51" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JX51" t="n">
+      <c r="JX51" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JY51" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -44964,8 +45117,11 @@
       <c r="JW52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JX52" t="n">
+      <c r="JX52" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JY52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45820,7 +45976,10 @@
       <c r="JW53" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="JX53" t="n">
+      <c r="JX53" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="JY53" t="n">
         <v>54</v>
       </c>
     </row>
@@ -46676,7 +46835,10 @@
       <c r="JW54" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JX54" t="n">
+      <c r="JX54" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="JY54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -47532,8 +47694,11 @@
       <c r="JW55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JX55" t="n">
+      <c r="JX55" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JY55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -48388,8 +48553,11 @@
       <c r="JW56" s="1" t="n">
         <v>44.4</v>
       </c>
-      <c r="JX56" t="n">
+      <c r="JX56" s="1" t="n">
         <v>69.2</v>
+      </c>
+      <c r="JY56" t="n">
+        <v>43.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -49244,8 +49412,11 @@
       <c r="JW57" s="1" t="n">
         <v>253</v>
       </c>
-      <c r="JX57" t="n">
+      <c r="JX57" s="1" t="n">
         <v>215</v>
+      </c>
+      <c r="JY57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50100,8 +50271,11 @@
       <c r="JW58" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="JX58" t="n">
+      <c r="JX58" s="1" t="n">
         <v>150</v>
+      </c>
+      <c r="JY58" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -50956,8 +51130,11 @@
       <c r="JW59" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="JX59" t="n">
+      <c r="JX59" s="1" t="n">
         <v>365</v>
+      </c>
+      <c r="JY59" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -51812,8 +51989,11 @@
       <c r="JW60" s="1" t="n">
         <v>2.14</v>
       </c>
-      <c r="JX60" t="n">
+      <c r="JX60" s="1" t="n">
         <v>1.43</v>
+      </c>
+      <c r="JY60" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -52668,8 +52848,11 @@
       <c r="JW61" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="JX61" t="n">
+      <c r="JX61" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JY61" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -53524,8 +53707,11 @@
       <c r="JW62" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JX62" t="n">
+      <c r="JX62" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="JY62" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -54380,8 +54566,11 @@
       <c r="JW63" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="JX63" t="n">
+      <c r="JX63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="JY63" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -55236,8 +55425,11 @@
       <c r="JW64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="JX64" t="n">
+      <c r="JX64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JY64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -56092,8 +56284,11 @@
       <c r="JW65" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JX65" t="n">
+      <c r="JX65" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JY65" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -56948,8 +57143,11 @@
       <c r="JW66" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JX66" t="n">
+      <c r="JX66" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JY66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -57804,8 +58002,11 @@
       <c r="JW67" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JX67" t="n">
+      <c r="JX67" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JY67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -58660,8 +58861,11 @@
       <c r="JW68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JX68" t="n">
+      <c r="JX68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="JY68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -59516,8 +59720,11 @@
       <c r="JW69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JX69" t="n">
+      <c r="JX69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="JY69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -60372,7 +60579,10 @@
       <c r="JW70" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="JX70" t="n">
+      <c r="JX70" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="JY70" t="n">
         <v>22</v>
       </c>
     </row>
@@ -61228,8 +61438,11 @@
       <c r="JW71" s="1" t="n">
         <v>59.3</v>
       </c>
-      <c r="JX71" t="n">
+      <c r="JX71" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JY71" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -62084,8 +62297,11 @@
       <c r="JW72" s="1" t="n">
         <v>23.19</v>
       </c>
-      <c r="JX72" t="n">
+      <c r="JX72" s="1" t="n">
         <v>33.18</v>
+      </c>
+      <c r="JY72" t="n">
+        <v>25.38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -62940,8 +63156,11 @@
       <c r="JW73" s="1" t="n">
         <v>13.74</v>
       </c>
-      <c r="JX73" t="n">
+      <c r="JX73" s="1" t="n">
         <v>16.59</v>
+      </c>
+      <c r="JY73" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -63796,8 +64015,11 @@
       <c r="JW74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JX74" t="n">
+      <c r="JX74" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JY74" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -64652,8 +64874,11 @@
       <c r="JW75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JX75" t="n">
+      <c r="JX75" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JY75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -65508,8 +65733,11 @@
       <c r="JW76" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JX76" t="n">
+      <c r="JX76" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JY76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -66364,8 +66592,11 @@
       <c r="JW77" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JX77" t="n">
+      <c r="JX77" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="JY77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -67220,8 +67451,11 @@
       <c r="JW78" s="1" t="n">
         <v>2.22</v>
       </c>
-      <c r="JX78" t="n">
+      <c r="JX78" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JY78" t="n">
+        <v>2.64</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -68076,8 +68310,11 @@
       <c r="JW79" s="1" t="n">
         <v>3.75</v>
       </c>
-      <c r="JX79" t="n">
+      <c r="JX79" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JY79" t="n">
+        <v>4.46</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -68932,8 +69169,11 @@
       <c r="JW80" s="1" t="n">
         <v>41.7</v>
       </c>
-      <c r="JX80" t="n">
+      <c r="JX80" s="1" t="n">
         <v>30.3</v>
+      </c>
+      <c r="JY80" t="n">
+        <v>36.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -69788,8 +70028,11 @@
       <c r="JW81" s="1" t="n">
         <v>26.7</v>
       </c>
-      <c r="JX81" t="n">
+      <c r="JX81" s="1" t="n">
         <v>16.7</v>
+      </c>
+      <c r="JY81" t="n">
+        <v>22.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -70644,8 +70887,11 @@
       <c r="JW82" s="1" t="n">
         <v>187.9</v>
       </c>
-      <c r="JX82" t="n">
+      <c r="JX82" s="1" t="n">
         <v>189.4</v>
+      </c>
+      <c r="JY82" t="n">
+        <v>187.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -71500,8 +71746,11 @@
       <c r="JW83" s="1" t="n">
         <v>87.5</v>
       </c>
-      <c r="JX83" t="n">
+      <c r="JX83" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JY83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -72356,8 +72605,11 @@
       <c r="JW84" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="JX84" t="n">
+      <c r="JX84" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="JY84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -73212,8 +73464,11 @@
       <c r="JW85" s="1" t="n">
         <v>119.2</v>
       </c>
-      <c r="JX85" t="n">
+      <c r="JX85" s="1" t="n">
         <v>102.7</v>
+      </c>
+      <c r="JY85" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -74068,7 +74323,10 @@
       <c r="JW86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JX86" t="n">
+      <c r="JX86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="JY86" t="n">
         <v>8</v>
       </c>
     </row>
@@ -74924,8 +75182,11 @@
       <c r="JW87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JX87" t="n">
+      <c r="JX87" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JY87" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -75780,8 +76041,11 @@
       <c r="JW88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JX88" t="n">
+      <c r="JX88" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JY88" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -76636,8 +76900,11 @@
       <c r="JW89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JX89" t="n">
+      <c r="JX89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JY89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -77492,8 +77759,11 @@
       <c r="JW90" s="1" t="n">
         <v>140</v>
       </c>
-      <c r="JX90" t="n">
+      <c r="JX90" s="1" t="n">
         <v>141</v>
+      </c>
+      <c r="JY90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -78348,8 +78618,11 @@
       <c r="JW91" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="JX91" t="n">
+      <c r="JX91" s="1" t="n">
         <v>230</v>
+      </c>
+      <c r="JY91" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -79204,8 +79477,11 @@
       <c r="JW92" s="1" t="n">
         <v>275</v>
       </c>
-      <c r="JX92" t="n">
+      <c r="JX92" s="1" t="n">
         <v>259</v>
+      </c>
+      <c r="JY92" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -80060,8 +80336,11 @@
       <c r="JW93" s="1" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="JX93" t="n">
+      <c r="JX93" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="JY93" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -80916,8 +81195,11 @@
       <c r="JW94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JX94" t="n">
+      <c r="JX94" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="JY94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -81772,8 +82054,11 @@
       <c r="JW95" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JX95" t="n">
+      <c r="JX95" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JY95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -82628,8 +82913,11 @@
       <c r="JW96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JX96" t="n">
+      <c r="JX96" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JY96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -83484,8 +83772,11 @@
       <c r="JW97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JX97" t="n">
+      <c r="JX97" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="JY97" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -84340,8 +84631,11 @@
       <c r="JW98" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JX98" t="n">
+      <c r="JX98" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="JY98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -85196,8 +85490,11 @@
       <c r="JW99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="JX99" t="n">
+      <c r="JX99" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="JY99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -86052,8 +86349,11 @@
       <c r="JW100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JX100" t="n">
+      <c r="JX100" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JY100" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -86908,8 +87208,11 @@
       <c r="JW101" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JX101" t="n">
+      <c r="JX101" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JY101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -87764,8 +88067,11 @@
       <c r="JW102" s="1" t="n">
         <v>68.8</v>
       </c>
-      <c r="JX102" t="n">
+      <c r="JX102" s="1" t="n">
         <v>54.5</v>
+      </c>
+      <c r="JY102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JY102"/>
+  <dimension ref="A1:JZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1311,8 +1311,11 @@
       <c r="JX1" s="1" t="n">
         <v>10845</v>
       </c>
-      <c r="JY1" t="n">
+      <c r="JY1" s="1" t="n">
         <v>10854</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>10869</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2170,7 +2173,10 @@
       <c r="JX2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JY2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JZ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3029,8 +3035,11 @@
       <c r="JX3" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="JY3" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3888,8 +3897,11 @@
       <c r="JX4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="JY4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4747,7 +4759,10 @@
       <c r="JX5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JY5" t="n">
+      <c r="JY5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5606,8 +5621,11 @@
       <c r="JX6" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="JY6" t="n">
+      <c r="JY6" s="1" t="n">
         <v>112</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6465,8 +6483,11 @@
       <c r="JX7" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="JY7" t="n">
+      <c r="JY7" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7324,8 +7345,11 @@
       <c r="JX8" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY8" t="n">
+      <c r="JY8" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>-59</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8183,8 +8207,11 @@
       <c r="JX9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY9" t="n">
+      <c r="JY9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9042,8 +9069,11 @@
       <c r="JX10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="JY10" t="n">
+      <c r="JY10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9901,8 +9931,11 @@
       <c r="JX11" s="1" t="n">
         <v>237</v>
       </c>
-      <c r="JY11" t="n">
+      <c r="JY11" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10760,8 +10793,11 @@
       <c r="JX12" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="JY12" t="n">
+      <c r="JY12" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11619,7 +11655,10 @@
       <c r="JX13" s="1" t="n">
         <v>322</v>
       </c>
-      <c r="JY13" t="n">
+      <c r="JY13" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="JZ13" t="n">
         <v>309</v>
       </c>
     </row>
@@ -12478,8 +12517,11 @@
       <c r="JX14" s="1" t="n">
         <v>2.79</v>
       </c>
-      <c r="JY14" t="n">
+      <c r="JY14" s="1" t="n">
         <v>2.43</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>2.06</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13337,8 +13379,11 @@
       <c r="JX15" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="JY15" t="n">
+      <c r="JY15" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14196,8 +14241,11 @@
       <c r="JX16" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="JY16" t="n">
+      <c r="JY16" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15055,8 +15103,11 @@
       <c r="JX17" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JY17" t="n">
+      <c r="JY17" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15914,8 +15965,11 @@
       <c r="JX18" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JY18" t="n">
+      <c r="JY18" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JZ18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16773,8 +16827,11 @@
       <c r="JX19" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JY19" t="n">
+      <c r="JY19" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JZ19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17632,8 +17689,11 @@
       <c r="JX20" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JY20" t="n">
+      <c r="JY20" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="JZ20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18491,8 +18551,11 @@
       <c r="JX21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY21" t="n">
+      <c r="JY21" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JZ21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19350,8 +19413,11 @@
       <c r="JX22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JY22" t="n">
+      <c r="JY22" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JZ22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20209,8 +20275,11 @@
       <c r="JX23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY23" t="n">
+      <c r="JY23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21068,8 +21137,11 @@
       <c r="JX24" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="JY24" t="n">
+      <c r="JY24" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="JZ24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -21927,8 +21999,11 @@
       <c r="JX25" s="1" t="n">
         <v>68.40000000000001</v>
       </c>
-      <c r="JY25" t="n">
+      <c r="JY25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="JZ25" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22786,8 +22861,11 @@
       <c r="JX26" s="1" t="n">
         <v>24.77</v>
       </c>
-      <c r="JY26" t="n">
+      <c r="JY26" s="1" t="n">
         <v>19.31</v>
+      </c>
+      <c r="JZ26" t="n">
+        <v>38.62</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23645,8 +23723,11 @@
       <c r="JX27" s="1" t="n">
         <v>16.95</v>
       </c>
-      <c r="JY27" t="n">
+      <c r="JY27" s="1" t="n">
         <v>9.66</v>
+      </c>
+      <c r="JZ27" t="n">
+        <v>14.71</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24504,8 +24585,11 @@
       <c r="JX28" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY28" t="n">
+      <c r="JY28" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JZ28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25363,8 +25447,11 @@
       <c r="JX29" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="JY29" t="n">
+      <c r="JY29" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JZ29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26222,8 +26309,11 @@
       <c r="JX30" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JY30" t="n">
+      <c r="JY30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JZ30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27081,8 +27171,11 @@
       <c r="JX31" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="JY31" t="n">
+      <c r="JY31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="JZ31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -27940,8 +28033,11 @@
       <c r="JX32" s="1" t="n">
         <v>2.53</v>
       </c>
-      <c r="JY32" t="n">
+      <c r="JY32" s="1" t="n">
         <v>1.91</v>
+      </c>
+      <c r="JZ32" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28799,8 +28895,11 @@
       <c r="JX33" s="1" t="n">
         <v>3.69</v>
       </c>
-      <c r="JY33" t="n">
+      <c r="JY33" s="1" t="n">
         <v>3.81</v>
+      </c>
+      <c r="JZ33" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29658,8 +29757,11 @@
       <c r="JX34" s="1" t="n">
         <v>37.5</v>
       </c>
-      <c r="JY34" t="n">
+      <c r="JY34" s="1" t="n">
         <v>44.3</v>
+      </c>
+      <c r="JZ34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30517,8 +30619,11 @@
       <c r="JX35" s="1" t="n">
         <v>27.1</v>
       </c>
-      <c r="JY35" t="n">
+      <c r="JY35" s="1" t="n">
         <v>26.2</v>
+      </c>
+      <c r="JZ35" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31376,8 +31481,11 @@
       <c r="JX36" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="JY36" t="n">
+      <c r="JY36" s="1" t="n">
         <v>188.7</v>
+      </c>
+      <c r="JZ36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32235,8 +32343,11 @@
       <c r="JX37" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="JY37" t="n">
+      <c r="JY37" s="1" t="n">
         <v>86.5</v>
+      </c>
+      <c r="JZ37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33094,8 +33205,11 @@
       <c r="JX38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="JY38" t="n">
+      <c r="JY38" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JZ38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -33953,8 +34067,11 @@
       <c r="JX39" s="1" t="n">
         <v>78.2</v>
       </c>
-      <c r="JY39" t="n">
+      <c r="JY39" s="1" t="n">
         <v>78.8</v>
+      </c>
+      <c r="JZ39" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34812,8 +34929,11 @@
       <c r="JX40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY40" t="n">
+      <c r="JY40" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JZ40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -35671,8 +35791,11 @@
       <c r="JX41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JY41" t="n">
+      <c r="JY41" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JZ41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -36530,8 +36653,11 @@
       <c r="JX42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY42" t="n">
+      <c r="JY42" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JZ42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -37389,8 +37515,11 @@
       <c r="JX43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY43" t="n">
+      <c r="JY43" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="JZ43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -38248,8 +38377,11 @@
       <c r="JX44" s="1" t="n">
         <v>158</v>
       </c>
-      <c r="JY44" t="n">
+      <c r="JY44" s="1" t="n">
         <v>174</v>
+      </c>
+      <c r="JZ44" t="n">
+        <v>132</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39107,8 +39239,11 @@
       <c r="JX45" s="1" t="n">
         <v>147</v>
       </c>
-      <c r="JY45" t="n">
+      <c r="JY45" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="JZ45" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -39966,8 +40101,11 @@
       <c r="JX46" s="1" t="n">
         <v>213</v>
       </c>
-      <c r="JY46" t="n">
+      <c r="JY46" s="1" t="n">
         <v>186</v>
+      </c>
+      <c r="JZ46" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40825,8 +40963,11 @@
       <c r="JX47" s="1" t="n">
         <v>66.09999999999999</v>
       </c>
-      <c r="JY47" t="n">
+      <c r="JY47" s="1" t="n">
         <v>60.2</v>
+      </c>
+      <c r="JZ47" t="n">
+        <v>70.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41684,8 +41825,11 @@
       <c r="JX48" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="JY48" t="n">
+      <c r="JY48" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="JZ48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42543,8 +42687,11 @@
       <c r="JX49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY49" t="n">
+      <c r="JY49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="JZ49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -43402,8 +43549,11 @@
       <c r="JX50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY50" t="n">
+      <c r="JY50" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="JZ50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44261,8 +44411,11 @@
       <c r="JX51" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY51" t="n">
+      <c r="JY51" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JZ51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45120,8 +45273,11 @@
       <c r="JX52" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JY52" t="n">
+      <c r="JY52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="JZ52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -45979,8 +46135,11 @@
       <c r="JX53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JY53" t="n">
+      <c r="JY53" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="JZ53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -46838,8 +46997,11 @@
       <c r="JX54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JY54" t="n">
+      <c r="JY54" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -47697,8 +47859,11 @@
       <c r="JX55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY55" t="n">
+      <c r="JY55" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="JZ55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -48556,8 +48721,11 @@
       <c r="JX56" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="JY56" t="n">
+      <c r="JY56" s="1" t="n">
         <v>43.8</v>
+      </c>
+      <c r="JZ56" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -49415,8 +49583,11 @@
       <c r="JX57" s="1" t="n">
         <v>215</v>
       </c>
-      <c r="JY57" t="n">
+      <c r="JY57" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="JZ57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50274,8 +50445,11 @@
       <c r="JX58" s="1" t="n">
         <v>150</v>
       </c>
-      <c r="JY58" t="n">
+      <c r="JY58" s="1" t="n">
         <v>122</v>
+      </c>
+      <c r="JZ58" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51133,8 +51307,11 @@
       <c r="JX59" s="1" t="n">
         <v>365</v>
       </c>
-      <c r="JY59" t="n">
+      <c r="JY59" s="1" t="n">
         <v>330</v>
+      </c>
+      <c r="JZ59" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -51992,8 +52169,11 @@
       <c r="JX60" s="1" t="n">
         <v>1.43</v>
       </c>
-      <c r="JY60" t="n">
+      <c r="JY60" s="1" t="n">
         <v>1.7</v>
+      </c>
+      <c r="JZ60" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -52851,8 +53031,11 @@
       <c r="JX61" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JY61" t="n">
+      <c r="JY61" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="JZ61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -53710,8 +53893,11 @@
       <c r="JX62" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="JY62" t="n">
+      <c r="JY62" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="JZ62" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -54569,8 +54755,11 @@
       <c r="JX63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="JY63" t="n">
+      <c r="JY63" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="JZ63" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -55428,8 +55617,11 @@
       <c r="JX64" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JY64" t="n">
+      <c r="JY64" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="JZ64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -56287,8 +56479,11 @@
       <c r="JX65" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JY65" t="n">
+      <c r="JY65" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="JZ65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57146,8 +57341,11 @@
       <c r="JX66" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JY66" t="n">
+      <c r="JY66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="JZ66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -58005,8 +58203,11 @@
       <c r="JX67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY67" t="n">
+      <c r="JY67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JZ67" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -58864,8 +59065,11 @@
       <c r="JX68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="JY68" t="n">
+      <c r="JY68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JZ68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -59723,8 +59927,11 @@
       <c r="JX69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="JY69" t="n">
+      <c r="JY69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -60582,8 +60789,11 @@
       <c r="JX70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JY70" t="n">
+      <c r="JY70" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="JZ70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -61441,8 +61651,11 @@
       <c r="JX71" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JY71" t="n">
+      <c r="JY71" s="1" t="n">
         <v>59.1</v>
+      </c>
+      <c r="JZ71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -62300,8 +62513,11 @@
       <c r="JX72" s="1" t="n">
         <v>33.18</v>
       </c>
-      <c r="JY72" t="n">
+      <c r="JY72" s="1" t="n">
         <v>25.38</v>
+      </c>
+      <c r="JZ72" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -63159,8 +63375,11 @@
       <c r="JX73" s="1" t="n">
         <v>16.59</v>
       </c>
-      <c r="JY73" t="n">
+      <c r="JY73" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="JZ73" t="n">
+        <v>12.6</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64018,8 +64237,11 @@
       <c r="JX74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY74" t="n">
+      <c r="JY74" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JZ74" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -64877,8 +65099,11 @@
       <c r="JX75" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JY75" t="n">
+      <c r="JY75" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="JZ75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -65736,8 +65961,11 @@
       <c r="JX76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JY76" t="n">
+      <c r="JY76" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JZ76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -66595,8 +66823,11 @@
       <c r="JX77" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="JY77" t="n">
+      <c r="JY77" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="JZ77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -67454,8 +67685,11 @@
       <c r="JX78" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY78" t="n">
+      <c r="JY78" s="1" t="n">
         <v>2.64</v>
+      </c>
+      <c r="JZ78" t="n">
+        <v>1.8</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -68313,8 +68547,11 @@
       <c r="JX79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY79" t="n">
+      <c r="JY79" s="1" t="n">
         <v>4.46</v>
+      </c>
+      <c r="JZ79" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -69172,8 +69409,11 @@
       <c r="JX80" s="1" t="n">
         <v>30.3</v>
       </c>
-      <c r="JY80" t="n">
+      <c r="JY80" s="1" t="n">
         <v>36.2</v>
+      </c>
+      <c r="JZ80" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -70031,8 +70271,11 @@
       <c r="JX81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="JY81" t="n">
+      <c r="JY81" s="1" t="n">
         <v>22.4</v>
+      </c>
+      <c r="JZ81" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -70890,8 +71133,11 @@
       <c r="JX82" s="1" t="n">
         <v>189.4</v>
       </c>
-      <c r="JY82" t="n">
+      <c r="JY82" s="1" t="n">
         <v>187.3</v>
+      </c>
+      <c r="JZ82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -71749,8 +71995,11 @@
       <c r="JX83" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JY83" t="n">
+      <c r="JY83" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="JZ83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -72608,8 +72857,11 @@
       <c r="JX84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="JY84" t="n">
+      <c r="JY84" s="1" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JZ84" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -73467,8 +73719,11 @@
       <c r="JX85" s="1" t="n">
         <v>102.7</v>
       </c>
-      <c r="JY85" t="n">
+      <c r="JY85" s="1" t="n">
         <v>88.2</v>
+      </c>
+      <c r="JZ85" t="n">
+        <v>85.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -74326,8 +74581,11 @@
       <c r="JX86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JY86" t="n">
+      <c r="JY86" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JZ86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -75185,8 +75443,11 @@
       <c r="JX87" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JY87" t="n">
+      <c r="JY87" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JZ87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -76044,8 +76305,11 @@
       <c r="JX88" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JY88" t="n">
+      <c r="JY88" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -76903,8 +77167,11 @@
       <c r="JX89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JY89" t="n">
+      <c r="JY89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JZ89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -77762,8 +78029,11 @@
       <c r="JX90" s="1" t="n">
         <v>141</v>
       </c>
-      <c r="JY90" t="n">
+      <c r="JY90" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="JZ90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -78621,8 +78891,11 @@
       <c r="JX91" s="1" t="n">
         <v>230</v>
       </c>
-      <c r="JY91" t="n">
+      <c r="JY91" s="1" t="n">
         <v>163</v>
+      </c>
+      <c r="JZ91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -79480,8 +79753,11 @@
       <c r="JX92" s="1" t="n">
         <v>259</v>
       </c>
-      <c r="JY92" t="n">
+      <c r="JY92" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="JZ92" t="n">
+        <v>274</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -80339,8 +80615,11 @@
       <c r="JX93" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="JY93" t="n">
+      <c r="JY93" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="JZ93" t="n">
+        <v>72.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -81198,8 +81477,11 @@
       <c r="JX94" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="JY94" t="n">
+      <c r="JY94" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="JZ94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -82057,8 +82339,11 @@
       <c r="JX95" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JY95" t="n">
+      <c r="JY95" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JZ95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -82916,8 +83201,11 @@
       <c r="JX96" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JY96" t="n">
+      <c r="JY96" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="JZ96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -83775,8 +84063,11 @@
       <c r="JX97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="JY97" t="n">
+      <c r="JY97" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="JZ97" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -84634,8 +84925,11 @@
       <c r="JX98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="JY98" t="n">
+      <c r="JY98" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="JZ98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -85493,8 +85787,11 @@
       <c r="JX99" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="JY99" t="n">
+      <c r="JY99" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="JZ99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -86352,8 +86649,11 @@
       <c r="JX100" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JY100" t="n">
+      <c r="JY100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="JZ100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -87211,8 +87511,11 @@
       <c r="JX101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JY101" t="n">
+      <c r="JY101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="JZ101" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -88070,8 +88373,11 @@
       <c r="JX102" s="1" t="n">
         <v>54.5</v>
       </c>
-      <c r="JY102" t="n">
+      <c r="JY102" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="JZ102" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JZ102"/>
+  <dimension ref="A1:KA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1314,8 +1314,11 @@
       <c r="JY1" s="1" t="n">
         <v>10854</v>
       </c>
-      <c r="JZ1" t="n">
+      <c r="JZ1" s="1" t="n">
         <v>10869</v>
+      </c>
+      <c r="KA1" t="n">
+        <v>10876</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2176,7 +2179,10 @@
       <c r="JY2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="JZ2" t="n">
+      <c r="JZ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KA2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3038,8 +3044,11 @@
       <c r="JY3" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="JZ3" t="n">
+      <c r="JZ3" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KA3" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3900,8 +3909,11 @@
       <c r="JY4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JZ4" t="n">
+      <c r="JZ4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KA4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4762,7 +4774,10 @@
       <c r="JY5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="JZ5" t="n">
+      <c r="JZ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5624,8 +5639,11 @@
       <c r="JY6" s="1" t="n">
         <v>112</v>
       </c>
-      <c r="JZ6" t="n">
+      <c r="JZ6" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KA6" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6486,8 +6504,11 @@
       <c r="JY7" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="JZ7" t="n">
+      <c r="JZ7" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="KA7" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7348,8 +7369,11 @@
       <c r="JY8" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="JZ8" t="n">
+      <c r="JZ8" s="1" t="n">
         <v>-59</v>
+      </c>
+      <c r="KA8" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8210,8 +8234,11 @@
       <c r="JY9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JZ9" t="n">
+      <c r="JZ9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KA9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9072,8 +9099,11 @@
       <c r="JY10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JZ10" t="n">
+      <c r="JZ10" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KA10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9934,8 +9964,11 @@
       <c r="JY11" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="JZ11" t="n">
+      <c r="JZ11" s="1" t="n">
         <v>208</v>
+      </c>
+      <c r="KA11" t="n">
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10796,8 +10829,11 @@
       <c r="JY12" s="1" t="n">
         <v>90</v>
       </c>
-      <c r="JZ12" t="n">
+      <c r="JZ12" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="KA12" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11658,8 +11694,11 @@
       <c r="JY13" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="JZ13" t="n">
+      <c r="JZ13" s="1" t="n">
         <v>309</v>
+      </c>
+      <c r="KA13" t="n">
+        <v>368</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12520,8 +12559,11 @@
       <c r="JY14" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="JZ14" t="n">
+      <c r="JZ14" s="1" t="n">
         <v>2.06</v>
+      </c>
+      <c r="KA14" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13382,8 +13424,11 @@
       <c r="JY15" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="JZ15" t="n">
+      <c r="JZ15" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="KA15" t="n">
+        <v>128</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14244,8 +14289,11 @@
       <c r="JY16" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JZ16" t="n">
+      <c r="JZ16" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KA16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15106,8 +15154,11 @@
       <c r="JY17" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JZ17" t="n">
+      <c r="JZ17" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KA17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -15968,8 +16019,11 @@
       <c r="JY18" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JZ18" t="n">
+      <c r="JZ18" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KA18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16830,8 +16884,11 @@
       <c r="JY19" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JZ19" t="n">
+      <c r="JZ19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KA19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17692,8 +17749,11 @@
       <c r="JY20" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="JZ20" t="n">
+      <c r="JZ20" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KA20" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18554,8 +18614,11 @@
       <c r="JY21" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JZ21" t="n">
+      <c r="JZ21" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KA21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19416,8 +19479,11 @@
       <c r="JY22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JZ22" t="n">
+      <c r="JZ22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KA22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20278,8 +20344,11 @@
       <c r="JY23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="JZ23" t="n">
+      <c r="JZ23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KA23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21140,8 +21209,11 @@
       <c r="JY24" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="JZ24" t="n">
+      <c r="JZ24" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KA24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22002,8 +22074,11 @@
       <c r="JY25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="JZ25" t="n">
+      <c r="JZ25" s="1" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KA25" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22864,8 +22939,11 @@
       <c r="JY26" s="1" t="n">
         <v>19.31</v>
       </c>
-      <c r="JZ26" t="n">
+      <c r="JZ26" s="1" t="n">
         <v>38.62</v>
+      </c>
+      <c r="KA26" t="n">
+        <v>26.29</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23726,8 +23804,11 @@
       <c r="JY27" s="1" t="n">
         <v>9.66</v>
       </c>
-      <c r="JZ27" t="n">
+      <c r="JZ27" s="1" t="n">
         <v>14.71</v>
+      </c>
+      <c r="KA27" t="n">
+        <v>11.87</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24588,8 +24669,11 @@
       <c r="JY28" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JZ28" t="n">
+      <c r="JZ28" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KA28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25450,8 +25534,11 @@
       <c r="JY29" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JZ29" t="n">
+      <c r="JZ29" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KA29" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26312,8 +26399,11 @@
       <c r="JY30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JZ30" t="n">
+      <c r="JZ30" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KA30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27174,8 +27264,11 @@
       <c r="JY31" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="JZ31" t="n">
+      <c r="JZ31" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KA31" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28036,8 +28129,11 @@
       <c r="JY32" s="1" t="n">
         <v>1.91</v>
       </c>
-      <c r="JZ32" t="n">
+      <c r="JZ32" s="1" t="n">
         <v>2.43</v>
+      </c>
+      <c r="KA32" t="n">
+        <v>2.19</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28898,8 +28994,11 @@
       <c r="JY33" s="1" t="n">
         <v>3.81</v>
       </c>
-      <c r="JZ33" t="n">
+      <c r="JZ33" s="1" t="n">
         <v>6.38</v>
+      </c>
+      <c r="KA33" t="n">
+        <v>4.86</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29760,8 +29859,11 @@
       <c r="JY34" s="1" t="n">
         <v>44.3</v>
       </c>
-      <c r="JZ34" t="n">
+      <c r="JZ34" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KA34" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30622,8 +30724,11 @@
       <c r="JY35" s="1" t="n">
         <v>26.2</v>
       </c>
-      <c r="JZ35" t="n">
+      <c r="JZ35" s="1" t="n">
         <v>15.7</v>
+      </c>
+      <c r="KA35" t="n">
+        <v>20.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31484,8 +31589,11 @@
       <c r="JY36" s="1" t="n">
         <v>188.7</v>
       </c>
-      <c r="JZ36" t="n">
+      <c r="JZ36" s="1" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KA36" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32346,8 +32454,11 @@
       <c r="JY37" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="JZ37" t="n">
+      <c r="JZ37" s="1" t="n">
         <v>86.3</v>
+      </c>
+      <c r="KA37" t="n">
+        <v>85.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33208,8 +33319,11 @@
       <c r="JY38" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="JZ38" t="n">
+      <c r="JZ38" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KA38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34070,8 +34184,11 @@
       <c r="JY39" s="1" t="n">
         <v>78.8</v>
       </c>
-      <c r="JZ39" t="n">
+      <c r="JZ39" s="1" t="n">
         <v>86</v>
+      </c>
+      <c r="KA39" t="n">
+        <v>94.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -34932,8 +35049,11 @@
       <c r="JY40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JZ40" t="n">
+      <c r="JZ40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KA40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -35794,7 +35914,10 @@
       <c r="JY41" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JZ41" t="n">
+      <c r="JZ41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KA41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -36656,8 +36779,11 @@
       <c r="JY42" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JZ42" t="n">
+      <c r="JZ42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KA42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -37518,7 +37644,10 @@
       <c r="JY43" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="JZ43" t="n">
+      <c r="JZ43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KA43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38380,8 +38509,11 @@
       <c r="JY44" s="1" t="n">
         <v>174</v>
       </c>
-      <c r="JZ44" t="n">
+      <c r="JZ44" s="1" t="n">
         <v>132</v>
+      </c>
+      <c r="KA44" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39242,8 +39374,11 @@
       <c r="JY45" s="1" t="n">
         <v>126</v>
       </c>
-      <c r="JZ45" t="n">
+      <c r="JZ45" s="1" t="n">
         <v>167</v>
+      </c>
+      <c r="KA45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40104,8 +40239,11 @@
       <c r="JY46" s="1" t="n">
         <v>186</v>
       </c>
-      <c r="JZ46" t="n">
+      <c r="JZ46" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="KA46" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -40966,8 +41104,11 @@
       <c r="JY47" s="1" t="n">
         <v>60.2</v>
       </c>
-      <c r="JZ47" t="n">
+      <c r="JZ47" s="1" t="n">
         <v>70.90000000000001</v>
+      </c>
+      <c r="KA47" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41828,8 +41969,11 @@
       <c r="JY48" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="JZ48" t="n">
+      <c r="JZ48" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KA48" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42690,8 +42834,11 @@
       <c r="JY49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="JZ49" t="n">
+      <c r="JZ49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KA49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -43552,8 +43699,11 @@
       <c r="JY50" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="JZ50" t="n">
+      <c r="JZ50" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KA50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44414,8 +44564,11 @@
       <c r="JY51" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JZ51" t="n">
+      <c r="JZ51" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KA51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45276,8 +45429,11 @@
       <c r="JY52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="JZ52" t="n">
+      <c r="JZ52" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KA52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46138,8 +46294,11 @@
       <c r="JY53" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="JZ53" t="n">
+      <c r="JZ53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KA53" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47000,8 +47159,11 @@
       <c r="JY54" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JZ54" t="n">
+      <c r="JZ54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KA54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -47862,8 +48024,11 @@
       <c r="JY55" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="JZ55" t="n">
+      <c r="JZ55" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KA55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -48724,8 +48889,11 @@
       <c r="JY56" s="1" t="n">
         <v>43.8</v>
       </c>
-      <c r="JZ56" t="n">
+      <c r="JZ56" s="1" t="n">
         <v>62.5</v>
+      </c>
+      <c r="KA56" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -49586,8 +49754,11 @@
       <c r="JY57" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="JZ57" t="n">
+      <c r="JZ57" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="KA57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50448,8 +50619,11 @@
       <c r="JY58" s="1" t="n">
         <v>122</v>
       </c>
-      <c r="JZ58" t="n">
+      <c r="JZ58" s="1" t="n">
         <v>157</v>
+      </c>
+      <c r="KA58" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51310,8 +51484,11 @@
       <c r="JY59" s="1" t="n">
         <v>330</v>
       </c>
-      <c r="JZ59" t="n">
+      <c r="JZ59" s="1" t="n">
         <v>378</v>
+      </c>
+      <c r="KA59" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52172,8 +52349,11 @@
       <c r="JY60" s="1" t="n">
         <v>1.7</v>
       </c>
-      <c r="JZ60" t="n">
+      <c r="JZ60" s="1" t="n">
         <v>1.41</v>
+      </c>
+      <c r="KA60" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53034,8 +53214,11 @@
       <c r="JY61" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="JZ61" t="n">
+      <c r="JZ61" s="1" t="n">
         <v>95</v>
+      </c>
+      <c r="KA61" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -53896,8 +54079,11 @@
       <c r="JY62" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="JZ62" t="n">
+      <c r="JZ62" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="KA62" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -54758,8 +54944,11 @@
       <c r="JY63" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="JZ63" t="n">
+      <c r="JZ63" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KA63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -55620,8 +55809,11 @@
       <c r="JY64" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="JZ64" t="n">
+      <c r="JZ64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KA64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -56482,8 +56674,11 @@
       <c r="JY65" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="JZ65" t="n">
+      <c r="JZ65" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KA65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57344,8 +57539,11 @@
       <c r="JY66" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="JZ66" t="n">
+      <c r="JZ66" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KA66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -58206,8 +58404,11 @@
       <c r="JY67" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JZ67" t="n">
+      <c r="JZ67" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KA67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -59068,8 +59269,11 @@
       <c r="JY68" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JZ68" t="n">
+      <c r="JZ68" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KA68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -59930,8 +60134,11 @@
       <c r="JY69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JZ69" t="n">
+      <c r="JZ69" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KA69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -60792,8 +60999,11 @@
       <c r="JY70" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="JZ70" t="n">
+      <c r="JZ70" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KA70" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -61654,8 +61864,11 @@
       <c r="JY71" s="1" t="n">
         <v>59.1</v>
       </c>
-      <c r="JZ71" t="n">
+      <c r="JZ71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KA71" t="n">
+        <v>55.6</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -62516,8 +62729,11 @@
       <c r="JY72" s="1" t="n">
         <v>25.38</v>
       </c>
-      <c r="JZ72" t="n">
+      <c r="JZ72" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KA72" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -63378,8 +63594,11 @@
       <c r="JY73" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="JZ73" t="n">
+      <c r="JZ73" s="1" t="n">
         <v>12.6</v>
+      </c>
+      <c r="KA73" t="n">
+        <v>42.78</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64240,8 +64459,11 @@
       <c r="JY74" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JZ74" t="n">
+      <c r="JZ74" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KA74" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -65102,8 +65324,11 @@
       <c r="JY75" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="JZ75" t="n">
+      <c r="JZ75" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KA75" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -65964,8 +66189,11 @@
       <c r="JY76" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JZ76" t="n">
+      <c r="JZ76" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KA76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -66826,8 +67054,11 @@
       <c r="JY77" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="JZ77" t="n">
+      <c r="JZ77" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KA77" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -67688,8 +67919,11 @@
       <c r="JY78" s="1" t="n">
         <v>2.64</v>
       </c>
-      <c r="JZ78" t="n">
+      <c r="JZ78" s="1" t="n">
         <v>1.8</v>
+      </c>
+      <c r="KA78" t="n">
+        <v>4.11</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -68550,8 +68784,11 @@
       <c r="JY79" s="1" t="n">
         <v>4.46</v>
       </c>
-      <c r="JZ79" t="n">
+      <c r="JZ79" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KA79" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -69412,8 +69649,11 @@
       <c r="JY80" s="1" t="n">
         <v>36.2</v>
       </c>
-      <c r="JZ80" t="n">
+      <c r="JZ80" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KA80" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -70274,8 +70514,11 @@
       <c r="JY81" s="1" t="n">
         <v>22.4</v>
       </c>
-      <c r="JZ81" t="n">
+      <c r="JZ81" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KA81" t="n">
+        <v>13.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -71136,8 +71379,11 @@
       <c r="JY82" s="1" t="n">
         <v>187.3</v>
       </c>
-      <c r="JZ82" t="n">
+      <c r="JZ82" s="1" t="n">
         <v>189</v>
+      </c>
+      <c r="KA82" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -71998,8 +72244,11 @@
       <c r="JY83" s="1" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="JZ83" t="n">
+      <c r="JZ83" s="1" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="KA83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -72860,8 +73109,11 @@
       <c r="JY84" s="1" t="n">
         <v>24.91</v>
       </c>
-      <c r="JZ84" t="n">
+      <c r="JZ84" s="1" t="n">
         <v>26.8</v>
+      </c>
+      <c r="KA84" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -73722,8 +73974,11 @@
       <c r="JY85" s="1" t="n">
         <v>88.2</v>
       </c>
-      <c r="JZ85" t="n">
+      <c r="JZ85" s="1" t="n">
         <v>85.5</v>
+      </c>
+      <c r="KA85" t="n">
+        <v>67.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -74584,8 +74839,11 @@
       <c r="JY86" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JZ86" t="n">
+      <c r="JZ86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KA86" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -75446,8 +75704,11 @@
       <c r="JY87" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JZ87" t="n">
+      <c r="JZ87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KA87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -76308,8 +76569,11 @@
       <c r="JY88" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="JZ88" t="n">
+      <c r="JZ88" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KA88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -77170,7 +77434,10 @@
       <c r="JY89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JZ89" t="n">
+      <c r="JZ89" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KA89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -78032,8 +78299,11 @@
       <c r="JY90" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="JZ90" t="n">
+      <c r="JZ90" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="KA90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -78894,8 +79164,11 @@
       <c r="JY91" s="1" t="n">
         <v>163</v>
       </c>
-      <c r="JZ91" t="n">
+      <c r="JZ91" s="1" t="n">
         <v>232</v>
+      </c>
+      <c r="KA91" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -79756,8 +80029,11 @@
       <c r="JY92" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="JZ92" t="n">
+      <c r="JZ92" s="1" t="n">
         <v>274</v>
+      </c>
+      <c r="KA92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -80618,8 +80894,11 @@
       <c r="JY93" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="JZ93" t="n">
+      <c r="JZ93" s="1" t="n">
         <v>72.5</v>
+      </c>
+      <c r="KA93" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -81480,8 +81759,11 @@
       <c r="JY94" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="JZ94" t="n">
+      <c r="JZ94" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KA94" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -82342,8 +82624,11 @@
       <c r="JY95" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JZ95" t="n">
+      <c r="JZ95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KA95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -83204,8 +83489,11 @@
       <c r="JY96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="JZ96" t="n">
+      <c r="JZ96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KA96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -84066,8 +84354,11 @@
       <c r="JY97" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="JZ97" t="n">
+      <c r="JZ97" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KA97" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -84928,8 +85219,11 @@
       <c r="JY98" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="JZ98" t="n">
+      <c r="JZ98" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KA98" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -85790,8 +86084,11 @@
       <c r="JY99" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="JZ99" t="n">
+      <c r="JZ99" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KA99" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -86652,8 +86949,11 @@
       <c r="JY100" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="JZ100" t="n">
+      <c r="JZ100" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KA100" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -87514,8 +87814,11 @@
       <c r="JY101" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="JZ101" t="n">
+      <c r="JZ101" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KA101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -88376,8 +88679,11 @@
       <c r="JY102" s="1" t="n">
         <v>61.5</v>
       </c>
-      <c r="JZ102" t="n">
+      <c r="JZ102" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KA102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KA102"/>
+  <dimension ref="A1:KB102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1317,8 +1317,11 @@
       <c r="JZ1" s="1" t="n">
         <v>10869</v>
       </c>
-      <c r="KA1" t="n">
+      <c r="KA1" s="1" t="n">
         <v>10876</v>
+      </c>
+      <c r="KB1" t="n">
+        <v>10879</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2182,7 +2185,10 @@
       <c r="JZ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KA2" t="n">
+      <c r="KA2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KB2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3047,8 +3053,11 @@
       <c r="JZ3" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KA3" t="n">
+      <c r="KA3" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KB3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3912,7 +3921,10 @@
       <c r="JZ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KA4" t="n">
+      <c r="KA4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KB4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4777,8 +4789,11 @@
       <c r="JZ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KA5" t="n">
+      <c r="KA5" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KB5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5642,8 +5657,11 @@
       <c r="JZ6" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KA6" t="n">
+      <c r="KA6" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="KB6" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6507,8 +6525,11 @@
       <c r="JZ7" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="KA7" t="n">
+      <c r="KA7" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KB7" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7372,8 +7393,11 @@
       <c r="JZ8" s="1" t="n">
         <v>-59</v>
       </c>
-      <c r="KA8" t="n">
+      <c r="KA8" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="KB8" t="n">
+        <v>-78</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8237,8 +8261,11 @@
       <c r="JZ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KA9" t="n">
+      <c r="KA9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KB9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9102,8 +9129,11 @@
       <c r="JZ10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA10" t="n">
+      <c r="KA10" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KB10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -9967,8 +9997,11 @@
       <c r="JZ11" s="1" t="n">
         <v>208</v>
       </c>
-      <c r="KA11" t="n">
+      <c r="KA11" s="1" t="n">
         <v>252</v>
+      </c>
+      <c r="KB11" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10832,8 +10865,11 @@
       <c r="JZ12" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="KA12" t="n">
+      <c r="KA12" s="1" t="n">
         <v>116</v>
+      </c>
+      <c r="KB12" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11697,8 +11733,11 @@
       <c r="JZ13" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="KA13" t="n">
+      <c r="KA13" s="1" t="n">
         <v>368</v>
+      </c>
+      <c r="KB13" t="n">
+        <v>329</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12562,8 +12601,11 @@
       <c r="JZ14" s="1" t="n">
         <v>2.06</v>
       </c>
-      <c r="KA14" t="n">
+      <c r="KA14" s="1" t="n">
         <v>2.17</v>
+      </c>
+      <c r="KB14" t="n">
+        <v>2.05</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13427,8 +13469,11 @@
       <c r="JZ15" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="KA15" t="n">
+      <c r="KA15" s="1" t="n">
         <v>128</v>
+      </c>
+      <c r="KB15" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14292,8 +14337,11 @@
       <c r="JZ16" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KA16" t="n">
+      <c r="KA16" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KB16" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15157,8 +15205,11 @@
       <c r="JZ17" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KA17" t="n">
+      <c r="KA17" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KB17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16022,8 +16073,11 @@
       <c r="JZ18" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KA18" t="n">
+      <c r="KA18" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KB18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16887,8 +16941,11 @@
       <c r="JZ19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KA19" t="n">
+      <c r="KA19" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KB19" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17752,8 +17809,11 @@
       <c r="JZ20" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KA20" t="n">
+      <c r="KA20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KB20" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18617,8 +18677,11 @@
       <c r="JZ21" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KA21" t="n">
+      <c r="KA21" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KB21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19482,8 +19545,11 @@
       <c r="JZ22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KA22" t="n">
+      <c r="KA22" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KB22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20347,8 +20413,11 @@
       <c r="JZ23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KA23" t="n">
+      <c r="KA23" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KB23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21212,8 +21281,11 @@
       <c r="JZ24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KA24" t="n">
+      <c r="KA24" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KB24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22077,8 +22149,11 @@
       <c r="JZ25" s="1" t="n">
         <v>38.1</v>
       </c>
-      <c r="KA25" t="n">
+      <c r="KA25" s="1" t="n">
         <v>45.2</v>
+      </c>
+      <c r="KB25" t="n">
+        <v>29.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -22942,8 +23017,11 @@
       <c r="JZ26" s="1" t="n">
         <v>38.62</v>
       </c>
-      <c r="KA26" t="n">
+      <c r="KA26" s="1" t="n">
         <v>26.29</v>
+      </c>
+      <c r="KB26" t="n">
+        <v>65.8</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23807,8 +23885,11 @@
       <c r="JZ27" s="1" t="n">
         <v>14.71</v>
       </c>
-      <c r="KA27" t="n">
+      <c r="KA27" s="1" t="n">
         <v>11.87</v>
+      </c>
+      <c r="KB27" t="n">
+        <v>19.35</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24672,8 +24753,11 @@
       <c r="JZ28" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KA28" t="n">
+      <c r="KA28" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KB28" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25537,8 +25621,11 @@
       <c r="JZ29" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KA29" t="n">
+      <c r="KA29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KB29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26402,8 +26489,11 @@
       <c r="JZ30" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KA30" t="n">
+      <c r="KA30" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KB30" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27267,8 +27357,11 @@
       <c r="JZ31" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KA31" t="n">
+      <c r="KA31" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="KB31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28132,8 +28225,11 @@
       <c r="JZ32" s="1" t="n">
         <v>2.43</v>
       </c>
-      <c r="KA32" t="n">
+      <c r="KA32" s="1" t="n">
         <v>2.19</v>
+      </c>
+      <c r="KB32" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -28997,8 +29093,11 @@
       <c r="JZ33" s="1" t="n">
         <v>6.38</v>
       </c>
-      <c r="KA33" t="n">
+      <c r="KA33" s="1" t="n">
         <v>4.86</v>
+      </c>
+      <c r="KB33" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29862,8 +29961,11 @@
       <c r="JZ34" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="KA34" t="n">
+      <c r="KA34" s="1" t="n">
         <v>38.2</v>
+      </c>
+      <c r="KB34" t="n">
+        <v>31.1</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30727,8 +30829,11 @@
       <c r="JZ35" s="1" t="n">
         <v>15.7</v>
       </c>
-      <c r="KA35" t="n">
+      <c r="KA35" s="1" t="n">
         <v>20.6</v>
+      </c>
+      <c r="KB35" t="n">
+        <v>11.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31592,7 +31697,10 @@
       <c r="JZ36" s="1" t="n">
         <v>189.1</v>
       </c>
-      <c r="KA36" t="n">
+      <c r="KA36" s="1" t="n">
+        <v>187.5</v>
+      </c>
+      <c r="KB36" t="n">
         <v>187.5</v>
       </c>
     </row>
@@ -32457,7 +32565,10 @@
       <c r="JZ37" s="1" t="n">
         <v>86.3</v>
       </c>
-      <c r="KA37" t="n">
+      <c r="KA37" s="1" t="n">
+        <v>85.7</v>
+      </c>
+      <c r="KB37" t="n">
         <v>85.7</v>
       </c>
     </row>
@@ -33322,7 +33433,10 @@
       <c r="JZ38" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="KA38" t="n">
+      <c r="KA38" s="1" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="KB38" t="n">
         <v>25.33</v>
       </c>
     </row>
@@ -34187,8 +34301,11 @@
       <c r="JZ39" s="1" t="n">
         <v>86</v>
       </c>
-      <c r="KA39" t="n">
+      <c r="KA39" s="1" t="n">
         <v>94.90000000000001</v>
+      </c>
+      <c r="KB39" t="n">
+        <v>95.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35052,7 +35169,10 @@
       <c r="JZ40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KA40" t="n">
+      <c r="KA40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -35917,7 +36037,10 @@
       <c r="JZ41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KA41" t="n">
+      <c r="KA41" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KB41" t="n">
         <v>9</v>
       </c>
     </row>
@@ -36782,7 +36905,10 @@
       <c r="JZ42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KA42" t="n">
+      <c r="KA42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KB42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37647,7 +37773,10 @@
       <c r="JZ43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KA43" t="n">
+      <c r="KA43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KB43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38512,8 +38641,11 @@
       <c r="JZ44" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="KA44" t="n">
+      <c r="KA44" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="KB44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39377,8 +39509,11 @@
       <c r="JZ45" s="1" t="n">
         <v>167</v>
       </c>
-      <c r="KA45" t="n">
+      <c r="KA45" s="1" t="n">
         <v>233</v>
+      </c>
+      <c r="KB45" t="n">
+        <v>193</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40242,8 +40377,11 @@
       <c r="JZ46" s="1" t="n">
         <v>219</v>
       </c>
-      <c r="KA46" t="n">
+      <c r="KA46" s="1" t="n">
         <v>280</v>
+      </c>
+      <c r="KB46" t="n">
+        <v>228</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41107,8 +41245,11 @@
       <c r="JZ47" s="1" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="KA47" t="n">
+      <c r="KA47" s="1" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="KB47" t="n">
+        <v>69.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -41972,8 +42113,11 @@
       <c r="JZ48" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KA48" t="n">
+      <c r="KA48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KB48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42837,8 +42981,11 @@
       <c r="JZ49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KA49" t="n">
+      <c r="KA49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KB49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -43702,8 +43849,11 @@
       <c r="JZ50" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KA50" t="n">
+      <c r="KA50" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KB50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44567,8 +44717,11 @@
       <c r="JZ51" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KA51" t="n">
+      <c r="KA51" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KB51" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45432,8 +45585,11 @@
       <c r="JZ52" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KA52" t="n">
+      <c r="KA52" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KB52" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46297,8 +46453,11 @@
       <c r="JZ53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KA53" t="n">
+      <c r="KA53" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KB53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47162,8 +47321,11 @@
       <c r="JZ54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KA54" t="n">
+      <c r="KA54" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KB54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48027,8 +48189,11 @@
       <c r="JZ55" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KA55" t="n">
+      <c r="KA55" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KB55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -48892,8 +49057,11 @@
       <c r="JZ56" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="KA56" t="n">
+      <c r="KA56" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KB56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -49757,8 +49925,11 @@
       <c r="JZ57" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="KA57" t="n">
+      <c r="KA57" s="1" t="n">
         <v>205</v>
+      </c>
+      <c r="KB57" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50622,8 +50793,11 @@
       <c r="JZ58" s="1" t="n">
         <v>157</v>
       </c>
-      <c r="KA58" t="n">
+      <c r="KA58" s="1" t="n">
         <v>180</v>
+      </c>
+      <c r="KB58" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51487,8 +51661,11 @@
       <c r="JZ59" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="KA59" t="n">
+      <c r="KA59" s="1" t="n">
         <v>385</v>
+      </c>
+      <c r="KB59" t="n">
+        <v>404</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52352,8 +52529,11 @@
       <c r="JZ60" s="1" t="n">
         <v>1.41</v>
       </c>
-      <c r="KA60" t="n">
+      <c r="KA60" s="1" t="n">
         <v>1.14</v>
+      </c>
+      <c r="KB60" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53217,8 +53397,11 @@
       <c r="JZ61" s="1" t="n">
         <v>95</v>
       </c>
-      <c r="KA61" t="n">
+      <c r="KA61" s="1" t="n">
         <v>82</v>
+      </c>
+      <c r="KB61" t="n">
+        <v>92</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54082,8 +54265,11 @@
       <c r="JZ62" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="KA62" t="n">
+      <c r="KA62" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KB62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -54947,8 +55133,11 @@
       <c r="JZ63" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KA63" t="n">
+      <c r="KA63" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KB63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -55812,8 +56001,11 @@
       <c r="JZ64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KA64" t="n">
+      <c r="KA64" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KB64" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -56677,8 +56869,11 @@
       <c r="JZ65" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KA65" t="n">
+      <c r="KA65" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KB65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57542,8 +57737,11 @@
       <c r="JZ66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KA66" t="n">
+      <c r="KA66" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KB66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -58407,8 +58605,11 @@
       <c r="JZ67" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KA67" t="n">
+      <c r="KA67" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KB67" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -59272,8 +59473,11 @@
       <c r="JZ68" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KA68" t="n">
+      <c r="KA68" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KB68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60137,8 +60341,11 @@
       <c r="JZ69" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA69" t="n">
+      <c r="KA69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KB69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -61002,8 +61209,11 @@
       <c r="JZ70" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KA70" t="n">
+      <c r="KA70" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KB70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -61867,8 +62077,11 @@
       <c r="JZ71" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KA71" t="n">
+      <c r="KA71" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="KB71" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -62732,8 +62945,11 @@
       <c r="JZ72" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KA72" t="n">
+      <c r="KA72" s="1" t="n">
         <v>77</v>
+      </c>
+      <c r="KB72" t="n">
+        <v>22.44</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -63597,8 +63813,11 @@
       <c r="JZ73" s="1" t="n">
         <v>12.6</v>
       </c>
-      <c r="KA73" t="n">
+      <c r="KA73" s="1" t="n">
         <v>42.78</v>
+      </c>
+      <c r="KB73" t="n">
+        <v>13.47</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64462,8 +64681,11 @@
       <c r="JZ74" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KA74" t="n">
+      <c r="KA74" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KB74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -65327,8 +65549,11 @@
       <c r="JZ75" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KA75" t="n">
+      <c r="KA75" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KB75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -66192,8 +66417,11 @@
       <c r="JZ76" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KA76" t="n">
+      <c r="KA76" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KB76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -67057,8 +67285,11 @@
       <c r="JZ77" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KA77" t="n">
+      <c r="KA77" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KB77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -67922,8 +68153,11 @@
       <c r="JZ78" s="1" t="n">
         <v>1.8</v>
       </c>
-      <c r="KA78" t="n">
+      <c r="KA78" s="1" t="n">
         <v>4.11</v>
+      </c>
+      <c r="KB78" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -68787,8 +69021,11 @@
       <c r="JZ79" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA79" t="n">
+      <c r="KA79" s="1" t="n">
         <v>7.4</v>
+      </c>
+      <c r="KB79" t="n">
+        <v>3.44</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -69652,8 +69889,11 @@
       <c r="JZ80" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KA80" t="n">
+      <c r="KA80" s="1" t="n">
         <v>21.6</v>
+      </c>
+      <c r="KB80" t="n">
+        <v>45.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -70517,8 +70757,11 @@
       <c r="JZ81" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="KA81" t="n">
+      <c r="KA81" s="1" t="n">
         <v>13.5</v>
+      </c>
+      <c r="KB81" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -71382,8 +71625,11 @@
       <c r="JZ82" s="1" t="n">
         <v>189</v>
       </c>
-      <c r="KA82" t="n">
+      <c r="KA82" s="1" t="n">
         <v>188.9</v>
+      </c>
+      <c r="KB82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -72247,8 +72493,11 @@
       <c r="JZ83" s="1" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="KA83" t="n">
+      <c r="KA83" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KB83" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -73112,8 +73361,11 @@
       <c r="JZ84" s="1" t="n">
         <v>26.8</v>
       </c>
-      <c r="KA84" t="n">
+      <c r="KA84" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KB84" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -73977,8 +74229,11 @@
       <c r="JZ85" s="1" t="n">
         <v>85.5</v>
       </c>
-      <c r="KA85" t="n">
+      <c r="KA85" s="1" t="n">
         <v>67.7</v>
+      </c>
+      <c r="KB85" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -74842,8 +75097,11 @@
       <c r="JZ86" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KA86" t="n">
+      <c r="KA86" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KB86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -75707,8 +75965,11 @@
       <c r="JZ87" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KA87" t="n">
+      <c r="KA87" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KB87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -76572,8 +76833,11 @@
       <c r="JZ88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KA88" t="n">
+      <c r="KA88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KB88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -77437,8 +77701,11 @@
       <c r="JZ89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KA89" t="n">
+      <c r="KA89" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KB89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -78302,8 +78569,11 @@
       <c r="JZ90" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="KA90" t="n">
+      <c r="KA90" s="1" t="n">
         <v>127</v>
+      </c>
+      <c r="KB90" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -79167,8 +79437,11 @@
       <c r="JZ91" s="1" t="n">
         <v>232</v>
       </c>
-      <c r="KA91" t="n">
+      <c r="KA91" s="1" t="n">
         <v>248</v>
+      </c>
+      <c r="KB91" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -80032,8 +80305,11 @@
       <c r="JZ92" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="KA92" t="n">
+      <c r="KA92" s="1" t="n">
         <v>281</v>
+      </c>
+      <c r="KB92" t="n">
+        <v>309</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -80897,8 +81173,11 @@
       <c r="JZ93" s="1" t="n">
         <v>72.5</v>
       </c>
-      <c r="KA93" t="n">
+      <c r="KA93" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="KB93" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -81762,8 +82041,11 @@
       <c r="JZ94" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KA94" t="n">
+      <c r="KA94" s="1" t="n">
         <v>70</v>
+      </c>
+      <c r="KB94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -82627,8 +82909,11 @@
       <c r="JZ95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KA95" t="n">
+      <c r="KA95" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KB95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -83492,8 +83777,11 @@
       <c r="JZ96" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KA96" t="n">
+      <c r="KA96" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KB96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -84357,8 +84645,11 @@
       <c r="JZ97" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KA97" t="n">
+      <c r="KA97" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KB97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -85222,8 +85513,11 @@
       <c r="JZ98" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KA98" t="n">
+      <c r="KA98" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KB98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -86087,8 +86381,11 @@
       <c r="JZ99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KA99" t="n">
+      <c r="KA99" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KB99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -86952,7 +87249,10 @@
       <c r="JZ100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KA100" t="n">
+      <c r="KA100" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KB100" t="n">
         <v>12</v>
       </c>
     </row>
@@ -87817,8 +88117,11 @@
       <c r="JZ101" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KA101" t="n">
+      <c r="KA101" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KB101" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -88682,8 +88985,11 @@
       <c r="JZ102" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="KA102" t="n">
+      <c r="KA102" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="KB102" t="n">
+        <v>72.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KB102"/>
+  <dimension ref="A1:KC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1320,8 +1320,11 @@
       <c r="KA1" s="1" t="n">
         <v>10876</v>
       </c>
-      <c r="KB1" t="n">
+      <c r="KB1" s="1" t="n">
         <v>10879</v>
+      </c>
+      <c r="KC1" t="n">
+        <v>10893</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2188,7 +2191,10 @@
       <c r="KA2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KB2" t="n">
+      <c r="KB2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KC2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3056,8 +3062,11 @@
       <c r="KA3" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KB3" t="n">
+      <c r="KB3" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KC3" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3924,8 +3933,11 @@
       <c r="KA4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KB4" t="n">
+      <c r="KB4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KC4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4792,8 +4804,11 @@
       <c r="KA5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KB5" t="n">
+      <c r="KB5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KC5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5660,8 +5675,11 @@
       <c r="KA6" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="KB6" t="n">
+      <c r="KB6" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KC6" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6528,8 +6546,11 @@
       <c r="KA7" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KB7" t="n">
+      <c r="KB7" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="KC7" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7396,8 +7417,11 @@
       <c r="KA8" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="KB8" t="n">
+      <c r="KB8" s="1" t="n">
         <v>-78</v>
+      </c>
+      <c r="KC8" t="n">
+        <v>-33</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8264,7 +8288,10 @@
       <c r="KA9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KB9" t="n">
+      <c r="KB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KC9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9132,8 +9159,11 @@
       <c r="KA10" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KB10" t="n">
+      <c r="KB10" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KC10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10000,8 +10030,11 @@
       <c r="KA11" s="1" t="n">
         <v>252</v>
       </c>
-      <c r="KB11" t="n">
+      <c r="KB11" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="KC11" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10868,8 +10901,11 @@
       <c r="KA12" s="1" t="n">
         <v>116</v>
       </c>
-      <c r="KB12" t="n">
+      <c r="KB12" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="KC12" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11736,8 +11772,11 @@
       <c r="KA13" s="1" t="n">
         <v>368</v>
       </c>
-      <c r="KB13" t="n">
+      <c r="KB13" s="1" t="n">
         <v>329</v>
+      </c>
+      <c r="KC13" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12604,8 +12643,11 @@
       <c r="KA14" s="1" t="n">
         <v>2.17</v>
       </c>
-      <c r="KB14" t="n">
+      <c r="KB14" s="1" t="n">
         <v>2.05</v>
+      </c>
+      <c r="KC14" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13472,8 +13514,11 @@
       <c r="KA15" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="KB15" t="n">
+      <c r="KB15" s="1" t="n">
         <v>106</v>
+      </c>
+      <c r="KC15" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14340,8 +14385,11 @@
       <c r="KA16" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KB16" t="n">
+      <c r="KB16" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KC16" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15208,8 +15256,11 @@
       <c r="KA17" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KB17" t="n">
+      <c r="KB17" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KC17" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16076,8 +16127,11 @@
       <c r="KA18" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KB18" t="n">
+      <c r="KB18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KC18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -16944,8 +16998,11 @@
       <c r="KA19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KB19" t="n">
+      <c r="KB19" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KC19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17812,8 +17869,11 @@
       <c r="KA20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KB20" t="n">
+      <c r="KB20" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KC20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18680,8 +18740,11 @@
       <c r="KA21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KB21" t="n">
+      <c r="KB21" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KC21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19548,8 +19611,11 @@
       <c r="KA22" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KB22" t="n">
+      <c r="KB22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KC22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20416,8 +20482,11 @@
       <c r="KA23" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB23" t="n">
+      <c r="KB23" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KC23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21284,8 +21353,11 @@
       <c r="KA24" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KB24" t="n">
+      <c r="KB24" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KC24" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22152,8 +22224,11 @@
       <c r="KA25" s="1" t="n">
         <v>45.2</v>
       </c>
-      <c r="KB25" t="n">
+      <c r="KB25" s="1" t="n">
         <v>29.4</v>
+      </c>
+      <c r="KC25" t="n">
+        <v>61.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23020,8 +23095,11 @@
       <c r="KA26" s="1" t="n">
         <v>26.29</v>
       </c>
-      <c r="KB26" t="n">
+      <c r="KB26" s="1" t="n">
         <v>65.8</v>
+      </c>
+      <c r="KC26" t="n">
+        <v>31.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23888,8 +23966,11 @@
       <c r="KA27" s="1" t="n">
         <v>11.87</v>
       </c>
-      <c r="KB27" t="n">
+      <c r="KB27" s="1" t="n">
         <v>19.35</v>
+      </c>
+      <c r="KC27" t="n">
+        <v>19.44</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24756,8 +24837,11 @@
       <c r="KA28" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KB28" t="n">
+      <c r="KB28" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KC28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25624,8 +25708,11 @@
       <c r="KA29" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KB29" t="n">
+      <c r="KB29" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KC29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26492,8 +26579,11 @@
       <c r="KA30" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KB30" t="n">
+      <c r="KB30" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KC30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27360,8 +27450,11 @@
       <c r="KA31" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="KB31" t="n">
+      <c r="KB31" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KC31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28228,8 +28321,11 @@
       <c r="KA32" s="1" t="n">
         <v>2.19</v>
       </c>
-      <c r="KB32" t="n">
+      <c r="KB32" s="1" t="n">
         <v>2.65</v>
+      </c>
+      <c r="KC32" t="n">
+        <v>2.83</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29096,8 +29192,11 @@
       <c r="KA33" s="1" t="n">
         <v>4.86</v>
       </c>
-      <c r="KB33" t="n">
+      <c r="KB33" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KC33" t="n">
+        <v>4.64</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -29964,8 +30063,11 @@
       <c r="KA34" s="1" t="n">
         <v>38.2</v>
       </c>
-      <c r="KB34" t="n">
+      <c r="KB34" s="1" t="n">
         <v>31.1</v>
+      </c>
+      <c r="KC34" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30832,8 +30934,11 @@
       <c r="KA35" s="1" t="n">
         <v>20.6</v>
       </c>
-      <c r="KB35" t="n">
+      <c r="KB35" s="1" t="n">
         <v>11.1</v>
+      </c>
+      <c r="KC35" t="n">
+        <v>21.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31700,8 +31805,11 @@
       <c r="KA36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="KB36" t="n">
+      <c r="KB36" s="1" t="n">
         <v>187.5</v>
+      </c>
+      <c r="KC36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32568,8 +32676,11 @@
       <c r="KA37" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="KB37" t="n">
+      <c r="KB37" s="1" t="n">
         <v>85.7</v>
+      </c>
+      <c r="KC37" t="n">
+        <v>86.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33436,8 +33547,11 @@
       <c r="KA38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KB38" t="n">
+      <c r="KB38" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KC38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34304,8 +34418,11 @@
       <c r="KA39" s="1" t="n">
         <v>94.90000000000001</v>
       </c>
-      <c r="KB39" t="n">
+      <c r="KB39" s="1" t="n">
         <v>95.90000000000001</v>
+      </c>
+      <c r="KC39" t="n">
+        <v>99.90000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35172,7 +35289,10 @@
       <c r="KA40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB40" t="n">
+      <c r="KB40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36040,8 +36160,11 @@
       <c r="KA41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KB41" t="n">
+      <c r="KB41" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KC41" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -36908,7 +37031,10 @@
       <c r="KA42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB42" t="n">
+      <c r="KB42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KC42" t="n">
         <v>5</v>
       </c>
     </row>
@@ -37776,8 +37902,11 @@
       <c r="KA43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KB43" t="n">
+      <c r="KB43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KC43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -38644,8 +38773,11 @@
       <c r="KA44" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="KB44" t="n">
+      <c r="KB44" s="1" t="n">
         <v>119</v>
+      </c>
+      <c r="KC44" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39512,8 +39644,11 @@
       <c r="KA45" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="KB45" t="n">
+      <c r="KB45" s="1" t="n">
         <v>193</v>
+      </c>
+      <c r="KC45" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40380,8 +40515,11 @@
       <c r="KA46" s="1" t="n">
         <v>280</v>
       </c>
-      <c r="KB46" t="n">
+      <c r="KB46" s="1" t="n">
         <v>228</v>
+      </c>
+      <c r="KC46" t="n">
+        <v>249</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41248,8 +41386,11 @@
       <c r="KA47" s="1" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="KB47" t="n">
+      <c r="KB47" s="1" t="n">
         <v>69.3</v>
+      </c>
+      <c r="KC47" t="n">
+        <v>71.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42116,8 +42257,11 @@
       <c r="KA48" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="KB48" t="n">
+      <c r="KB48" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KC48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -42984,8 +43128,11 @@
       <c r="KA49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KB49" t="n">
+      <c r="KB49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KC49" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -43852,8 +43999,11 @@
       <c r="KA50" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KB50" t="n">
+      <c r="KB50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KC50" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44720,8 +44870,11 @@
       <c r="KA51" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KB51" t="n">
+      <c r="KB51" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KC51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -45588,8 +45741,11 @@
       <c r="KA52" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KB52" t="n">
+      <c r="KB52" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KC52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46456,8 +46612,11 @@
       <c r="KA53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KB53" t="n">
+      <c r="KB53" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KC53" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47324,8 +47483,11 @@
       <c r="KA54" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KB54" t="n">
+      <c r="KB54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KC54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48192,8 +48354,11 @@
       <c r="KA55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KB55" t="n">
+      <c r="KB55" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KC55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49060,8 +49225,11 @@
       <c r="KA56" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KB56" t="n">
+      <c r="KB56" s="1" t="n">
         <v>80</v>
+      </c>
+      <c r="KC56" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -49928,8 +50096,11 @@
       <c r="KA57" s="1" t="n">
         <v>205</v>
       </c>
-      <c r="KB57" t="n">
+      <c r="KB57" s="1" t="n">
         <v>231</v>
+      </c>
+      <c r="KC57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50796,8 +50967,11 @@
       <c r="KA58" s="1" t="n">
         <v>180</v>
       </c>
-      <c r="KB58" t="n">
+      <c r="KB58" s="1" t="n">
         <v>173</v>
+      </c>
+      <c r="KC58" t="n">
+        <v>118</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51664,8 +51838,11 @@
       <c r="KA59" s="1" t="n">
         <v>385</v>
       </c>
-      <c r="KB59" t="n">
+      <c r="KB59" s="1" t="n">
         <v>404</v>
+      </c>
+      <c r="KC59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52532,8 +52709,11 @@
       <c r="KA60" s="1" t="n">
         <v>1.14</v>
       </c>
-      <c r="KB60" t="n">
+      <c r="KB60" s="1" t="n">
         <v>1.34</v>
+      </c>
+      <c r="KC60" t="n">
+        <v>1.87</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53400,8 +53580,11 @@
       <c r="KA61" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="KB61" t="n">
+      <c r="KB61" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="KC61" t="n">
+        <v>83</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54268,8 +54451,11 @@
       <c r="KA62" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KB62" t="n">
+      <c r="KB62" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KC62" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55136,8 +55322,11 @@
       <c r="KA63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KB63" t="n">
+      <c r="KB63" s="1" t="n">
         <v>25</v>
+      </c>
+      <c r="KC63" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56004,8 +56193,11 @@
       <c r="KA64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KB64" t="n">
+      <c r="KB64" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KC64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -56872,8 +57064,11 @@
       <c r="KA65" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KB65" t="n">
+      <c r="KB65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KC65" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57740,8 +57935,11 @@
       <c r="KA66" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB66" t="n">
+      <c r="KB66" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KC66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -58608,8 +58806,11 @@
       <c r="KA67" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KB67" t="n">
+      <c r="KB67" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KC67" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -59476,8 +59677,11 @@
       <c r="KA68" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KB68" t="n">
+      <c r="KB68" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KC68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60344,7 +60548,10 @@
       <c r="KA69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KB69" t="n">
+      <c r="KB69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KC69" t="n">
         <v>2</v>
       </c>
     </row>
@@ -61212,8 +61419,11 @@
       <c r="KA70" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KB70" t="n">
+      <c r="KB70" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KC70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62080,8 +62290,11 @@
       <c r="KA71" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="KB71" t="n">
+      <c r="KB71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KC71" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -62948,8 +63161,11 @@
       <c r="KA72" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="KB72" t="n">
+      <c r="KB72" s="1" t="n">
         <v>22.44</v>
+      </c>
+      <c r="KC72" t="n">
+        <v>21.19</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -63816,8 +64032,11 @@
       <c r="KA73" s="1" t="n">
         <v>42.78</v>
       </c>
-      <c r="KB73" t="n">
+      <c r="KB73" s="1" t="n">
         <v>13.47</v>
+      </c>
+      <c r="KC73" t="n">
+        <v>13.04</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64684,8 +64903,11 @@
       <c r="KA74" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KB74" t="n">
+      <c r="KB74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KC74" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -65552,8 +65774,11 @@
       <c r="KA75" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KB75" t="n">
+      <c r="KB75" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KC75" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -66420,8 +66645,11 @@
       <c r="KA76" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KB76" t="n">
+      <c r="KB76" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KC76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -67288,8 +67516,11 @@
       <c r="KA77" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KB77" t="n">
+      <c r="KB77" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="KC77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -68156,8 +68387,11 @@
       <c r="KA78" s="1" t="n">
         <v>4.11</v>
       </c>
-      <c r="KB78" t="n">
+      <c r="KB78" s="1" t="n">
         <v>2.07</v>
+      </c>
+      <c r="KC78" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69024,8 +69258,11 @@
       <c r="KA79" s="1" t="n">
         <v>7.4</v>
       </c>
-      <c r="KB79" t="n">
+      <c r="KB79" s="1" t="n">
         <v>3.44</v>
+      </c>
+      <c r="KC79" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -69892,8 +70129,11 @@
       <c r="KA80" s="1" t="n">
         <v>21.6</v>
       </c>
-      <c r="KB80" t="n">
+      <c r="KB80" s="1" t="n">
         <v>45.2</v>
+      </c>
+      <c r="KC80" t="n">
+        <v>38.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -70760,8 +71000,11 @@
       <c r="KA81" s="1" t="n">
         <v>13.5</v>
       </c>
-      <c r="KB81" t="n">
+      <c r="KB81" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KC81" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -71628,8 +71871,11 @@
       <c r="KA82" s="1" t="n">
         <v>188.9</v>
       </c>
-      <c r="KB82" t="n">
+      <c r="KB82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KC82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -72496,8 +72742,11 @@
       <c r="KA83" s="1" t="n">
         <v>87.3</v>
       </c>
-      <c r="KB83" t="n">
+      <c r="KB83" s="1" t="n">
         <v>87.2</v>
+      </c>
+      <c r="KC83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -73364,8 +73613,11 @@
       <c r="KA84" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KB84" t="n">
+      <c r="KB84" s="1" t="n">
         <v>27.24</v>
+      </c>
+      <c r="KC84" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -74232,8 +74484,11 @@
       <c r="KA85" s="1" t="n">
         <v>67.7</v>
       </c>
-      <c r="KB85" t="n">
+      <c r="KB85" s="1" t="n">
         <v>121</v>
+      </c>
+      <c r="KC85" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -75100,8 +75355,11 @@
       <c r="KA86" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KB86" t="n">
+      <c r="KB86" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KC86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -75968,8 +76226,11 @@
       <c r="KA87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB87" t="n">
+      <c r="KB87" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KC87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -76836,8 +77097,11 @@
       <c r="KA88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KB88" t="n">
+      <c r="KB88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KC88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -77704,8 +77968,11 @@
       <c r="KA89" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KB89" t="n">
+      <c r="KB89" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KC89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -78572,8 +78839,11 @@
       <c r="KA90" s="1" t="n">
         <v>127</v>
       </c>
-      <c r="KB90" t="n">
+      <c r="KB90" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="KC90" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -79440,8 +79710,11 @@
       <c r="KA91" s="1" t="n">
         <v>248</v>
       </c>
-      <c r="KB91" t="n">
+      <c r="KB91" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="KC91" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -80308,8 +80581,11 @@
       <c r="KA92" s="1" t="n">
         <v>281</v>
       </c>
-      <c r="KB92" t="n">
+      <c r="KB92" s="1" t="n">
         <v>309</v>
+      </c>
+      <c r="KC92" t="n">
+        <v>240</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -81176,8 +81452,11 @@
       <c r="KA93" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="KB93" t="n">
+      <c r="KB93" s="1" t="n">
         <v>76.5</v>
+      </c>
+      <c r="KC93" t="n">
+        <v>70.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -82044,8 +82323,11 @@
       <c r="KA94" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="KB94" t="n">
+      <c r="KB94" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KC94" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -82912,8 +83194,11 @@
       <c r="KA95" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KB95" t="n">
+      <c r="KB95" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KC95" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -83780,8 +84065,11 @@
       <c r="KA96" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KB96" t="n">
+      <c r="KB96" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KC96" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -84648,8 +84936,11 @@
       <c r="KA97" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KB97" t="n">
+      <c r="KB97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KC97" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -85516,8 +85807,11 @@
       <c r="KA98" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KB98" t="n">
+      <c r="KB98" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KC98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -86384,8 +86678,11 @@
       <c r="KA99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KB99" t="n">
+      <c r="KB99" s="1" t="n">
         <v>54</v>
+      </c>
+      <c r="KC99" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -87252,8 +87549,11 @@
       <c r="KA100" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KB100" t="n">
+      <c r="KB100" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KC100" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -88120,8 +88420,11 @@
       <c r="KA101" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KB101" t="n">
+      <c r="KB101" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KC101" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -88988,8 +89291,11 @@
       <c r="KA102" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="KB102" t="n">
+      <c r="KB102" s="1" t="n">
         <v>72.2</v>
+      </c>
+      <c r="KC102" t="n">
+        <v>87.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KC102"/>
+  <dimension ref="A1:KD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1323,8 +1323,11 @@
       <c r="KB1" s="1" t="n">
         <v>10879</v>
       </c>
-      <c r="KC1" t="n">
+      <c r="KC1" s="1" t="n">
         <v>10893</v>
+      </c>
+      <c r="KD1" t="n">
+        <v>10898</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2194,7 +2197,10 @@
       <c r="KB2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KC2" t="n">
+      <c r="KC2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KD2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3065,8 +3071,11 @@
       <c r="KB3" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KC3" t="n">
+      <c r="KC3" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KD3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3936,8 +3945,11 @@
       <c r="KB4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KC4" t="n">
+      <c r="KC4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KD4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4807,7 +4819,10 @@
       <c r="KB5" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KC5" t="n">
+      <c r="KC5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KD5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5678,8 +5693,11 @@
       <c r="KB6" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KC6" t="n">
+      <c r="KC6" s="1" t="n">
         <v>73</v>
+      </c>
+      <c r="KD6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6549,8 +6567,11 @@
       <c r="KB7" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="KC7" t="n">
+      <c r="KC7" s="1" t="n">
         <v>106</v>
+      </c>
+      <c r="KD7" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7420,8 +7441,11 @@
       <c r="KB8" s="1" t="n">
         <v>-78</v>
       </c>
-      <c r="KC8" t="n">
+      <c r="KC8" s="1" t="n">
         <v>-33</v>
+      </c>
+      <c r="KD8" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8291,8 +8315,11 @@
       <c r="KB9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KC9" t="n">
+      <c r="KC9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KD9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9162,8 +9189,11 @@
       <c r="KB10" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KC10" t="n">
+      <c r="KC10" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KD10" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10033,8 +10063,11 @@
       <c r="KB11" s="1" t="n">
         <v>221</v>
       </c>
-      <c r="KC11" t="n">
+      <c r="KC11" s="1" t="n">
         <v>219</v>
+      </c>
+      <c r="KD11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10904,8 +10937,11 @@
       <c r="KB12" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="KC12" t="n">
+      <c r="KC12" s="1" t="n">
         <v>131</v>
+      </c>
+      <c r="KD12" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11775,8 +11811,11 @@
       <c r="KB13" s="1" t="n">
         <v>329</v>
       </c>
-      <c r="KC13" t="n">
+      <c r="KC13" s="1" t="n">
         <v>350</v>
+      </c>
+      <c r="KD13" t="n">
+        <v>378</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12646,8 +12685,11 @@
       <c r="KB14" s="1" t="n">
         <v>2.05</v>
       </c>
-      <c r="KC14" t="n">
+      <c r="KC14" s="1" t="n">
         <v>1.67</v>
+      </c>
+      <c r="KD14" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13517,8 +13559,11 @@
       <c r="KB15" s="1" t="n">
         <v>106</v>
       </c>
-      <c r="KC15" t="n">
+      <c r="KC15" s="1" t="n">
         <v>75</v>
+      </c>
+      <c r="KD15" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14388,8 +14433,11 @@
       <c r="KB16" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KC16" t="n">
+      <c r="KC16" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KD16" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15259,7 +15307,10 @@
       <c r="KB17" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KC17" t="n">
+      <c r="KC17" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="KD17" t="n">
         <v>49</v>
       </c>
     </row>
@@ -16130,8 +16181,11 @@
       <c r="KB18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KC18" t="n">
+      <c r="KC18" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KD18" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17001,8 +17055,11 @@
       <c r="KB19" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KC19" t="n">
+      <c r="KC19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KD19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17872,7 +17929,10 @@
       <c r="KB20" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KC20" t="n">
+      <c r="KC20" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KD20" t="n">
         <v>11</v>
       </c>
     </row>
@@ -18743,8 +18803,11 @@
       <c r="KB21" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KC21" t="n">
+      <c r="KC21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KD21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19614,8 +19677,11 @@
       <c r="KB22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KC22" t="n">
+      <c r="KC22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KD22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20485,7 +20551,10 @@
       <c r="KB23" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KC23" t="n">
+      <c r="KC23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21356,8 +21425,11 @@
       <c r="KB24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KC24" t="n">
+      <c r="KC24" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KD24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22227,8 +22299,11 @@
       <c r="KB25" s="1" t="n">
         <v>29.4</v>
       </c>
-      <c r="KC25" t="n">
+      <c r="KC25" s="1" t="n">
         <v>61.1</v>
+      </c>
+      <c r="KD25" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23098,8 +23173,11 @@
       <c r="KB26" s="1" t="n">
         <v>65.8</v>
       </c>
-      <c r="KC26" t="n">
+      <c r="KC26" s="1" t="n">
         <v>31.82</v>
+      </c>
+      <c r="KD26" t="n">
+        <v>34.36</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -23969,8 +24047,11 @@
       <c r="KB27" s="1" t="n">
         <v>19.35</v>
       </c>
-      <c r="KC27" t="n">
+      <c r="KC27" s="1" t="n">
         <v>19.44</v>
+      </c>
+      <c r="KD27" t="n">
+        <v>17.18</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -24840,7 +24921,10 @@
       <c r="KB28" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KC28" t="n">
+      <c r="KC28" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD28" t="n">
         <v>41</v>
       </c>
     </row>
@@ -25711,8 +25795,11 @@
       <c r="KB29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KC29" t="n">
+      <c r="KC29" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KD29" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26582,8 +26669,11 @@
       <c r="KB30" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KC30" t="n">
+      <c r="KC30" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KD30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27453,8 +27543,11 @@
       <c r="KB31" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KC31" t="n">
+      <c r="KC31" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KD31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28324,8 +28417,11 @@
       <c r="KB32" s="1" t="n">
         <v>2.65</v>
       </c>
-      <c r="KC32" t="n">
+      <c r="KC32" s="1" t="n">
         <v>2.83</v>
+      </c>
+      <c r="KD32" t="n">
+        <v>2.36</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29195,8 +29291,11 @@
       <c r="KB33" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KC33" t="n">
+      <c r="KC33" s="1" t="n">
         <v>4.64</v>
+      </c>
+      <c r="KD33" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30066,8 +30165,11 @@
       <c r="KB34" s="1" t="n">
         <v>31.1</v>
       </c>
-      <c r="KC34" t="n">
+      <c r="KC34" s="1" t="n">
         <v>31.4</v>
+      </c>
+      <c r="KD34" t="n">
+        <v>38.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -30937,8 +31039,11 @@
       <c r="KB35" s="1" t="n">
         <v>11.1</v>
       </c>
-      <c r="KC35" t="n">
+      <c r="KC35" s="1" t="n">
         <v>21.6</v>
+      </c>
+      <c r="KD35" t="n">
+        <v>21.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -31808,7 +31913,10 @@
       <c r="KB36" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="KC36" t="n">
+      <c r="KC36" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="KD36" t="n">
         <v>188</v>
       </c>
     </row>
@@ -32679,8 +32787,11 @@
       <c r="KB37" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="KC37" t="n">
+      <c r="KC37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KD37" t="n">
+        <v>86.40000000000001</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -33550,8 +33661,11 @@
       <c r="KB38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KC38" t="n">
+      <c r="KC38" s="1" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KD38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34421,8 +34535,11 @@
       <c r="KB39" s="1" t="n">
         <v>95.90000000000001</v>
       </c>
-      <c r="KC39" t="n">
+      <c r="KC39" s="1" t="n">
         <v>99.90000000000001</v>
+      </c>
+      <c r="KD39" t="n">
+        <v>98.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35292,7 +35409,10 @@
       <c r="KB40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KC40" t="n">
+      <c r="KC40" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD40" t="n">
         <v>5</v>
       </c>
     </row>
@@ -36163,8 +36283,11 @@
       <c r="KB41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KC41" t="n">
+      <c r="KC41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KD41" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37034,8 +37157,11 @@
       <c r="KB42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KC42" t="n">
+      <c r="KC42" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KD42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -37905,7 +38031,10 @@
       <c r="KB43" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KC43" t="n">
+      <c r="KC43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KD43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -38776,8 +38905,11 @@
       <c r="KB44" s="1" t="n">
         <v>119</v>
       </c>
-      <c r="KC44" t="n">
+      <c r="KC44" s="1" t="n">
         <v>154</v>
+      </c>
+      <c r="KD44" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39647,8 +39779,11 @@
       <c r="KB45" s="1" t="n">
         <v>193</v>
       </c>
-      <c r="KC45" t="n">
+      <c r="KC45" s="1" t="n">
         <v>187</v>
+      </c>
+      <c r="KD45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40518,8 +40653,11 @@
       <c r="KB46" s="1" t="n">
         <v>228</v>
       </c>
-      <c r="KC46" t="n">
+      <c r="KC46" s="1" t="n">
         <v>249</v>
+      </c>
+      <c r="KD46" t="n">
+        <v>289</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41389,8 +41527,11 @@
       <c r="KB47" s="1" t="n">
         <v>69.3</v>
       </c>
-      <c r="KC47" t="n">
+      <c r="KC47" s="1" t="n">
         <v>71.09999999999999</v>
+      </c>
+      <c r="KD47" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42260,8 +42401,11 @@
       <c r="KB48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KC48" t="n">
+      <c r="KC48" s="1" t="n">
         <v>52</v>
+      </c>
+      <c r="KD48" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43131,8 +43275,11 @@
       <c r="KB49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KC49" t="n">
+      <c r="KC49" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KD49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44002,8 +44149,11 @@
       <c r="KB50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KC50" t="n">
+      <c r="KC50" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KD50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -44873,7 +45023,10 @@
       <c r="KB51" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KC51" t="n">
+      <c r="KC51" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="KD51" t="n">
         <v>41</v>
       </c>
     </row>
@@ -45744,8 +45897,11 @@
       <c r="KB52" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KC52" t="n">
+      <c r="KC52" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KD52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46615,8 +46771,11 @@
       <c r="KB53" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KC53" t="n">
+      <c r="KC53" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="KD53" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47486,7 +47645,10 @@
       <c r="KB54" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KC54" t="n">
+      <c r="KC54" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KD54" t="n">
         <v>2</v>
       </c>
     </row>
@@ -48357,8 +48519,11 @@
       <c r="KB55" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KC55" t="n">
+      <c r="KC55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KD55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49228,8 +49393,11 @@
       <c r="KB56" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="KC56" t="n">
+      <c r="KC56" s="1" t="n">
         <v>54.5</v>
+      </c>
+      <c r="KD56" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50099,8 +50267,11 @@
       <c r="KB57" s="1" t="n">
         <v>231</v>
       </c>
-      <c r="KC57" t="n">
+      <c r="KC57" s="1" t="n">
         <v>221</v>
+      </c>
+      <c r="KD57" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -50970,8 +51141,11 @@
       <c r="KB58" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="KC58" t="n">
+      <c r="KC58" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="KD58" t="n">
+        <v>173</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -51841,8 +52015,11 @@
       <c r="KB59" s="1" t="n">
         <v>404</v>
       </c>
-      <c r="KC59" t="n">
+      <c r="KC59" s="1" t="n">
         <v>339</v>
+      </c>
+      <c r="KD59" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -52712,8 +52889,11 @@
       <c r="KB60" s="1" t="n">
         <v>1.34</v>
       </c>
-      <c r="KC60" t="n">
+      <c r="KC60" s="1" t="n">
         <v>1.87</v>
+      </c>
+      <c r="KD60" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53583,8 +53763,11 @@
       <c r="KB61" s="1" t="n">
         <v>92</v>
       </c>
-      <c r="KC61" t="n">
+      <c r="KC61" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="KD61" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54454,8 +54637,11 @@
       <c r="KB62" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="KC62" t="n">
+      <c r="KC62" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KD62" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55325,8 +55511,11 @@
       <c r="KB63" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KC63" t="n">
+      <c r="KC63" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KD63" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56196,8 +56385,11 @@
       <c r="KB64" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KC64" t="n">
+      <c r="KC64" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KD64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57067,8 +57259,11 @@
       <c r="KB65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KC65" t="n">
+      <c r="KC65" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KD65" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -57938,8 +58133,11 @@
       <c r="KB66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KC66" t="n">
+      <c r="KC66" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KD66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -58809,8 +59007,11 @@
       <c r="KB67" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KC67" t="n">
+      <c r="KC67" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KD67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -59680,8 +59881,11 @@
       <c r="KB68" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KC68" t="n">
+      <c r="KC68" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KD68" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60551,8 +60755,11 @@
       <c r="KB69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KC69" t="n">
+      <c r="KC69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KD69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -61422,8 +61629,11 @@
       <c r="KB70" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="KC70" t="n">
+      <c r="KC70" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KD70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62293,8 +62503,11 @@
       <c r="KB71" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KC71" t="n">
+      <c r="KC71" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KD71" t="n">
+        <v>72.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -63164,8 +63377,11 @@
       <c r="KB72" s="1" t="n">
         <v>22.44</v>
       </c>
-      <c r="KC72" t="n">
+      <c r="KC72" s="1" t="n">
         <v>21.19</v>
+      </c>
+      <c r="KD72" t="n">
+        <v>48.75</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64035,8 +64251,11 @@
       <c r="KB73" s="1" t="n">
         <v>13.47</v>
       </c>
-      <c r="KC73" t="n">
+      <c r="KC73" s="1" t="n">
         <v>13.04</v>
+      </c>
+      <c r="KD73" t="n">
+        <v>35.45</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -64906,8 +65125,11 @@
       <c r="KB74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KC74" t="n">
+      <c r="KC74" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KD74" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -65777,8 +65999,11 @@
       <c r="KB75" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KC75" t="n">
+      <c r="KC75" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KD75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -66648,7 +66873,10 @@
       <c r="KB76" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KC76" t="n">
+      <c r="KC76" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD76" t="n">
         <v>40</v>
       </c>
     </row>
@@ -67519,8 +67747,11 @@
       <c r="KB77" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="KC77" t="n">
+      <c r="KC77" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KD77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -68390,8 +68621,11 @@
       <c r="KB78" s="1" t="n">
         <v>2.07</v>
       </c>
-      <c r="KC78" t="n">
+      <c r="KC78" s="1" t="n">
         <v>2.42</v>
+      </c>
+      <c r="KD78" t="n">
+        <v>4.36</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69261,8 +69495,11 @@
       <c r="KB79" s="1" t="n">
         <v>3.44</v>
       </c>
-      <c r="KC79" t="n">
+      <c r="KC79" s="1" t="n">
         <v>3.94</v>
+      </c>
+      <c r="KD79" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -70132,8 +70369,11 @@
       <c r="KB80" s="1" t="n">
         <v>45.2</v>
       </c>
-      <c r="KC80" t="n">
+      <c r="KC80" s="1" t="n">
         <v>38.1</v>
+      </c>
+      <c r="KD80" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71003,8 +71243,11 @@
       <c r="KB81" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="KC81" t="n">
+      <c r="KC81" s="1" t="n">
         <v>25.4</v>
+      </c>
+      <c r="KD81" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -71874,8 +72117,11 @@
       <c r="KB82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KC82" t="n">
+      <c r="KC82" s="1" t="n">
         <v>187.6</v>
+      </c>
+      <c r="KD82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -72745,8 +72991,11 @@
       <c r="KB83" s="1" t="n">
         <v>87.2</v>
       </c>
-      <c r="KC83" t="n">
+      <c r="KC83" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KD83" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -73616,8 +73865,11 @@
       <c r="KB84" s="1" t="n">
         <v>27.24</v>
       </c>
-      <c r="KC84" t="n">
+      <c r="KC84" s="1" t="n">
         <v>25.91</v>
+      </c>
+      <c r="KD84" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -74487,8 +74739,11 @@
       <c r="KB85" s="1" t="n">
         <v>121</v>
       </c>
-      <c r="KC85" t="n">
+      <c r="KC85" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="KD85" t="n">
+        <v>89.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -75358,8 +75613,11 @@
       <c r="KB86" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KC86" t="n">
+      <c r="KC86" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KD86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -76229,8 +76487,11 @@
       <c r="KB87" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KC87" t="n">
+      <c r="KC87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KD87" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -77100,8 +77361,11 @@
       <c r="KB88" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KC88" t="n">
+      <c r="KC88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KD88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -77971,8 +78235,11 @@
       <c r="KB89" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KC89" t="n">
+      <c r="KC89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KD89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -78842,8 +79109,11 @@
       <c r="KB90" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="KC90" t="n">
+      <c r="KC90" s="1" t="n">
         <v>158</v>
+      </c>
+      <c r="KD90" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -79713,8 +79983,11 @@
       <c r="KB91" s="1" t="n">
         <v>240</v>
       </c>
-      <c r="KC91" t="n">
+      <c r="KC91" s="1" t="n">
         <v>177</v>
+      </c>
+      <c r="KD91" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -80584,8 +80857,11 @@
       <c r="KB92" s="1" t="n">
         <v>309</v>
       </c>
-      <c r="KC92" t="n">
+      <c r="KC92" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="KD92" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -81455,8 +81731,11 @@
       <c r="KB93" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="KC93" t="n">
+      <c r="KC93" s="1" t="n">
         <v>70.8</v>
+      </c>
+      <c r="KD93" t="n">
+        <v>75.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -82326,8 +82605,11 @@
       <c r="KB94" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KC94" t="n">
+      <c r="KC94" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KD94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -83197,8 +83479,11 @@
       <c r="KB95" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KC95" t="n">
+      <c r="KC95" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KD95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -84068,8 +84353,11 @@
       <c r="KB96" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KC96" t="n">
+      <c r="KC96" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KD96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -84939,8 +85227,11 @@
       <c r="KB97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KC97" t="n">
+      <c r="KC97" s="1" t="n">
         <v>38</v>
+      </c>
+      <c r="KD97" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -85810,7 +86101,10 @@
       <c r="KB98" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KC98" t="n">
+      <c r="KC98" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KD98" t="n">
         <v>40</v>
       </c>
     </row>
@@ -86681,8 +86975,11 @@
       <c r="KB99" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KC99" t="n">
+      <c r="KC99" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="KD99" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -87552,8 +87849,11 @@
       <c r="KB100" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KC100" t="n">
+      <c r="KC100" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KD100" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -88423,8 +88723,11 @@
       <c r="KB101" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KC101" t="n">
+      <c r="KC101" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KD101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -89294,8 +89597,11 @@
       <c r="KB102" s="1" t="n">
         <v>72.2</v>
       </c>
-      <c r="KC102" t="n">
+      <c r="KC102" s="1" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KD102" t="n">
+        <v>75</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KE102"/>
+  <dimension ref="A1:KF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1329,8 +1329,11 @@
       <c r="KD1" s="1" t="n">
         <v>10898</v>
       </c>
-      <c r="KE1" t="n">
+      <c r="KE1" s="1" t="n">
         <v>10907</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>10916</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2206,7 +2209,10 @@
       <c r="KD2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KE2" t="n">
+      <c r="KE2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KF2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3083,8 +3089,11 @@
       <c r="KD3" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KE3" t="n">
+      <c r="KE3" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3960,8 +3969,11 @@
       <c r="KD4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KE4" t="n">
+      <c r="KE4" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KF4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4837,7 +4849,10 @@
       <c r="KD5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KE5" t="n">
+      <c r="KE5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5714,8 +5729,11 @@
       <c r="KD6" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="KE6" t="n">
+      <c r="KE6" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6591,8 +6609,11 @@
       <c r="KD7" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="KE7" t="n">
+      <c r="KE7" s="1" t="n">
         <v>103</v>
+      </c>
+      <c r="KF7" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7468,8 +7489,11 @@
       <c r="KD8" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KE8" t="n">
+      <c r="KE8" s="1" t="n">
         <v>-40</v>
+      </c>
+      <c r="KF8" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8345,8 +8369,11 @@
       <c r="KD9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KE9" t="n">
+      <c r="KE9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KF9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9222,8 +9249,11 @@
       <c r="KD10" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KE10" t="n">
+      <c r="KE10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KF10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10099,8 +10129,11 @@
       <c r="KD11" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="KE11" t="n">
+      <c r="KE11" s="1" t="n">
         <v>214</v>
+      </c>
+      <c r="KF11" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -10976,8 +11009,11 @@
       <c r="KD12" s="1" t="n">
         <v>155</v>
       </c>
-      <c r="KE12" t="n">
+      <c r="KE12" s="1" t="n">
         <v>120</v>
+      </c>
+      <c r="KF12" t="n">
+        <v>146</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11853,8 +11889,11 @@
       <c r="KD13" s="1" t="n">
         <v>378</v>
       </c>
-      <c r="KE13" t="n">
+      <c r="KE13" s="1" t="n">
         <v>334</v>
+      </c>
+      <c r="KF13" t="n">
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12730,8 +12769,11 @@
       <c r="KD14" s="1" t="n">
         <v>1.44</v>
       </c>
-      <c r="KE14" t="n">
+      <c r="KE14" s="1" t="n">
         <v>1.78</v>
+      </c>
+      <c r="KF14" t="n">
+        <v>1.54</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13607,8 +13649,11 @@
       <c r="KD15" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="KE15" t="n">
+      <c r="KE15" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="KF15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14484,8 +14529,11 @@
       <c r="KD16" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KE16" t="n">
+      <c r="KE16" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KF16" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15361,8 +15409,11 @@
       <c r="KD17" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KE17" t="n">
+      <c r="KE17" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KF17" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16238,8 +16289,11 @@
       <c r="KD18" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KE18" t="n">
+      <c r="KE18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KF18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17115,8 +17169,11 @@
       <c r="KD19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KE19" t="n">
+      <c r="KE19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KF19" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -17992,8 +18049,11 @@
       <c r="KD20" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KE20" t="n">
+      <c r="KE20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KF20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18869,8 +18929,11 @@
       <c r="KD21" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KE21" t="n">
+      <c r="KE21" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KF21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19746,7 +19809,10 @@
       <c r="KD22" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KE22" t="n">
+      <c r="KE22" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF22" t="n">
         <v>5</v>
       </c>
     </row>
@@ -20623,8 +20689,11 @@
       <c r="KD23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KE23" t="n">
+      <c r="KE23" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KF23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21500,8 +21569,11 @@
       <c r="KD24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KE24" t="n">
+      <c r="KE24" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KF24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22377,8 +22449,11 @@
       <c r="KD25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KE25" t="n">
+      <c r="KE25" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="KF25" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23254,8 +23329,11 @@
       <c r="KD26" s="1" t="n">
         <v>34.36</v>
       </c>
-      <c r="KE26" t="n">
+      <c r="KE26" s="1" t="n">
         <v>37.11</v>
+      </c>
+      <c r="KF26" t="n">
+        <v>24.73</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24131,8 +24209,11 @@
       <c r="KD27" s="1" t="n">
         <v>17.18</v>
       </c>
-      <c r="KE27" t="n">
+      <c r="KE27" s="1" t="n">
         <v>18.56</v>
+      </c>
+      <c r="KF27" t="n">
+        <v>17.67</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25008,8 +25089,11 @@
       <c r="KD28" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KE28" t="n">
+      <c r="KE28" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KF28" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25885,8 +25969,11 @@
       <c r="KD29" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KE29" t="n">
+      <c r="KE29" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KF29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26762,8 +26849,11 @@
       <c r="KD30" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KE30" t="n">
+      <c r="KE30" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KF30" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27639,8 +27729,11 @@
       <c r="KD31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KE31" t="n">
+      <c r="KE31" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KF31" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28516,8 +28609,11 @@
       <c r="KD32" s="1" t="n">
         <v>2.36</v>
       </c>
-      <c r="KE32" t="n">
+      <c r="KE32" s="1" t="n">
         <v>2.94</v>
+      </c>
+      <c r="KF32" t="n">
+        <v>2.33</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29393,8 +29489,11 @@
       <c r="KD33" s="1" t="n">
         <v>4.73</v>
       </c>
-      <c r="KE33" t="n">
+      <c r="KE33" s="1" t="n">
         <v>5.89</v>
+      </c>
+      <c r="KF33" t="n">
+        <v>3.27</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30270,8 +30369,11 @@
       <c r="KD34" s="1" t="n">
         <v>38.5</v>
       </c>
-      <c r="KE34" t="n">
+      <c r="KE34" s="1" t="n">
         <v>26.4</v>
+      </c>
+      <c r="KF34" t="n">
+        <v>40.8</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31147,8 +31249,11 @@
       <c r="KD35" s="1" t="n">
         <v>21.2</v>
       </c>
-      <c r="KE35" t="n">
+      <c r="KE35" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KF35" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32024,8 +32129,11 @@
       <c r="KD36" s="1" t="n">
         <v>188</v>
       </c>
-      <c r="KE36" t="n">
+      <c r="KE36" s="1" t="n">
         <v>188.2</v>
+      </c>
+      <c r="KF36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -32901,7 +33009,10 @@
       <c r="KD37" s="1" t="n">
         <v>86.40000000000001</v>
       </c>
-      <c r="KE37" t="n">
+      <c r="KE37" s="1" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="KF37" t="n">
         <v>86.09999999999999</v>
       </c>
     </row>
@@ -33778,8 +33889,11 @@
       <c r="KD38" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KE38" t="n">
+      <c r="KE38" s="1" t="n">
         <v>25.41</v>
+      </c>
+      <c r="KF38" t="n">
+        <v>25.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34655,8 +34769,11 @@
       <c r="KD39" s="1" t="n">
         <v>98.09999999999999</v>
       </c>
-      <c r="KE39" t="n">
+      <c r="KE39" s="1" t="n">
         <v>96.40000000000001</v>
+      </c>
+      <c r="KF39" t="n">
+        <v>100.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35532,7 +35649,10 @@
       <c r="KD40" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KE40" t="n">
+      <c r="KE40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KF40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36409,8 +36529,11 @@
       <c r="KD41" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KE41" t="n">
+      <c r="KE41" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KF41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37286,8 +37409,11 @@
       <c r="KD42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KE42" t="n">
+      <c r="KE42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KF42" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -38163,7 +38289,10 @@
       <c r="KD43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KE43" t="n">
+      <c r="KE43" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KF43" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39040,8 +39169,11 @@
       <c r="KD44" s="1" t="n">
         <v>153</v>
       </c>
-      <c r="KE44" t="n">
+      <c r="KE44" s="1" t="n">
         <v>109</v>
+      </c>
+      <c r="KF44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -39917,8 +40049,11 @@
       <c r="KD45" s="1" t="n">
         <v>233</v>
       </c>
-      <c r="KE45" t="n">
+      <c r="KE45" s="1" t="n">
         <v>207</v>
+      </c>
+      <c r="KF45" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40794,8 +40929,11 @@
       <c r="KD46" s="1" t="n">
         <v>289</v>
       </c>
-      <c r="KE46" t="n">
+      <c r="KE46" s="1" t="n">
         <v>251</v>
+      </c>
+      <c r="KF46" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41671,8 +41809,11 @@
       <c r="KD47" s="1" t="n">
         <v>76.5</v>
       </c>
-      <c r="KE47" t="n">
+      <c r="KE47" s="1" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="KF47" t="n">
+        <v>73.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42548,8 +42689,11 @@
       <c r="KD48" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KE48" t="n">
+      <c r="KE48" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KF48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43425,8 +43569,11 @@
       <c r="KD49" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KE49" t="n">
+      <c r="KE49" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KF49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44302,8 +44449,11 @@
       <c r="KD50" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KE50" t="n">
+      <c r="KE50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KF50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45179,8 +45329,11 @@
       <c r="KD51" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KE51" t="n">
+      <c r="KE51" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KF51" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46056,8 +46209,11 @@
       <c r="KD52" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="KE52" t="n">
+      <c r="KE52" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KF52" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -46933,7 +47089,10 @@
       <c r="KD53" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KE53" t="n">
+      <c r="KE53" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="KF53" t="n">
         <v>36</v>
       </c>
     </row>
@@ -47810,8 +47969,11 @@
       <c r="KD54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KE54" t="n">
+      <c r="KE54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KF54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48687,8 +48849,11 @@
       <c r="KD55" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KE55" t="n">
+      <c r="KE55" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KF55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49564,8 +49729,11 @@
       <c r="KD56" s="1" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="KE56" t="n">
+      <c r="KE56" s="1" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KF56" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50441,8 +50609,11 @@
       <c r="KD57" s="1" t="n">
         <v>217</v>
       </c>
-      <c r="KE57" t="n">
+      <c r="KE57" s="1" t="n">
         <v>223</v>
+      </c>
+      <c r="KF57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51318,8 +51489,11 @@
       <c r="KD58" s="1" t="n">
         <v>173</v>
       </c>
-      <c r="KE58" t="n">
+      <c r="KE58" s="1" t="n">
         <v>164</v>
+      </c>
+      <c r="KF58" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52195,8 +52369,11 @@
       <c r="KD59" s="1" t="n">
         <v>390</v>
       </c>
-      <c r="KE59" t="n">
+      <c r="KE59" s="1" t="n">
         <v>387</v>
+      </c>
+      <c r="KF59" t="n">
+        <v>351</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53072,8 +53249,11 @@
       <c r="KD60" s="1" t="n">
         <v>1.25</v>
       </c>
-      <c r="KE60" t="n">
+      <c r="KE60" s="1" t="n">
         <v>1.36</v>
+      </c>
+      <c r="KF60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -53949,8 +54129,11 @@
       <c r="KD61" s="1" t="n">
         <v>101</v>
       </c>
-      <c r="KE61" t="n">
+      <c r="KE61" s="1" t="n">
         <v>108</v>
+      </c>
+      <c r="KF61" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -54826,8 +55009,11 @@
       <c r="KD62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KE62" t="n">
+      <c r="KE62" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="KF62" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55703,8 +55889,11 @@
       <c r="KD63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KE63" t="n">
+      <c r="KE63" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KF63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56580,8 +56769,11 @@
       <c r="KD64" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KE64" t="n">
+      <c r="KE64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KF64" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57457,8 +57649,11 @@
       <c r="KD65" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KE65" t="n">
+      <c r="KE65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KF65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58334,8 +58529,11 @@
       <c r="KD66" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KE66" t="n">
+      <c r="KE66" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KF66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -59211,8 +59409,11 @@
       <c r="KD67" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KE67" t="n">
+      <c r="KE67" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KF67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60088,8 +60289,11 @@
       <c r="KD68" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KE68" t="n">
+      <c r="KE68" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KF68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -60965,8 +61169,11 @@
       <c r="KD69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KE69" t="n">
+      <c r="KE69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KF69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -61842,8 +62049,11 @@
       <c r="KD70" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KE70" t="n">
+      <c r="KE70" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KF70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62719,8 +62929,11 @@
       <c r="KD71" s="1" t="n">
         <v>72.7</v>
       </c>
-      <c r="KE71" t="n">
+      <c r="KE71" s="1" t="n">
         <v>53.6</v>
+      </c>
+      <c r="KF71" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -63596,8 +63809,11 @@
       <c r="KD72" s="1" t="n">
         <v>48.75</v>
       </c>
-      <c r="KE72" t="n">
+      <c r="KE72" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KF72" t="n">
+        <v>50.14</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64473,8 +64689,11 @@
       <c r="KD73" s="1" t="n">
         <v>35.45</v>
       </c>
-      <c r="KE73" t="n">
+      <c r="KE73" s="1" t="n">
         <v>13.82</v>
+      </c>
+      <c r="KF73" t="n">
+        <v>17.55</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -65350,8 +65569,11 @@
       <c r="KD74" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KE74" t="n">
+      <c r="KE74" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KF74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66227,8 +66449,11 @@
       <c r="KD75" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KE75" t="n">
+      <c r="KE75" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KF75" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67104,8 +67329,11 @@
       <c r="KD76" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KE76" t="n">
+      <c r="KE76" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KF76" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -67981,8 +68209,11 @@
       <c r="KD77" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KE77" t="n">
+      <c r="KE77" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KF77" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -68858,8 +69089,11 @@
       <c r="KD78" s="1" t="n">
         <v>4.36</v>
       </c>
-      <c r="KE78" t="n">
+      <c r="KE78" s="1" t="n">
         <v>1.75</v>
+      </c>
+      <c r="KF78" t="n">
+        <v>2.75</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69735,8 +69969,11 @@
       <c r="KD79" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KE79" t="n">
+      <c r="KE79" s="1" t="n">
         <v>3.27</v>
+      </c>
+      <c r="KF79" t="n">
+        <v>7.86</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -70612,8 +70849,11 @@
       <c r="KD80" s="1" t="n">
         <v>20.8</v>
       </c>
-      <c r="KE80" t="n">
+      <c r="KE80" s="1" t="n">
         <v>55.1</v>
+      </c>
+      <c r="KF80" t="n">
+        <v>32.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71489,8 +71729,11 @@
       <c r="KD81" s="1" t="n">
         <v>16.7</v>
       </c>
-      <c r="KE81" t="n">
+      <c r="KE81" s="1" t="n">
         <v>30.6</v>
+      </c>
+      <c r="KF81" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -72366,7 +72609,10 @@
       <c r="KD82" s="1" t="n">
         <v>187.5</v>
       </c>
-      <c r="KE82" t="n">
+      <c r="KE82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KF82" t="n">
         <v>188.3</v>
       </c>
     </row>
@@ -73243,8 +73489,11 @@
       <c r="KD83" s="1" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="KE83" t="n">
+      <c r="KE83" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KF83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74120,8 +74369,11 @@
       <c r="KD84" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KE84" t="n">
+      <c r="KE84" s="1" t="n">
         <v>25.33</v>
+      </c>
+      <c r="KF84" t="n">
+        <v>26.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -74997,8 +75249,11 @@
       <c r="KD85" s="1" t="n">
         <v>89.40000000000001</v>
       </c>
-      <c r="KE85" t="n">
+      <c r="KE85" s="1" t="n">
         <v>94.5</v>
+      </c>
+      <c r="KF85" t="n">
+        <v>121.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -75874,8 +76129,11 @@
       <c r="KD86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KE86" t="n">
+      <c r="KE86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KF86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -76751,8 +77009,11 @@
       <c r="KD87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KE87" t="n">
+      <c r="KE87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KF87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -77628,8 +77889,11 @@
       <c r="KD88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KE88" t="n">
+      <c r="KE88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KF88" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -78505,8 +78769,11 @@
       <c r="KD89" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KE89" t="n">
+      <c r="KE89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KF89" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -79382,8 +79649,11 @@
       <c r="KD90" s="1" t="n">
         <v>131</v>
       </c>
-      <c r="KE90" t="n">
+      <c r="KE90" s="1" t="n">
         <v>130</v>
+      </c>
+      <c r="KF90" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -80259,8 +80529,11 @@
       <c r="KD91" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="KE91" t="n">
+      <c r="KE91" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="KF91" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81136,8 +81409,11 @@
       <c r="KD92" s="1" t="n">
         <v>296</v>
       </c>
-      <c r="KE92" t="n">
+      <c r="KE92" s="1" t="n">
         <v>299</v>
+      </c>
+      <c r="KF92" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82013,8 +82289,11 @@
       <c r="KD93" s="1" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="KE93" t="n">
+      <c r="KE93" s="1" t="n">
         <v>77.3</v>
+      </c>
+      <c r="KF93" t="n">
+        <v>69.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -82890,8 +83169,11 @@
       <c r="KD94" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KE94" t="n">
+      <c r="KE94" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KF94" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -83767,8 +84049,11 @@
       <c r="KD95" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KE95" t="n">
+      <c r="KE95" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KF95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -84644,8 +84929,11 @@
       <c r="KD96" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KE96" t="n">
+      <c r="KE96" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KF96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -85521,8 +85809,11 @@
       <c r="KD97" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KE97" t="n">
+      <c r="KE97" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KF97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -86398,8 +86689,11 @@
       <c r="KD98" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KE98" t="n">
+      <c r="KE98" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KF98" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -87275,7 +87569,10 @@
       <c r="KD99" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KE99" t="n">
+      <c r="KE99" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="KF99" t="n">
         <v>49</v>
       </c>
     </row>
@@ -88152,8 +88449,11 @@
       <c r="KD100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KE100" t="n">
+      <c r="KE100" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KF100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89029,8 +89329,11 @@
       <c r="KD101" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KE101" t="n">
+      <c r="KE101" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KF101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -89906,8 +90209,11 @@
       <c r="KD102" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="KE102" t="n">
+      <c r="KE102" s="1" t="n">
         <v>46.7</v>
+      </c>
+      <c r="KF102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KF102"/>
+  <dimension ref="A1:KG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1332,8 +1332,11 @@
       <c r="KE1" s="1" t="n">
         <v>10907</v>
       </c>
-      <c r="KF1" t="n">
+      <c r="KF1" s="1" t="n">
         <v>10916</v>
+      </c>
+      <c r="KG1" t="n">
+        <v>10929</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2212,7 +2215,10 @@
       <c r="KE2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KF2" t="n">
+      <c r="KF2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KG2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3092,8 +3098,11 @@
       <c r="KE3" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="KF3" t="n">
+      <c r="KF3" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KG3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3972,8 +3981,11 @@
       <c r="KE4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF4" t="n">
+      <c r="KF4" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KG4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="2">
@@ -4852,7 +4864,10 @@
       <c r="KE5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KF5" t="n">
+      <c r="KF5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5732,8 +5747,11 @@
       <c r="KE6" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KF6" t="n">
+      <c r="KF6" s="1" t="n">
         <v>96</v>
+      </c>
+      <c r="KG6" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6612,8 +6630,11 @@
       <c r="KE7" s="1" t="n">
         <v>103</v>
       </c>
-      <c r="KF7" t="n">
+      <c r="KF7" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KG7" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7492,8 +7513,11 @@
       <c r="KE8" s="1" t="n">
         <v>-40</v>
       </c>
-      <c r="KF8" t="n">
+      <c r="KF8" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KG8" t="n">
+        <v>-28</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8372,8 +8396,11 @@
       <c r="KE9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KF9" t="n">
+      <c r="KF9" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KG9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9252,8 +9279,11 @@
       <c r="KE10" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF10" t="n">
+      <c r="KF10" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10132,8 +10162,11 @@
       <c r="KE11" s="1" t="n">
         <v>214</v>
       </c>
-      <c r="KF11" t="n">
+      <c r="KF11" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="KG11" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11012,8 +11045,11 @@
       <c r="KE12" s="1" t="n">
         <v>120</v>
       </c>
-      <c r="KF12" t="n">
+      <c r="KF12" s="1" t="n">
         <v>146</v>
+      </c>
+      <c r="KG12" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11892,8 +11928,11 @@
       <c r="KE13" s="1" t="n">
         <v>334</v>
       </c>
-      <c r="KF13" t="n">
+      <c r="KF13" s="1" t="n">
         <v>371</v>
+      </c>
+      <c r="KG13" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12772,8 +12811,11 @@
       <c r="KE14" s="1" t="n">
         <v>1.78</v>
       </c>
-      <c r="KF14" t="n">
+      <c r="KF14" s="1" t="n">
         <v>1.54</v>
+      </c>
+      <c r="KG14" t="n">
+        <v>1.71</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13652,8 +13694,11 @@
       <c r="KE15" s="1" t="n">
         <v>99</v>
       </c>
-      <c r="KF15" t="n">
+      <c r="KF15" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="KG15" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14532,8 +14577,11 @@
       <c r="KE16" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KF16" t="n">
+      <c r="KF16" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="KG16" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15412,8 +15460,11 @@
       <c r="KE17" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KF17" t="n">
+      <c r="KF17" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KG17" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16292,8 +16343,11 @@
       <c r="KE18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KF18" t="n">
+      <c r="KF18" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17172,8 +17226,11 @@
       <c r="KE19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF19" t="n">
+      <c r="KF19" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KG19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18052,8 +18109,11 @@
       <c r="KE20" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF20" t="n">
+      <c r="KF20" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KG20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18932,8 +18992,11 @@
       <c r="KE21" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF21" t="n">
+      <c r="KF21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KG21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19812,8 +19875,11 @@
       <c r="KE22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KF22" t="n">
+      <c r="KF22" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KG22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20692,7 +20758,10 @@
       <c r="KE23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KF23" t="n">
+      <c r="KF23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KG23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -21572,8 +21641,11 @@
       <c r="KE24" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KF24" t="n">
+      <c r="KF24" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KG24" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22452,8 +22524,11 @@
       <c r="KE25" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KF25" t="n">
+      <c r="KF25" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KG25" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23332,8 +23407,11 @@
       <c r="KE26" s="1" t="n">
         <v>37.11</v>
       </c>
-      <c r="KF26" t="n">
+      <c r="KF26" s="1" t="n">
         <v>24.73</v>
+      </c>
+      <c r="KG26" t="n">
+        <v>35.22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24212,8 +24290,11 @@
       <c r="KE27" s="1" t="n">
         <v>18.56</v>
       </c>
-      <c r="KF27" t="n">
+      <c r="KF27" s="1" t="n">
         <v>17.67</v>
+      </c>
+      <c r="KG27" t="n">
+        <v>19.81</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25092,8 +25173,11 @@
       <c r="KE28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KF28" t="n">
+      <c r="KF28" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KG28" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -25972,8 +26056,11 @@
       <c r="KE29" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KF29" t="n">
+      <c r="KF29" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KG29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26852,8 +26939,11 @@
       <c r="KE30" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KF30" t="n">
+      <c r="KF30" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KG30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27732,8 +27822,11 @@
       <c r="KE31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KF31" t="n">
+      <c r="KF31" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KG31" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28612,8 +28705,11 @@
       <c r="KE32" s="1" t="n">
         <v>2.94</v>
       </c>
-      <c r="KF32" t="n">
+      <c r="KF32" s="1" t="n">
         <v>2.33</v>
+      </c>
+      <c r="KG32" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29492,8 +29588,11 @@
       <c r="KE33" s="1" t="n">
         <v>5.89</v>
       </c>
-      <c r="KF33" t="n">
+      <c r="KF33" s="1" t="n">
         <v>3.27</v>
+      </c>
+      <c r="KG33" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30372,8 +30471,11 @@
       <c r="KE34" s="1" t="n">
         <v>26.4</v>
       </c>
-      <c r="KF34" t="n">
+      <c r="KF34" s="1" t="n">
         <v>40.8</v>
+      </c>
+      <c r="KG34" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31252,8 +31354,11 @@
       <c r="KE35" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KF35" t="n">
+      <c r="KF35" s="1" t="n">
         <v>30.6</v>
+      </c>
+      <c r="KG35" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32132,8 +32237,11 @@
       <c r="KE36" s="1" t="n">
         <v>188.2</v>
       </c>
-      <c r="KF36" t="n">
+      <c r="KF36" s="1" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KG36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33012,7 +33120,10 @@
       <c r="KE37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="KF37" t="n">
+      <c r="KF37" s="1" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="KG37" t="n">
         <v>86.09999999999999</v>
       </c>
     </row>
@@ -33892,7 +34003,10 @@
       <c r="KE38" s="1" t="n">
         <v>25.41</v>
       </c>
-      <c r="KF38" t="n">
+      <c r="KF38" s="1" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KG38" t="n">
         <v>25.58</v>
       </c>
     </row>
@@ -34772,8 +34886,11 @@
       <c r="KE39" s="1" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="KF39" t="n">
+      <c r="KF39" s="1" t="n">
         <v>100.3</v>
+      </c>
+      <c r="KG39" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35652,8 +35769,11 @@
       <c r="KE40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF40" t="n">
+      <c r="KF40" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KG40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="2">
@@ -36532,7 +36652,10 @@
       <c r="KE41" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF41" t="n">
+      <c r="KF41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37412,7 +37535,10 @@
       <c r="KE42" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="KF42" t="n">
+      <c r="KF42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KG42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38292,8 +38418,11 @@
       <c r="KE43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KF43" t="n">
+      <c r="KF43" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KG43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39172,7 +39301,10 @@
       <c r="KE44" s="1" t="n">
         <v>109</v>
       </c>
-      <c r="KF44" t="n">
+      <c r="KF44" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="KG44" t="n">
         <v>136</v>
       </c>
     </row>
@@ -40052,8 +40184,11 @@
       <c r="KE45" s="1" t="n">
         <v>207</v>
       </c>
-      <c r="KF45" t="n">
+      <c r="KF45" s="1" t="n">
         <v>224</v>
+      </c>
+      <c r="KG45" t="n">
+        <v>177</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -40932,8 +41067,11 @@
       <c r="KE46" s="1" t="n">
         <v>251</v>
       </c>
-      <c r="KF46" t="n">
+      <c r="KF46" s="1" t="n">
         <v>273</v>
+      </c>
+      <c r="KG46" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41812,8 +41950,11 @@
       <c r="KE47" s="1" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="KF47" t="n">
+      <c r="KF47" s="1" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="KG47" t="n">
+        <v>68.8</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42692,8 +42833,11 @@
       <c r="KE48" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KF48" t="n">
+      <c r="KF48" s="1" t="n">
         <v>63</v>
+      </c>
+      <c r="KG48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43572,8 +43716,11 @@
       <c r="KE49" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF49" t="n">
+      <c r="KF49" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44452,8 +44599,11 @@
       <c r="KE50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF50" t="n">
+      <c r="KF50" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KG50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45332,8 +45482,11 @@
       <c r="KE51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KF51" t="n">
+      <c r="KF51" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KG51" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46212,8 +46365,11 @@
       <c r="KE52" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KF52" t="n">
+      <c r="KF52" s="1" t="n">
         <v>48</v>
+      </c>
+      <c r="KG52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47092,8 +47248,11 @@
       <c r="KE53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KF53" t="n">
+      <c r="KF53" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KG53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -47972,8 +48131,11 @@
       <c r="KE54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KF54" t="n">
+      <c r="KF54" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KG54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -48852,8 +49014,11 @@
       <c r="KE55" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KF55" t="n">
+      <c r="KF55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KG55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49732,8 +49897,11 @@
       <c r="KE56" s="1" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="KF56" t="n">
+      <c r="KF56" s="1" t="n">
         <v>73.3</v>
+      </c>
+      <c r="KG56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50612,8 +50780,11 @@
       <c r="KE57" s="1" t="n">
         <v>223</v>
       </c>
-      <c r="KF57" t="n">
+      <c r="KF57" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="KG57" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51492,8 +51663,11 @@
       <c r="KE58" s="1" t="n">
         <v>164</v>
       </c>
-      <c r="KF58" t="n">
+      <c r="KF58" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="KG58" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52372,8 +52546,11 @@
       <c r="KE59" s="1" t="n">
         <v>387</v>
       </c>
-      <c r="KF59" t="n">
+      <c r="KF59" s="1" t="n">
         <v>351</v>
+      </c>
+      <c r="KG59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53252,8 +53429,11 @@
       <c r="KE60" s="1" t="n">
         <v>1.36</v>
       </c>
-      <c r="KF60" t="n">
+      <c r="KF60" s="1" t="n">
         <v>1.6</v>
+      </c>
+      <c r="KG60" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54132,8 +54312,11 @@
       <c r="KE61" s="1" t="n">
         <v>108</v>
       </c>
-      <c r="KF61" t="n">
+      <c r="KF61" s="1" t="n">
         <v>97</v>
+      </c>
+      <c r="KG61" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55012,8 +55195,11 @@
       <c r="KE62" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KF62" t="n">
+      <c r="KF62" s="1" t="n">
         <v>68</v>
+      </c>
+      <c r="KG62" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -55892,8 +56078,11 @@
       <c r="KE63" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KF63" t="n">
+      <c r="KF63" s="1" t="n">
         <v>33</v>
+      </c>
+      <c r="KG63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56772,8 +56961,11 @@
       <c r="KE64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF64" t="n">
+      <c r="KF64" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KG64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57652,8 +57844,11 @@
       <c r="KE65" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KF65" t="n">
+      <c r="KF65" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KG65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58532,8 +58727,11 @@
       <c r="KE66" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF66" t="n">
+      <c r="KF66" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KG66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -59412,8 +59610,11 @@
       <c r="KE67" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KF67" t="n">
+      <c r="KF67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KG67" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60292,7 +60493,10 @@
       <c r="KE68" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KF68" t="n">
+      <c r="KF68" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KG68" t="n">
         <v>11</v>
       </c>
     </row>
@@ -61172,8 +61376,11 @@
       <c r="KE69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KF69" t="n">
+      <c r="KF69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KG69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62052,8 +62259,11 @@
       <c r="KE70" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KF70" t="n">
+      <c r="KF70" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KG70" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -62932,8 +63142,11 @@
       <c r="KE71" s="1" t="n">
         <v>53.6</v>
       </c>
-      <c r="KF71" t="n">
+      <c r="KF71" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="KG71" t="n">
+        <v>54.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -63812,8 +64025,11 @@
       <c r="KE72" s="1" t="n">
         <v>25.8</v>
       </c>
-      <c r="KF72" t="n">
+      <c r="KF72" s="1" t="n">
         <v>50.14</v>
+      </c>
+      <c r="KG72" t="n">
+        <v>29.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64692,8 +64908,11 @@
       <c r="KE73" s="1" t="n">
         <v>13.82</v>
       </c>
-      <c r="KF73" t="n">
+      <c r="KF73" s="1" t="n">
         <v>17.55</v>
+      </c>
+      <c r="KG73" t="n">
+        <v>15.88</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -65572,8 +65791,11 @@
       <c r="KE74" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KF74" t="n">
+      <c r="KF74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KG74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66452,8 +66674,11 @@
       <c r="KE75" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KF75" t="n">
+      <c r="KF75" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KG75" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67332,8 +67557,11 @@
       <c r="KE76" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KF76" t="n">
+      <c r="KF76" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KG76" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68212,8 +68440,11 @@
       <c r="KE77" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KF77" t="n">
+      <c r="KF77" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KG77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69092,8 +69323,11 @@
       <c r="KE78" s="1" t="n">
         <v>1.75</v>
       </c>
-      <c r="KF78" t="n">
+      <c r="KF78" s="1" t="n">
         <v>2.75</v>
+      </c>
+      <c r="KG78" t="n">
+        <v>2.38</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -69972,8 +70206,11 @@
       <c r="KE79" s="1" t="n">
         <v>3.27</v>
       </c>
-      <c r="KF79" t="n">
+      <c r="KF79" s="1" t="n">
         <v>7.86</v>
+      </c>
+      <c r="KG79" t="n">
+        <v>4.38</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -70852,8 +71089,11 @@
       <c r="KE80" s="1" t="n">
         <v>55.1</v>
       </c>
-      <c r="KF80" t="n">
+      <c r="KF80" s="1" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KG80" t="n">
+        <v>42.1</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71732,8 +71972,11 @@
       <c r="KE81" s="1" t="n">
         <v>30.6</v>
       </c>
-      <c r="KF81" t="n">
+      <c r="KF81" s="1" t="n">
         <v>12.7</v>
+      </c>
+      <c r="KG81" t="n">
+        <v>22.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -72612,8 +72855,11 @@
       <c r="KE82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KF82" t="n">
+      <c r="KF82" s="1" t="n">
         <v>188.3</v>
+      </c>
+      <c r="KG82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -73492,8 +73738,11 @@
       <c r="KE83" s="1" t="n">
         <v>86.7</v>
       </c>
-      <c r="KF83" t="n">
+      <c r="KF83" s="1" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="KG83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74372,8 +74621,11 @@
       <c r="KE84" s="1" t="n">
         <v>25.33</v>
       </c>
-      <c r="KF84" t="n">
+      <c r="KF84" s="1" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KG84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -75252,8 +75504,11 @@
       <c r="KE85" s="1" t="n">
         <v>94.5</v>
       </c>
-      <c r="KF85" t="n">
+      <c r="KF85" s="1" t="n">
         <v>121.7</v>
+      </c>
+      <c r="KG85" t="n">
+        <v>89.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76132,8 +76387,11 @@
       <c r="KE86" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KF86" t="n">
+      <c r="KF86" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KG86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77012,8 +77270,11 @@
       <c r="KE87" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF87" t="n">
+      <c r="KF87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KG87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -77892,8 +78153,11 @@
       <c r="KE88" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KF88" t="n">
+      <c r="KF88" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KG88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -78772,8 +79036,11 @@
       <c r="KE89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KF89" t="n">
+      <c r="KF89" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KG89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -79652,8 +79919,11 @@
       <c r="KE90" s="1" t="n">
         <v>130</v>
       </c>
-      <c r="KF90" t="n">
+      <c r="KF90" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="KG90" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -80532,8 +80802,11 @@
       <c r="KE91" s="1" t="n">
         <v>254</v>
       </c>
-      <c r="KF91" t="n">
+      <c r="KF91" s="1" t="n">
         <v>209</v>
+      </c>
+      <c r="KG91" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81412,8 +81685,11 @@
       <c r="KE92" s="1" t="n">
         <v>299</v>
       </c>
-      <c r="KF92" t="n">
+      <c r="KF92" s="1" t="n">
         <v>243</v>
+      </c>
+      <c r="KG92" t="n">
+        <v>283</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82292,8 +82568,11 @@
       <c r="KE93" s="1" t="n">
         <v>77.3</v>
       </c>
-      <c r="KF93" t="n">
+      <c r="KF93" s="1" t="n">
         <v>69.2</v>
+      </c>
+      <c r="KG93" t="n">
+        <v>74.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -83172,8 +83451,11 @@
       <c r="KE94" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KF94" t="n">
+      <c r="KF94" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KG94" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84052,8 +84334,11 @@
       <c r="KE95" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="KF95" t="n">
+      <c r="KF95" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KG95" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -84932,8 +85217,11 @@
       <c r="KE96" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF96" t="n">
+      <c r="KF96" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KG96" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -85812,8 +86100,11 @@
       <c r="KE97" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KF97" t="n">
+      <c r="KF97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KG97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -86692,8 +86983,11 @@
       <c r="KE98" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KF98" t="n">
+      <c r="KF98" s="1" t="n">
         <v>34</v>
+      </c>
+      <c r="KG98" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -87572,8 +87866,11 @@
       <c r="KE99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KF99" t="n">
+      <c r="KF99" s="1" t="n">
         <v>49</v>
+      </c>
+      <c r="KG99" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -88452,8 +88749,11 @@
       <c r="KE100" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KF100" t="n">
+      <c r="KF100" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KG100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89332,8 +89632,11 @@
       <c r="KE101" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KF101" t="n">
+      <c r="KF101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KG101" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -90212,8 +90515,11 @@
       <c r="KE102" s="1" t="n">
         <v>46.7</v>
       </c>
-      <c r="KF102" t="n">
+      <c r="KF102" s="1" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="KG102" t="n">
+        <v>61.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KG102"/>
+  <dimension ref="A1:KH102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1335,8 +1335,11 @@
       <c r="KF1" s="1" t="n">
         <v>10916</v>
       </c>
-      <c r="KG1" t="n">
+      <c r="KG1" s="1" t="n">
         <v>10929</v>
+      </c>
+      <c r="KH1" t="n">
+        <v>10937</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2218,7 +2221,10 @@
       <c r="KF2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KG2" t="n">
+      <c r="KG2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KH2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3101,8 +3107,11 @@
       <c r="KF3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KG3" t="n">
+      <c r="KG3" s="1" t="n">
         <v>21</v>
+      </c>
+      <c r="KH3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -3984,7 +3993,10 @@
       <c r="KF4" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KG4" t="n">
+      <c r="KG4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KH4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4867,7 +4879,10 @@
       <c r="KF5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KG5" t="n">
+      <c r="KG5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5750,8 +5765,11 @@
       <c r="KF6" s="1" t="n">
         <v>96</v>
       </c>
-      <c r="KG6" t="n">
+      <c r="KG6" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KH6" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6633,8 +6651,11 @@
       <c r="KF7" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KG7" t="n">
+      <c r="KG7" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="KH7" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7516,8 +7537,11 @@
       <c r="KF8" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KG8" t="n">
+      <c r="KG8" s="1" t="n">
         <v>-28</v>
+      </c>
+      <c r="KH8" t="n">
+        <v>-24</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8399,7 +8423,10 @@
       <c r="KF9" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KG9" t="n">
+      <c r="KG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KH9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9282,8 +9309,11 @@
       <c r="KF10" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KG10" t="n">
+      <c r="KG10" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KH10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10165,8 +10195,11 @@
       <c r="KF11" s="1" t="n">
         <v>225</v>
       </c>
-      <c r="KG11" t="n">
+      <c r="KG11" s="1" t="n">
         <v>200</v>
+      </c>
+      <c r="KH11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11048,8 +11081,11 @@
       <c r="KF12" s="1" t="n">
         <v>146</v>
       </c>
-      <c r="KG12" t="n">
+      <c r="KG12" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="KH12" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -11931,8 +11967,11 @@
       <c r="KF13" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="KG13" t="n">
+      <c r="KG13" s="1" t="n">
         <v>317</v>
+      </c>
+      <c r="KH13" t="n">
+        <v>330</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12814,8 +12853,11 @@
       <c r="KF14" s="1" t="n">
         <v>1.54</v>
       </c>
-      <c r="KG14" t="n">
+      <c r="KG14" s="1" t="n">
         <v>1.71</v>
+      </c>
+      <c r="KH14" t="n">
+        <v>1.7</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13697,8 +13739,11 @@
       <c r="KF15" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="KG15" t="n">
+      <c r="KG15" s="1" t="n">
         <v>85</v>
+      </c>
+      <c r="KH15" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14580,8 +14625,11 @@
       <c r="KF16" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="KG16" t="n">
+      <c r="KG16" s="1" t="n">
         <v>81</v>
+      </c>
+      <c r="KH16" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15463,8 +15511,11 @@
       <c r="KF17" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KG17" t="n">
+      <c r="KG17" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KH17" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16346,8 +16397,11 @@
       <c r="KF18" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KG18" t="n">
+      <c r="KG18" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KH18" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17229,7 +17283,10 @@
       <c r="KF19" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KG19" t="n">
+      <c r="KG19" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="KH19" t="n">
         <v>22</v>
       </c>
     </row>
@@ -18112,8 +18169,11 @@
       <c r="KF20" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KG20" t="n">
+      <c r="KG20" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KH20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -18995,8 +19055,11 @@
       <c r="KF21" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KG21" t="n">
+      <c r="KG21" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KH21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -19878,8 +19941,11 @@
       <c r="KF22" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KG22" t="n">
+      <c r="KG22" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KH22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -20761,8 +20827,11 @@
       <c r="KF23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KG23" t="n">
+      <c r="KG23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KH23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21644,8 +21713,11 @@
       <c r="KF24" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="KG24" t="n">
+      <c r="KG24" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KH24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22527,8 +22599,11 @@
       <c r="KF25" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KG25" t="n">
+      <c r="KG25" s="1" t="n">
         <v>56.2</v>
+      </c>
+      <c r="KH25" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23410,8 +23485,11 @@
       <c r="KF26" s="1" t="n">
         <v>24.73</v>
       </c>
-      <c r="KG26" t="n">
+      <c r="KG26" s="1" t="n">
         <v>35.22</v>
+      </c>
+      <c r="KH26" t="n">
+        <v>25.38</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24293,8 +24371,11 @@
       <c r="KF27" s="1" t="n">
         <v>17.67</v>
       </c>
-      <c r="KG27" t="n">
+      <c r="KG27" s="1" t="n">
         <v>19.81</v>
+      </c>
+      <c r="KH27" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25176,8 +25257,11 @@
       <c r="KF28" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KG28" t="n">
+      <c r="KG28" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KH28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26059,8 +26143,11 @@
       <c r="KF29" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KG29" t="n">
+      <c r="KG29" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KH29" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -26942,8 +27029,11 @@
       <c r="KF30" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KG30" t="n">
+      <c r="KG30" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KH30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -27825,8 +27915,11 @@
       <c r="KF31" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KG31" t="n">
+      <c r="KG31" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KH31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -28708,8 +28801,11 @@
       <c r="KF32" s="1" t="n">
         <v>2.33</v>
       </c>
-      <c r="KG32" t="n">
+      <c r="KG32" s="1" t="n">
         <v>2.81</v>
+      </c>
+      <c r="KH32" t="n">
+        <v>2.16</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29591,8 +29687,11 @@
       <c r="KF33" s="1" t="n">
         <v>3.27</v>
       </c>
-      <c r="KG33" t="n">
+      <c r="KG33" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KH33" t="n">
+        <v>4.15</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30474,8 +30573,11 @@
       <c r="KF34" s="1" t="n">
         <v>40.8</v>
       </c>
-      <c r="KG34" t="n">
+      <c r="KG34" s="1" t="n">
         <v>33.3</v>
+      </c>
+      <c r="KH34" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31357,8 +31459,11 @@
       <c r="KF35" s="1" t="n">
         <v>30.6</v>
       </c>
-      <c r="KG35" t="n">
+      <c r="KG35" s="1" t="n">
         <v>20</v>
+      </c>
+      <c r="KH35" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32240,8 +32345,11 @@
       <c r="KF36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="KG36" t="n">
+      <c r="KG36" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="KH36" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33123,8 +33231,11 @@
       <c r="KF37" s="1" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="KG37" t="n">
+      <c r="KG37" s="1" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="KH37" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34006,8 +34117,11 @@
       <c r="KF38" s="1" t="n">
         <v>25.58</v>
       </c>
-      <c r="KG38" t="n">
+      <c r="KG38" s="1" t="n">
         <v>25.58</v>
+      </c>
+      <c r="KH38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="2">
@@ -34889,8 +35003,11 @@
       <c r="KF39" s="1" t="n">
         <v>100.3</v>
       </c>
-      <c r="KG39" t="n">
+      <c r="KG39" s="1" t="n">
         <v>94</v>
+      </c>
+      <c r="KH39" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -35772,7 +35889,10 @@
       <c r="KF40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KG40" t="n">
+      <c r="KG40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KH40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -36655,8 +36775,11 @@
       <c r="KF41" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KG41" t="n">
+      <c r="KG41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KH41" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -37538,7 +37661,10 @@
       <c r="KF42" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KG42" t="n">
+      <c r="KG42" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KH42" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38421,8 +38547,11 @@
       <c r="KF43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KG43" t="n">
+      <c r="KG43" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KH43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="2">
@@ -39304,8 +39433,11 @@
       <c r="KF44" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="KG44" t="n">
+      <c r="KG44" s="1" t="n">
         <v>136</v>
+      </c>
+      <c r="KH44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40187,8 +40319,11 @@
       <c r="KF45" s="1" t="n">
         <v>224</v>
       </c>
-      <c r="KG45" t="n">
+      <c r="KG45" s="1" t="n">
         <v>177</v>
+      </c>
+      <c r="KH45" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41070,8 +41205,11 @@
       <c r="KF46" s="1" t="n">
         <v>273</v>
       </c>
-      <c r="KG46" t="n">
+      <c r="KG46" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="KH46" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -41953,8 +42091,11 @@
       <c r="KF47" s="1" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="KG47" t="n">
+      <c r="KG47" s="1" t="n">
         <v>68.8</v>
+      </c>
+      <c r="KH47" t="n">
+        <v>69.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -42836,8 +42977,11 @@
       <c r="KF48" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KG48" t="n">
+      <c r="KG48" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KH48" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -43719,8 +43863,11 @@
       <c r="KF49" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KG49" t="n">
+      <c r="KG49" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KH49" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -44602,8 +44749,11 @@
       <c r="KF50" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KG50" t="n">
+      <c r="KG50" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KH50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -45485,8 +45635,11 @@
       <c r="KF51" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="KG51" t="n">
+      <c r="KG51" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KH51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46368,8 +46521,11 @@
       <c r="KF52" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="KG52" t="n">
+      <c r="KG52" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KH52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47251,8 +47407,11 @@
       <c r="KF53" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="KG53" t="n">
+      <c r="KG53" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KH53" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48134,8 +48293,11 @@
       <c r="KF54" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KG54" t="n">
+      <c r="KG54" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KH54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49017,8 +49179,11 @@
       <c r="KF55" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KG55" t="n">
+      <c r="KG55" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KH55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -49900,8 +50065,11 @@
       <c r="KF56" s="1" t="n">
         <v>73.3</v>
       </c>
-      <c r="KG56" t="n">
+      <c r="KG56" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KH56" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -50783,8 +50951,11 @@
       <c r="KF57" s="1" t="n">
         <v>216</v>
       </c>
-      <c r="KG57" t="n">
+      <c r="KG57" s="1" t="n">
         <v>236</v>
+      </c>
+      <c r="KH57" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -51666,8 +51837,11 @@
       <c r="KF58" s="1" t="n">
         <v>135</v>
       </c>
-      <c r="KG58" t="n">
+      <c r="KG58" s="1" t="n">
         <v>145</v>
+      </c>
+      <c r="KH58" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -52549,8 +52723,11 @@
       <c r="KF59" s="1" t="n">
         <v>351</v>
       </c>
-      <c r="KG59" t="n">
+      <c r="KG59" s="1" t="n">
         <v>381</v>
+      </c>
+      <c r="KH59" t="n">
+        <v>338</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -53432,8 +53609,11 @@
       <c r="KF60" s="1" t="n">
         <v>1.6</v>
       </c>
-      <c r="KG60" t="n">
+      <c r="KG60" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KH60" t="n">
+        <v>1.66</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -54315,8 +54495,11 @@
       <c r="KF61" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="KG61" t="n">
+      <c r="KG61" s="1" t="n">
         <v>101</v>
+      </c>
+      <c r="KH61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55198,8 +55381,11 @@
       <c r="KF62" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="KG62" t="n">
+      <c r="KG62" s="1" t="n">
         <v>90</v>
+      </c>
+      <c r="KH62" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56081,8 +56267,11 @@
       <c r="KF63" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="KG63" t="n">
+      <c r="KG63" s="1" t="n">
         <v>45</v>
+      </c>
+      <c r="KH63" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -56964,8 +57153,11 @@
       <c r="KF64" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="KG64" t="n">
+      <c r="KG64" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KH64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -57847,8 +58039,11 @@
       <c r="KF65" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KG65" t="n">
+      <c r="KG65" s="1" t="n">
         <v>17</v>
+      </c>
+      <c r="KH65" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -58730,8 +58925,11 @@
       <c r="KF66" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KG66" t="n">
+      <c r="KG66" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KH66" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -59613,8 +59811,11 @@
       <c r="KF67" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KG67" t="n">
+      <c r="KG67" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KH67" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -60496,8 +60697,11 @@
       <c r="KF68" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KG68" t="n">
+      <c r="KG68" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KH68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -61379,8 +61583,11 @@
       <c r="KF69" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KG69" t="n">
+      <c r="KG69" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KH69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -62262,7 +62469,10 @@
       <c r="KF70" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KG70" t="n">
+      <c r="KG70" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KH70" t="n">
         <v>24</v>
       </c>
     </row>
@@ -63145,8 +63355,11 @@
       <c r="KF71" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="KG71" t="n">
+      <c r="KG71" s="1" t="n">
         <v>54.2</v>
+      </c>
+      <c r="KH71" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64028,8 +64241,11 @@
       <c r="KF72" s="1" t="n">
         <v>50.14</v>
       </c>
-      <c r="KG72" t="n">
+      <c r="KG72" s="1" t="n">
         <v>29.31</v>
+      </c>
+      <c r="KH72" t="n">
+        <v>18.78</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -64911,8 +65127,11 @@
       <c r="KF73" s="1" t="n">
         <v>17.55</v>
       </c>
-      <c r="KG73" t="n">
+      <c r="KG73" s="1" t="n">
         <v>15.88</v>
+      </c>
+      <c r="KH73" t="n">
+        <v>14.08</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -65794,8 +66013,11 @@
       <c r="KF74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KG74" t="n">
+      <c r="KG74" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KH74" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -66677,8 +66899,11 @@
       <c r="KF75" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KG75" t="n">
+      <c r="KG75" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KH75" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -67560,8 +67785,11 @@
       <c r="KF76" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KG76" t="n">
+      <c r="KG76" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KH76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -68443,8 +68671,11 @@
       <c r="KF77" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KG77" t="n">
+      <c r="KG77" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KH77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -69326,8 +69557,11 @@
       <c r="KF78" s="1" t="n">
         <v>2.75</v>
       </c>
-      <c r="KG78" t="n">
+      <c r="KG78" s="1" t="n">
         <v>2.38</v>
+      </c>
+      <c r="KH78" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -70209,8 +70443,11 @@
       <c r="KF79" s="1" t="n">
         <v>7.86</v>
       </c>
-      <c r="KG79" t="n">
+      <c r="KG79" s="1" t="n">
         <v>4.38</v>
+      </c>
+      <c r="KH79" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -71092,8 +71329,11 @@
       <c r="KF80" s="1" t="n">
         <v>32.7</v>
       </c>
-      <c r="KG80" t="n">
+      <c r="KG80" s="1" t="n">
         <v>42.1</v>
+      </c>
+      <c r="KH80" t="n">
+        <v>44.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -71975,8 +72215,11 @@
       <c r="KF81" s="1" t="n">
         <v>12.7</v>
       </c>
-      <c r="KG81" t="n">
+      <c r="KG81" s="1" t="n">
         <v>22.8</v>
+      </c>
+      <c r="KH81" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -72858,8 +73101,11 @@
       <c r="KF82" s="1" t="n">
         <v>188.3</v>
       </c>
-      <c r="KG82" t="n">
+      <c r="KG82" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KH82" t="n">
+        <v>186.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -73741,8 +73987,11 @@
       <c r="KF83" s="1" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="KG83" t="n">
+      <c r="KG83" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KH83" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -74624,8 +74873,11 @@
       <c r="KF84" s="1" t="n">
         <v>26.16</v>
       </c>
-      <c r="KG84" t="n">
+      <c r="KG84" s="1" t="n">
         <v>25.16</v>
+      </c>
+      <c r="KH84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -75507,8 +75759,11 @@
       <c r="KF85" s="1" t="n">
         <v>121.7</v>
       </c>
-      <c r="KG85" t="n">
+      <c r="KG85" s="1" t="n">
         <v>89.7</v>
+      </c>
+      <c r="KH85" t="n">
+        <v>107.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -76390,8 +76645,11 @@
       <c r="KF86" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KG86" t="n">
+      <c r="KG86" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KH86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -77273,8 +77531,11 @@
       <c r="KF87" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="KG87" t="n">
+      <c r="KG87" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KH87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -78156,8 +78417,11 @@
       <c r="KF88" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KG88" t="n">
+      <c r="KG88" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KH88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -79039,8 +79303,11 @@
       <c r="KF89" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KG89" t="n">
+      <c r="KG89" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KH89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -79922,8 +80189,11 @@
       <c r="KF90" s="1" t="n">
         <v>124</v>
       </c>
-      <c r="KG90" t="n">
+      <c r="KG90" s="1" t="n">
         <v>158</v>
+      </c>
+      <c r="KH90" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -80805,8 +81075,11 @@
       <c r="KF91" s="1" t="n">
         <v>209</v>
       </c>
-      <c r="KG91" t="n">
+      <c r="KG91" s="1" t="n">
         <v>227</v>
+      </c>
+      <c r="KH91" t="n">
+        <v>192</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -81688,8 +81961,11 @@
       <c r="KF92" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="KG92" t="n">
+      <c r="KG92" s="1" t="n">
         <v>283</v>
+      </c>
+      <c r="KH92" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -82571,8 +82847,11 @@
       <c r="KF93" s="1" t="n">
         <v>69.2</v>
       </c>
-      <c r="KG93" t="n">
+      <c r="KG93" s="1" t="n">
         <v>74.3</v>
+      </c>
+      <c r="KH93" t="n">
+        <v>70.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -83454,8 +83733,11 @@
       <c r="KF94" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="KG94" t="n">
+      <c r="KG94" s="1" t="n">
         <v>53</v>
+      </c>
+      <c r="KH94" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -84337,8 +84619,11 @@
       <c r="KF95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KG95" t="n">
+      <c r="KG95" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KH95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -85220,8 +85505,11 @@
       <c r="KF96" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KG96" t="n">
+      <c r="KG96" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KH96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -86103,8 +86391,11 @@
       <c r="KF97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KG97" t="n">
+      <c r="KG97" s="1" t="n">
         <v>46</v>
+      </c>
+      <c r="KH97" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -86986,8 +87277,11 @@
       <c r="KF98" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="KG98" t="n">
+      <c r="KG98" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="KH98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -87869,7 +88163,10 @@
       <c r="KF99" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="KG99" t="n">
+      <c r="KG99" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="KH99" t="n">
         <v>51</v>
       </c>
     </row>
@@ -88752,8 +89049,11 @@
       <c r="KF100" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KG100" t="n">
+      <c r="KG100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KH100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -89635,8 +89935,11 @@
       <c r="KF101" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KG101" t="n">
+      <c r="KG101" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KH101" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -90518,8 +90821,11 @@
       <c r="KF102" s="1" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="KG102" t="n">
+      <c r="KG102" s="1" t="n">
         <v>61.5</v>
+      </c>
+      <c r="KH102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KK102"/>
+  <dimension ref="A1:KL102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1347,8 +1347,11 @@
       <c r="KJ1" s="1" t="n">
         <v>10954</v>
       </c>
-      <c r="KK1" t="n">
+      <c r="KK1" s="1" t="n">
         <v>11176</v>
+      </c>
+      <c r="KL1" t="n">
+        <v>10976</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2242,8 +2245,11 @@
       <c r="KJ2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KK2" t="n">
+      <c r="KK2" s="1" t="n">
         <v>2024</v>
+      </c>
+      <c r="KL2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="2">
@@ -3137,8 +3143,11 @@
       <c r="KJ3" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="KK3" t="n">
+      <c r="KK3" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KL3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4032,7 +4041,10 @@
       <c r="KJ4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KK4" t="n">
+      <c r="KK4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4927,7 +4939,10 @@
       <c r="KJ5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KK5" t="n">
+      <c r="KK5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5822,8 +5837,11 @@
       <c r="KJ6" s="1" t="n">
         <v>97</v>
       </c>
-      <c r="KK6" t="n">
+      <c r="KK6" s="1" t="n">
         <v>99</v>
+      </c>
+      <c r="KL6" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6717,8 +6735,11 @@
       <c r="KJ7" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="KK7" t="n">
+      <c r="KK7" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KL7" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7612,8 +7633,11 @@
       <c r="KJ8" s="1" t="n">
         <v>-35</v>
       </c>
-      <c r="KK8" t="n">
+      <c r="KK8" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KL8" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8507,7 +8531,10 @@
       <c r="KJ9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KK9" t="n">
+      <c r="KK9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9402,8 +9429,11 @@
       <c r="KJ10" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="KK10" t="n">
+      <c r="KK10" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KL10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10297,8 +10327,11 @@
       <c r="KJ11" s="1" t="n">
         <v>227</v>
       </c>
-      <c r="KK11" t="n">
+      <c r="KK11" s="1" t="n">
         <v>240</v>
+      </c>
+      <c r="KL11" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11192,8 +11225,11 @@
       <c r="KJ12" s="1" t="n">
         <v>144</v>
       </c>
-      <c r="KK12" t="n">
+      <c r="KK12" s="1" t="n">
         <v>124</v>
+      </c>
+      <c r="KL12" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12087,8 +12123,11 @@
       <c r="KJ13" s="1" t="n">
         <v>371</v>
       </c>
-      <c r="KK13" t="n">
+      <c r="KK13" s="1" t="n">
         <v>364</v>
+      </c>
+      <c r="KL13" t="n">
+        <v>366</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -12982,8 +13021,11 @@
       <c r="KJ14" s="1" t="n">
         <v>1.58</v>
       </c>
-      <c r="KK14" t="n">
+      <c r="KK14" s="1" t="n">
         <v>1.94</v>
+      </c>
+      <c r="KL14" t="n">
+        <v>1.63</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -13877,8 +13919,11 @@
       <c r="KJ15" s="1" t="n">
         <v>87</v>
       </c>
-      <c r="KK15" t="n">
+      <c r="KK15" s="1" t="n">
         <v>118</v>
+      </c>
+      <c r="KL15" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14772,8 +14817,11 @@
       <c r="KJ16" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KK16" t="n">
+      <c r="KK16" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="KL16" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15667,8 +15715,11 @@
       <c r="KJ17" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KK17" t="n">
+      <c r="KK17" s="1" t="n">
         <v>28</v>
+      </c>
+      <c r="KL17" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16562,8 +16613,11 @@
       <c r="KJ18" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KK18" t="n">
+      <c r="KK18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KL18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17457,8 +17511,11 @@
       <c r="KJ19" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KK19" t="n">
+      <c r="KK19" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KL19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18352,8 +18409,11 @@
       <c r="KJ20" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KK20" t="n">
+      <c r="KK20" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KL20" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19247,8 +19307,11 @@
       <c r="KJ21" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KK21" t="n">
+      <c r="KK21" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KL21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="2">
@@ -20142,8 +20205,11 @@
       <c r="KJ22" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KK22" t="n">
+      <c r="KK22" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KL22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21037,8 +21103,11 @@
       <c r="KJ23" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KK23" t="n">
+      <c r="KK23" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KL23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -21932,8 +22001,11 @@
       <c r="KJ24" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="KK24" t="n">
+      <c r="KK24" s="1" t="n">
         <v>29</v>
+      </c>
+      <c r="KL24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -22827,8 +22899,11 @@
       <c r="KJ25" s="1" t="n">
         <v>51.9</v>
       </c>
-      <c r="KK25" t="n">
+      <c r="KK25" s="1" t="n">
         <v>48.3</v>
+      </c>
+      <c r="KL25" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23722,8 +23797,11 @@
       <c r="KJ26" s="1" t="n">
         <v>26.5</v>
       </c>
-      <c r="KK26" t="n">
+      <c r="KK26" s="1" t="n">
         <v>26</v>
+      </c>
+      <c r="KL26" t="n">
+        <v>45.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24617,8 +24695,11 @@
       <c r="KJ27" s="1" t="n">
         <v>13.74</v>
       </c>
-      <c r="KK27" t="n">
+      <c r="KK27" s="1" t="n">
         <v>12.55</v>
+      </c>
+      <c r="KL27" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25512,8 +25593,11 @@
       <c r="KJ28" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KK28" t="n">
+      <c r="KK28" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KL28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26407,8 +26491,11 @@
       <c r="KJ29" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KK29" t="n">
+      <c r="KK29" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KL29" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27302,8 +27389,11 @@
       <c r="KJ30" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KK30" t="n">
+      <c r="KK30" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KL30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28197,8 +28287,11 @@
       <c r="KJ31" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="KK31" t="n">
+      <c r="KK31" s="1" t="n">
         <v>61</v>
+      </c>
+      <c r="KL31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29092,8 +29185,11 @@
       <c r="KJ32" s="1" t="n">
         <v>1.96</v>
       </c>
-      <c r="KK32" t="n">
+      <c r="KK32" s="1" t="n">
         <v>2.1</v>
+      </c>
+      <c r="KL32" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -29987,8 +30083,11 @@
       <c r="KJ33" s="1" t="n">
         <v>3.79</v>
       </c>
-      <c r="KK33" t="n">
+      <c r="KK33" s="1" t="n">
         <v>4.36</v>
+      </c>
+      <c r="KL33" t="n">
+        <v>6.38</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -30882,8 +30981,11 @@
       <c r="KJ34" s="1" t="n">
         <v>47.2</v>
       </c>
-      <c r="KK34" t="n">
+      <c r="KK34" s="1" t="n">
         <v>37.7</v>
+      </c>
+      <c r="KL34" t="n">
+        <v>35.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -31777,8 +31879,11 @@
       <c r="KJ35" s="1" t="n">
         <v>26.4</v>
       </c>
-      <c r="KK35" t="n">
+      <c r="KK35" s="1" t="n">
         <v>23</v>
+      </c>
+      <c r="KL35" t="n">
+        <v>15.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32672,7 +32777,10 @@
       <c r="KJ36" s="1" t="n">
         <v>187.4</v>
       </c>
-      <c r="KK36" t="n">
+      <c r="KK36" s="1" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="KL36" t="n">
         <v>187.4</v>
       </c>
     </row>
@@ -33567,7 +33675,10 @@
       <c r="KJ37" s="1" t="n">
         <v>85.7</v>
       </c>
-      <c r="KK37" t="n">
+      <c r="KK37" s="1" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="KL37" t="n">
         <v>86.59999999999999</v>
       </c>
     </row>
@@ -34462,7 +34573,10 @@
       <c r="KJ38" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="KK38" t="n">
+      <c r="KK38" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="KL38" t="n">
         <v>26</v>
       </c>
     </row>
@@ -35357,8 +35471,11 @@
       <c r="KJ39" s="1" t="n">
         <v>102.7</v>
       </c>
-      <c r="KK39" t="n">
+      <c r="KK39" s="1" t="n">
         <v>103.2</v>
+      </c>
+      <c r="KL39" t="n">
+        <v>104.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36252,7 +36369,10 @@
       <c r="KJ40" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KK40" t="n">
+      <c r="KK40" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL40" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37147,7 +37267,10 @@
       <c r="KJ41" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KK41" t="n">
+      <c r="KK41" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -38042,7 +38165,10 @@
       <c r="KJ42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KK42" t="n">
+      <c r="KK42" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -38937,7 +39063,10 @@
       <c r="KJ43" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK43" t="n">
+      <c r="KK43" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -39832,8 +39961,11 @@
       <c r="KJ44" s="1" t="n">
         <v>128</v>
       </c>
-      <c r="KK44" t="n">
+      <c r="KK44" s="1" t="n">
         <v>139</v>
+      </c>
+      <c r="KL44" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -40727,8 +40859,11 @@
       <c r="KJ45" s="1" t="n">
         <v>238</v>
       </c>
-      <c r="KK45" t="n">
+      <c r="KK45" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="KL45" t="n">
+        <v>196</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -41622,8 +41757,11 @@
       <c r="KJ46" s="1" t="n">
         <v>274</v>
       </c>
-      <c r="KK46" t="n">
+      <c r="KK46" s="1" t="n">
         <v>259</v>
+      </c>
+      <c r="KL46" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42517,8 +42655,11 @@
       <c r="KJ47" s="1" t="n">
         <v>73.90000000000001</v>
       </c>
-      <c r="KK47" t="n">
+      <c r="KK47" s="1" t="n">
         <v>71.2</v>
+      </c>
+      <c r="KL47" t="n">
+        <v>68.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43412,8 +43553,11 @@
       <c r="KJ48" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="KK48" t="n">
+      <c r="KK48" s="1" t="n">
         <v>57</v>
+      </c>
+      <c r="KL48" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44307,8 +44451,11 @@
       <c r="KJ49" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KK49" t="n">
+      <c r="KK49" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KL49" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -45202,8 +45349,11 @@
       <c r="KJ50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KK50" t="n">
+      <c r="KK50" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KL50" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="2">
@@ -46097,8 +46247,11 @@
       <c r="KJ51" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KK51" t="n">
+      <c r="KK51" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="KL51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -46992,8 +47145,11 @@
       <c r="KJ52" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="KK52" t="n">
+      <c r="KK52" s="1" t="n">
         <v>30</v>
+      </c>
+      <c r="KL52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -47887,8 +48043,11 @@
       <c r="KJ53" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="KK53" t="n">
+      <c r="KK53" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KL53" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -48782,8 +48941,11 @@
       <c r="KJ54" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KK54" t="n">
+      <c r="KK54" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -49677,8 +49839,11 @@
       <c r="KJ55" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KK55" t="n">
+      <c r="KK55" s="1" t="n">
         <v>11</v>
+      </c>
+      <c r="KL55" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="2">
@@ -50572,8 +50737,11 @@
       <c r="KJ56" s="1" t="n">
         <v>64.3</v>
       </c>
-      <c r="KK56" t="n">
+      <c r="KK56" s="1" t="n">
         <v>78.59999999999999</v>
+      </c>
+      <c r="KL56" t="n">
+        <v>62.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51467,8 +51635,11 @@
       <c r="KJ57" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="KK57" t="n">
+      <c r="KK57" s="1" t="n">
         <v>180</v>
+      </c>
+      <c r="KL57" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52362,8 +52533,11 @@
       <c r="KJ58" s="1" t="n">
         <v>176</v>
       </c>
-      <c r="KK58" t="n">
+      <c r="KK58" s="1" t="n">
         <v>93</v>
+      </c>
+      <c r="KL58" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53257,8 +53431,11 @@
       <c r="KJ59" s="1" t="n">
         <v>398</v>
       </c>
-      <c r="KK59" t="n">
+      <c r="KK59" s="1" t="n">
         <v>273</v>
+      </c>
+      <c r="KL59" t="n">
+        <v>359</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -54152,8 +54329,11 @@
       <c r="KJ60" s="1" t="n">
         <v>1.26</v>
       </c>
-      <c r="KK60" t="n">
+      <c r="KK60" s="1" t="n">
         <v>1.94</v>
+      </c>
+      <c r="KL60" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -55047,8 +55227,11 @@
       <c r="KJ61" s="1" t="n">
         <v>105</v>
       </c>
-      <c r="KK61" t="n">
+      <c r="KK61" s="1" t="n">
         <v>72</v>
+      </c>
+      <c r="KL61" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -55942,8 +56125,11 @@
       <c r="KJ62" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KK62" t="n">
+      <c r="KK62" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KL62" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -56837,8 +57023,11 @@
       <c r="KJ63" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KK63" t="n">
+      <c r="KK63" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KL63" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -57732,8 +57921,11 @@
       <c r="KJ64" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="KK64" t="n">
+      <c r="KK64" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KL64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -58627,8 +58819,11 @@
       <c r="KJ65" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KK65" t="n">
+      <c r="KK65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KL65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -59522,8 +59717,11 @@
       <c r="KJ66" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KK66" t="n">
+      <c r="KK66" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KL66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -60417,8 +60615,11 @@
       <c r="KJ67" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KK67" t="n">
+      <c r="KK67" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -61312,8 +61513,11 @@
       <c r="KJ68" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KK68" t="n">
+      <c r="KK68" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62207,8 +62411,11 @@
       <c r="KJ69" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KK69" t="n">
+      <c r="KK69" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KL69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -63102,8 +63309,11 @@
       <c r="KJ70" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="KK70" t="n">
+      <c r="KK70" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KL70" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -63997,8 +64207,11 @@
       <c r="KJ71" s="1" t="n">
         <v>62.5</v>
       </c>
-      <c r="KK71" t="n">
+      <c r="KK71" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="KL71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -64892,8 +65105,11 @@
       <c r="KJ72" s="1" t="n">
         <v>19.9</v>
       </c>
-      <c r="KK72" t="n">
+      <c r="KK72" s="1" t="n">
         <v>30.33</v>
+      </c>
+      <c r="KL72" t="n">
+        <v>44.88</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -65787,8 +66003,11 @@
       <c r="KJ73" s="1" t="n">
         <v>12.44</v>
       </c>
-      <c r="KK73" t="n">
+      <c r="KK73" s="1" t="n">
         <v>18.2</v>
+      </c>
+      <c r="KL73" t="n">
+        <v>25.64</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -66682,8 +66901,11 @@
       <c r="KJ74" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KK74" t="n">
+      <c r="KK74" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KL74" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -67577,8 +67799,11 @@
       <c r="KJ75" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KK75" t="n">
+      <c r="KK75" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KL75" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -68472,8 +68697,11 @@
       <c r="KJ76" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KK76" t="n">
+      <c r="KK76" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KL76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -69367,8 +69595,11 @@
       <c r="KJ77" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="KK77" t="n">
+      <c r="KK77" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KL77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -70262,8 +70493,11 @@
       <c r="KJ78" s="1" t="n">
         <v>1.97</v>
       </c>
-      <c r="KK78" t="n">
+      <c r="KK78" s="1" t="n">
         <v>2.73</v>
+      </c>
+      <c r="KL78" t="n">
+        <v>3.86</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -71157,8 +71391,11 @@
       <c r="KJ79" s="1" t="n">
         <v>3.15</v>
       </c>
-      <c r="KK79" t="n">
+      <c r="KK79" s="1" t="n">
         <v>4.56</v>
+      </c>
+      <c r="KL79" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -72052,8 +72289,11 @@
       <c r="KJ80" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="KK80" t="n">
+      <c r="KK80" s="1" t="n">
         <v>34.1</v>
+      </c>
+      <c r="KL80" t="n">
+        <v>20.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -72947,8 +73187,11 @@
       <c r="KJ81" s="1" t="n">
         <v>31.7</v>
       </c>
-      <c r="KK81" t="n">
+      <c r="KK81" s="1" t="n">
         <v>22</v>
+      </c>
+      <c r="KL81" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -73842,8 +74085,11 @@
       <c r="KJ82" s="1" t="n">
         <v>189.3</v>
       </c>
-      <c r="KK82" t="n">
+      <c r="KK82" s="1" t="n">
         <v>187.7</v>
+      </c>
+      <c r="KL82" t="n">
+        <v>187.2</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -74737,8 +74983,11 @@
       <c r="KJ83" s="1" t="n">
         <v>83.90000000000001</v>
       </c>
-      <c r="KK83" t="n">
+      <c r="KK83" s="1" t="n">
         <v>86.7</v>
+      </c>
+      <c r="KL83" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -75632,8 +75881,11 @@
       <c r="KJ84" s="1" t="n">
         <v>24.41</v>
       </c>
-      <c r="KK84" t="n">
+      <c r="KK84" s="1" t="n">
         <v>26.24</v>
+      </c>
+      <c r="KL84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -76527,8 +76779,11 @@
       <c r="KJ85" s="1" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="KK85" t="n">
+      <c r="KK85" s="1" t="n">
         <v>94.7</v>
+      </c>
+      <c r="KL85" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -77422,8 +77677,11 @@
       <c r="KJ86" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="KK86" t="n">
+      <c r="KK86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KL86" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -78317,8 +78575,11 @@
       <c r="KJ87" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KK87" t="n">
+      <c r="KK87" s="1" t="n">
         <v>3</v>
+      </c>
+      <c r="KL87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -79212,8 +79473,11 @@
       <c r="KJ88" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KK88" t="n">
+      <c r="KK88" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -80107,8 +80371,11 @@
       <c r="KJ89" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KK89" t="n">
+      <c r="KK89" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KL89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -81002,8 +81269,11 @@
       <c r="KJ90" s="1" t="n">
         <v>118</v>
       </c>
-      <c r="KK90" t="n">
+      <c r="KK90" s="1" t="n">
         <v>113</v>
+      </c>
+      <c r="KL90" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -81897,8 +82167,11 @@
       <c r="KJ91" s="1" t="n">
         <v>265</v>
       </c>
-      <c r="KK91" t="n">
+      <c r="KK91" s="1" t="n">
         <v>143</v>
+      </c>
+      <c r="KL91" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -82792,8 +83065,11 @@
       <c r="KJ92" s="1" t="n">
         <v>310</v>
       </c>
-      <c r="KK92" t="n">
+      <c r="KK92" s="1" t="n">
         <v>193</v>
+      </c>
+      <c r="KL92" t="n">
+        <v>237</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -83687,8 +83963,11 @@
       <c r="KJ93" s="1" t="n">
         <v>77.90000000000001</v>
       </c>
-      <c r="KK93" t="n">
+      <c r="KK93" s="1" t="n">
         <v>70.7</v>
+      </c>
+      <c r="KL93" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -84582,8 +84861,11 @@
       <c r="KJ94" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="KK94" t="n">
+      <c r="KK94" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KL94" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -85477,8 +85759,11 @@
       <c r="KJ95" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KK95" t="n">
+      <c r="KK95" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KL95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -86372,8 +86657,11 @@
       <c r="KJ96" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="KK96" t="n">
+      <c r="KK96" s="1" t="n">
         <v>8</v>
+      </c>
+      <c r="KL96" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -87267,8 +87555,11 @@
       <c r="KJ97" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KK97" t="n">
+      <c r="KK97" s="1" t="n">
         <v>31</v>
+      </c>
+      <c r="KL97" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -88162,8 +88453,11 @@
       <c r="KJ98" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KK98" t="n">
+      <c r="KK98" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KL98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -89057,8 +89351,11 @@
       <c r="KJ99" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="KK99" t="n">
+      <c r="KK99" s="1" t="n">
         <v>43</v>
+      </c>
+      <c r="KL99" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -89952,8 +90249,11 @@
       <c r="KJ100" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="KK100" t="n">
+      <c r="KK100" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KL100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -90847,8 +91147,11 @@
       <c r="KJ101" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KK101" t="n">
+      <c r="KK101" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KL101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -91742,8 +92045,11 @@
       <c r="KJ102" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="KK102" t="n">
+      <c r="KK102" s="1" t="n">
         <v>55.6</v>
+      </c>
+      <c r="KL102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Gold Coast_stats.xlsx
+++ b/AFL_ML/Data/Gold Coast_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KN102"/>
+  <dimension ref="A1:KS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JK35" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JR39" activeCellId="0" sqref="JR39"/>
@@ -1356,8 +1356,23 @@
       <c r="KM1" s="1" t="n">
         <v>10985</v>
       </c>
-      <c r="KN1" t="n">
+      <c r="KN1" s="1" t="n">
         <v>11002</v>
+      </c>
+      <c r="KO1" s="1" t="n">
+        <v>11009</v>
+      </c>
+      <c r="KP1" s="1" t="n">
+        <v>11019</v>
+      </c>
+      <c r="KQ1" s="1" t="n">
+        <v>11028</v>
+      </c>
+      <c r="KR1" s="1" t="n">
+        <v>11038</v>
+      </c>
+      <c r="KS1" t="n">
+        <v>11045</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="2">
@@ -2260,7 +2275,22 @@
       <c r="KM2" s="1" t="n">
         <v>2023</v>
       </c>
-      <c r="KN2" t="n">
+      <c r="KN2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KO2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KP2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KQ2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KR2" s="1" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3164,8 +3194,23 @@
       <c r="KM3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KN3" t="n">
+      <c r="KN3" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KO3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP3" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ3" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR3" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="2">
@@ -4068,7 +4113,22 @@
       <c r="KM4" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KN4" t="n">
+      <c r="KN4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KO4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KS4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4972,8 +5032,23 @@
       <c r="KM5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KN5" t="n">
+      <c r="KN5" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KO5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="2">
@@ -5876,8 +5951,23 @@
       <c r="KM6" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="KN6" t="n">
+      <c r="KN6" s="1" t="n">
         <v>89</v>
+      </c>
+      <c r="KO6" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="KP6" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KQ6" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="KR6" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KS6" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="2">
@@ -6780,8 +6870,23 @@
       <c r="KM7" s="1" t="n">
         <v>115</v>
       </c>
-      <c r="KN7" t="n">
+      <c r="KN7" s="1" t="n">
         <v>117</v>
+      </c>
+      <c r="KO7" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="KP7" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="KQ7" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KR7" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KS7" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="2">
@@ -7684,8 +7789,23 @@
       <c r="KM8" s="1" t="n">
         <v>-48</v>
       </c>
-      <c r="KN8" t="n">
+      <c r="KN8" s="1" t="n">
         <v>-28</v>
+      </c>
+      <c r="KO8" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="KP8" s="1" t="n">
+        <v>-53</v>
+      </c>
+      <c r="KQ8" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="KR8" s="1" t="n">
+        <v>-34</v>
+      </c>
+      <c r="KS8" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="2">
@@ -8588,8 +8708,23 @@
       <c r="KM9" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="KN9" t="n">
+      <c r="KN9" s="1" t="n">
         <v>0</v>
+      </c>
+      <c r="KO9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KS9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="2">
@@ -9492,8 +9627,23 @@
       <c r="KM10" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KN10" t="n">
+      <c r="KN10" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KO10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KQ10" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KR10" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="2">
@@ -10396,8 +10546,23 @@
       <c r="KM11" s="1" t="n">
         <v>197</v>
       </c>
-      <c r="KN11" t="n">
+      <c r="KN11" s="1" t="n">
         <v>218</v>
+      </c>
+      <c r="KO11" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="KP11" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="KQ11" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="KR11" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="KS11" t="n">
+        <v>224</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="2">
@@ -11300,8 +11465,23 @@
       <c r="KM12" s="1" t="n">
         <v>136</v>
       </c>
-      <c r="KN12" t="n">
+      <c r="KN12" s="1" t="n">
         <v>134</v>
+      </c>
+      <c r="KO12" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="KP12" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="KQ12" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="KR12" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="KS12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="2">
@@ -12204,8 +12384,23 @@
       <c r="KM13" s="1" t="n">
         <v>333</v>
       </c>
-      <c r="KN13" t="n">
+      <c r="KN13" s="1" t="n">
         <v>352</v>
+      </c>
+      <c r="KO13" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="KP13" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="KQ13" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="KR13" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="KS13" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="2">
@@ -13108,8 +13303,23 @@
       <c r="KM14" s="1" t="n">
         <v>1.45</v>
       </c>
-      <c r="KN14" t="n">
+      <c r="KN14" s="1" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KO14" s="1" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="KP14" s="1" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="KQ14" s="1" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="KR14" s="1" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="KS14" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="2">
@@ -14012,8 +14222,23 @@
       <c r="KM15" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="KN15" t="n">
+      <c r="KN15" s="1" t="n">
         <v>92</v>
+      </c>
+      <c r="KO15" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="KP15" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="KQ15" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KR15" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KS15" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="2">
@@ -14916,8 +15141,23 @@
       <c r="KM16" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="KN16" t="n">
+      <c r="KN16" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KO16" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="KP16" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="KQ16" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="KR16" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KS16" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="2">
@@ -15820,8 +16060,23 @@
       <c r="KM17" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="KN17" t="n">
+      <c r="KN17" s="1" t="n">
         <v>42</v>
+      </c>
+      <c r="KO17" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="KP17" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="KQ17" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KR17" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="KS17" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="2">
@@ -16724,8 +16979,23 @@
       <c r="KM18" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KN18" t="n">
+      <c r="KN18" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KO18" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="KP18" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="KQ18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KR18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KS18" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="2">
@@ -17628,8 +17898,23 @@
       <c r="KM19" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KN19" t="n">
+      <c r="KN19" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KO19" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KP19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR19" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KS19" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="2">
@@ -18532,8 +18817,23 @@
       <c r="KM20" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN20" t="n">
+      <c r="KN20" s="1" t="n">
         <v>13</v>
+      </c>
+      <c r="KO20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KP20" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ20" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KR20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="2">
@@ -19436,7 +19736,22 @@
       <c r="KM21" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN21" t="n">
+      <c r="KN21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KO21" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP21" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ21" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS21" t="n">
         <v>10</v>
       </c>
     </row>
@@ -20340,8 +20655,23 @@
       <c r="KM22" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN22" t="n">
+      <c r="KN22" s="1" t="n">
         <v>10</v>
+      </c>
+      <c r="KO22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP22" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ22" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KR22" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS22" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="2">
@@ -21244,8 +21574,23 @@
       <c r="KM23" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KN23" t="n">
+      <c r="KN23" s="1" t="n">
         <v>1</v>
+      </c>
+      <c r="KO23" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP23" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="KQ23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR23" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="2">
@@ -22148,8 +22493,23 @@
       <c r="KM24" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="KN24" t="n">
+      <c r="KN24" s="1" t="n">
         <v>24</v>
+      </c>
+      <c r="KO24" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="KP24" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KQ24" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="KR24" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS24" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="2">
@@ -23052,8 +23412,23 @@
       <c r="KM25" s="1" t="n">
         <v>58.8</v>
       </c>
-      <c r="KN25" t="n">
+      <c r="KN25" s="1" t="n">
         <v>54.2</v>
+      </c>
+      <c r="KO25" s="1" t="n">
+        <v>55.2</v>
+      </c>
+      <c r="KP25" s="1" t="n">
+        <v>47.1</v>
+      </c>
+      <c r="KQ25" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KR25" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KS25" t="n">
+        <v>48.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="2">
@@ -23956,8 +24331,23 @@
       <c r="KM26" s="1" t="n">
         <v>33.3</v>
       </c>
-      <c r="KN26" t="n">
+      <c r="KN26" s="1" t="n">
         <v>27.08</v>
+      </c>
+      <c r="KO26" s="1" t="n">
+        <v>22.88</v>
+      </c>
+      <c r="KP26" s="1" t="n">
+        <v>41.62</v>
+      </c>
+      <c r="KQ26" s="1" t="n">
+        <v>18.94</v>
+      </c>
+      <c r="KR26" s="1" t="n">
+        <v>50.67</v>
+      </c>
+      <c r="KS26" t="n">
+        <v>22.47</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="2">
@@ -24860,8 +25250,23 @@
       <c r="KM27" s="1" t="n">
         <v>19.59</v>
       </c>
-      <c r="KN27" t="n">
+      <c r="KN27" s="1" t="n">
         <v>14.67</v>
+      </c>
+      <c r="KO27" s="1" t="n">
+        <v>12.62</v>
+      </c>
+      <c r="KP27" s="1" t="n">
+        <v>19.59</v>
+      </c>
+      <c r="KQ27" s="1" t="n">
+        <v>11.93</v>
+      </c>
+      <c r="KR27" s="1" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="KS27" t="n">
+        <v>10.91</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="2">
@@ -25764,8 +26169,23 @@
       <c r="KM28" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KN28" t="n">
+      <c r="KN28" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KO28" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KP28" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KQ28" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KR28" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KS28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="2">
@@ -26668,8 +27088,23 @@
       <c r="KM29" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KN29" t="n">
+      <c r="KN29" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KO29" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP29" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="KQ29" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KR29" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="KS29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="2">
@@ -27572,8 +28007,23 @@
       <c r="KM30" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KN30" t="n">
+      <c r="KN30" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KO30" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="KP30" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ30" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="KR30" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KS30" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="2">
@@ -28476,8 +28926,23 @@
       <c r="KM31" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="KN31" t="n">
+      <c r="KN31" s="1" t="n">
         <v>55</v>
+      </c>
+      <c r="KO31" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="KP31" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="KQ31" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="KR31" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="KS31" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="2">
@@ -29380,8 +29845,23 @@
       <c r="KM32" s="1" t="n">
         <v>3.06</v>
       </c>
-      <c r="KN32" t="n">
+      <c r="KN32" s="1" t="n">
         <v>2.29</v>
+      </c>
+      <c r="KO32" s="1" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="KP32" s="1" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="KQ32" s="1" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="KR32" s="1" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="KS32" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="2">
@@ -30284,8 +30764,23 @@
       <c r="KM33" s="1" t="n">
         <v>5.2</v>
       </c>
-      <c r="KN33" t="n">
+      <c r="KN33" s="1" t="n">
         <v>4.23</v>
+      </c>
+      <c r="KO33" s="1" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="KP33" s="1" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="KQ33" s="1" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="KR33" s="1" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="KS33" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="2">
@@ -31188,8 +31683,23 @@
       <c r="KM34" s="1" t="n">
         <v>30.8</v>
       </c>
-      <c r="KN34" t="n">
+      <c r="KN34" s="1" t="n">
         <v>41.8</v>
+      </c>
+      <c r="KO34" s="1" t="n">
+        <v>36.9</v>
+      </c>
+      <c r="KP34" s="1" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="KQ34" s="1" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="KR34" s="1" t="n">
+        <v>28.3</v>
+      </c>
+      <c r="KS34" t="n">
+        <v>46.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="2">
@@ -32092,8 +32602,23 @@
       <c r="KM35" s="1" t="n">
         <v>19.2</v>
       </c>
-      <c r="KN35" t="n">
+      <c r="KN35" s="1" t="n">
         <v>23.6</v>
+      </c>
+      <c r="KO35" s="1" t="n">
+        <v>24.6</v>
+      </c>
+      <c r="KP35" s="1" t="n">
+        <v>16.3</v>
+      </c>
+      <c r="KQ35" s="1" t="n">
+        <v>25.4</v>
+      </c>
+      <c r="KR35" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS35" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="2">
@@ -32996,8 +33521,23 @@
       <c r="KM36" s="1" t="n">
         <v>188.4</v>
       </c>
-      <c r="KN36" t="n">
+      <c r="KN36" s="1" t="n">
         <v>190</v>
+      </c>
+      <c r="KO36" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="KP36" s="1" t="n">
+        <v>189.6</v>
+      </c>
+      <c r="KQ36" s="1" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KR36" s="1" t="n">
+        <v>189.5</v>
+      </c>
+      <c r="KS36" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="2">
@@ -33900,8 +34440,23 @@
       <c r="KM37" s="1" t="n">
         <v>87.40000000000001</v>
       </c>
-      <c r="KN37" t="n">
+      <c r="KN37" s="1" t="n">
         <v>83.8</v>
+      </c>
+      <c r="KO37" s="1" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="KP37" s="1" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="KQ37" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="KR37" s="1" t="n">
+        <v>86.59999999999999</v>
+      </c>
+      <c r="KS37" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="2">
@@ -34804,7 +35359,22 @@
       <c r="KM38" s="1" t="n">
         <v>25.91</v>
       </c>
-      <c r="KN38" t="n">
+      <c r="KN38" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KO38" s="1" t="n">
+        <v>24.8</v>
+      </c>
+      <c r="KP38" s="1" t="n">
+        <v>23.91</v>
+      </c>
+      <c r="KQ38" s="1" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="KR38" s="1" t="n">
+        <v>24.66</v>
+      </c>
+      <c r="KS38" t="n">
         <v>24</v>
       </c>
     </row>
@@ -35708,8 +36278,23 @@
       <c r="KM39" s="1" t="n">
         <v>101.1</v>
       </c>
-      <c r="KN39" t="n">
+      <c r="KN39" s="1" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="KO39" s="1" t="n">
+        <v>75.59999999999999</v>
+      </c>
+      <c r="KP39" s="1" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="KQ39" s="1" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="KR39" s="1" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="KS39" t="n">
+        <v>72.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="2">
@@ -36612,7 +37197,22 @@
       <c r="KM40" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN40" t="n">
+      <c r="KN40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KO40" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP40" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KQ40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR40" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS40" t="n">
         <v>10</v>
       </c>
     </row>
@@ -37516,8 +38116,23 @@
       <c r="KM41" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KN41" t="n">
+      <c r="KN41" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KO41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ41" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR41" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="2">
@@ -38420,8 +39035,23 @@
       <c r="KM42" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KN42" t="n">
+      <c r="KN42" s="1" t="n">
         <v>4</v>
+      </c>
+      <c r="KO42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP42" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR42" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KS42" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="2">
@@ -39324,7 +39954,22 @@
       <c r="KM43" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KN43" t="n">
+      <c r="KN43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KO43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KP43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ43" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KR43" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS43" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40228,8 +40873,23 @@
       <c r="KM44" s="1" t="n">
         <v>138</v>
       </c>
-      <c r="KN44" t="n">
+      <c r="KN44" s="1" t="n">
         <v>126</v>
+      </c>
+      <c r="KO44" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="KP44" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="KQ44" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="KR44" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="KS44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="2">
@@ -41132,8 +41792,23 @@
       <c r="KM45" s="1" t="n">
         <v>191</v>
       </c>
-      <c r="KN45" t="n">
+      <c r="KN45" s="1" t="n">
         <v>216</v>
+      </c>
+      <c r="KO45" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="KP45" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KQ45" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="KR45" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="KS45" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="2">
@@ -42036,8 +42711,23 @@
       <c r="KM46" s="1" t="n">
         <v>226</v>
       </c>
-      <c r="KN46" t="n">
+      <c r="KN46" s="1" t="n">
         <v>254</v>
+      </c>
+      <c r="KO46" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="KP46" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="KQ46" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="KR46" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="KS46" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="2">
@@ -42940,8 +43630,23 @@
       <c r="KM47" s="1" t="n">
         <v>67.90000000000001</v>
       </c>
-      <c r="KN47" t="n">
+      <c r="KN47" s="1" t="n">
         <v>72.2</v>
+      </c>
+      <c r="KO47" s="1" t="n">
+        <v>76.2</v>
+      </c>
+      <c r="KP47" s="1" t="n">
+        <v>70.90000000000001</v>
+      </c>
+      <c r="KQ47" s="1" t="n">
+        <v>71.40000000000001</v>
+      </c>
+      <c r="KR47" s="1" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="KS47" t="n">
+        <v>73.3</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="2">
@@ -43844,8 +44549,23 @@
       <c r="KM48" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="KN48" t="n">
+      <c r="KN48" s="1" t="n">
         <v>59</v>
+      </c>
+      <c r="KO48" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP48" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="KQ48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="KR48" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="KS48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="2">
@@ -44748,8 +45468,23 @@
       <c r="KM49" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="KN49" t="n">
+      <c r="KN49" s="1" t="n">
         <v>6</v>
+      </c>
+      <c r="KO49" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KP49" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="KQ49" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KR49" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KS49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="2">
@@ -45652,7 +46387,22 @@
       <c r="KM50" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="KN50" t="n">
+      <c r="KN50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KO50" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP50" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KQ50" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR50" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS50" t="n">
         <v>8</v>
       </c>
     </row>
@@ -46556,8 +47306,23 @@
       <c r="KM51" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="KN51" t="n">
+      <c r="KN51" s="1" t="n">
         <v>32</v>
+      </c>
+      <c r="KO51" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KP51" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KQ51" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KR51" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="KS51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="2">
@@ -47460,8 +48225,23 @@
       <c r="KM52" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KN52" t="n">
+      <c r="KN52" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="KO52" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="KP52" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ52" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="KR52" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="KS52" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="2">
@@ -48364,8 +49144,23 @@
       <c r="KM53" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KN53" t="n">
+      <c r="KN53" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KO53" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KP53" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="KQ53" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="KR53" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS53" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="2">
@@ -49268,8 +50063,23 @@
       <c r="KM54" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KN54" t="n">
+      <c r="KN54" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KO54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP54" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KQ54" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR54" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="2">
@@ -50172,7 +50982,22 @@
       <c r="KM55" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN55" t="n">
+      <c r="KN55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KO55" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KP55" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ55" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KR55" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KS55" t="n">
         <v>10</v>
       </c>
     </row>
@@ -51076,8 +51901,23 @@
       <c r="KM56" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="KN56" t="n">
+      <c r="KN56" s="1" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KO56" s="1" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="KP56" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="KQ56" s="1" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="KR56" s="1" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KS56" t="n">
+        <v>58.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="2">
@@ -51980,8 +52820,23 @@
       <c r="KM57" s="1" t="n">
         <v>222</v>
       </c>
-      <c r="KN57" t="n">
+      <c r="KN57" s="1" t="n">
         <v>206</v>
+      </c>
+      <c r="KO57" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="KP57" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="KQ57" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="KR57" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="KS57" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="2">
@@ -52884,8 +53739,23 @@
       <c r="KM58" s="1" t="n">
         <v>160</v>
       </c>
-      <c r="KN58" t="n">
+      <c r="KN58" s="1" t="n">
         <v>151</v>
+      </c>
+      <c r="KO58" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="KP58" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="KQ58" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="KR58" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="KS58" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="2">
@@ -53788,8 +54658,23 @@
       <c r="KM59" s="1" t="n">
         <v>382</v>
       </c>
-      <c r="KN59" t="n">
+      <c r="KN59" s="1" t="n">
         <v>357</v>
+      </c>
+      <c r="KO59" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="KP59" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="KQ59" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="KR59" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="KS59" t="n">
+        <v>392</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="2">
@@ -54692,8 +55577,23 @@
       <c r="KM60" s="1" t="n">
         <v>1.39</v>
       </c>
-      <c r="KN60" t="n">
+      <c r="KN60" s="1" t="n">
         <v>1.36</v>
+      </c>
+      <c r="KO60" s="1" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="KP60" s="1" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="KQ60" s="1" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="KR60" s="1" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="KS60" t="n">
+        <v>1.55</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="2">
@@ -55596,8 +56496,23 @@
       <c r="KM61" s="1" t="n">
         <v>110</v>
       </c>
-      <c r="KN61" t="n">
+      <c r="KN61" s="1" t="n">
         <v>83</v>
+      </c>
+      <c r="KO61" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="KP61" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="KQ61" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="KR61" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="KS61" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="2">
@@ -56500,8 +57415,23 @@
       <c r="KM62" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="KN62" t="n">
+      <c r="KN62" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="KO62" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="KP62" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="KQ62" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="KR62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KS62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="2">
@@ -57404,8 +58334,23 @@
       <c r="KM63" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="KN63" t="n">
+      <c r="KN63" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KO63" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KP63" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KQ63" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR63" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS63" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="2">
@@ -58308,8 +59253,23 @@
       <c r="KM64" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="KN64" t="n">
+      <c r="KN64" s="1" t="n">
         <v>19</v>
+      </c>
+      <c r="KO64" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="KP64" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KQ64" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KR64" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="KS64" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="2">
@@ -59212,8 +60172,23 @@
       <c r="KM65" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="KN65" t="n">
+      <c r="KN65" s="1" t="n">
         <v>16</v>
+      </c>
+      <c r="KO65" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="KP65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KQ65" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KR65" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="KS65" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="2">
@@ -60116,8 +61091,23 @@
       <c r="KM66" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="KN66" t="n">
+      <c r="KN66" s="1" t="n">
         <v>18</v>
+      </c>
+      <c r="KO66" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP66" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="KQ66" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KR66" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS66" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="2">
@@ -61020,8 +62010,23 @@
       <c r="KM67" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN67" t="n">
+      <c r="KN67" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KO67" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP67" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KQ67" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR67" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="2">
@@ -61924,8 +62929,23 @@
       <c r="KM68" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN68" t="n">
+      <c r="KN68" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KO68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KP68" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KQ68" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR68" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="2">
@@ -62828,8 +63848,23 @@
       <c r="KM69" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="KN69" t="n">
+      <c r="KN69" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KO69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KP69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KQ69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="KR69" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="2">
@@ -63732,8 +64767,23 @@
       <c r="KM70" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="KN70" t="n">
+      <c r="KN70" s="1" t="n">
         <v>27</v>
+      </c>
+      <c r="KO70" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KP70" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="KQ70" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KR70" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="KS70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="2">
@@ -64636,8 +65686,23 @@
       <c r="KM71" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="KN71" t="n">
+      <c r="KN71" s="1" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KO71" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP71" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="KQ71" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="KR71" s="1" t="n">
+        <v>34.5</v>
+      </c>
+      <c r="KS71" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="2">
@@ -65540,8 +66605,23 @@
       <c r="KM72" s="1" t="n">
         <v>21.22</v>
       </c>
-      <c r="KN72" t="n">
+      <c r="KN72" s="1" t="n">
         <v>19.83</v>
+      </c>
+      <c r="KO72" s="1" t="n">
+        <v>33.75</v>
+      </c>
+      <c r="KP72" s="1" t="n">
+        <v>21.59</v>
+      </c>
+      <c r="KQ72" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="KR72" s="1" t="n">
+        <v>37.7</v>
+      </c>
+      <c r="KS72" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="2">
@@ -66444,8 +67524,23 @@
       <c r="KM73" s="1" t="n">
         <v>15.28</v>
       </c>
-      <c r="KN73" t="n">
+      <c r="KN73" s="1" t="n">
         <v>13.22</v>
+      </c>
+      <c r="KO73" s="1" t="n">
+        <v>16.88</v>
+      </c>
+      <c r="KP73" s="1" t="n">
+        <v>14.68</v>
+      </c>
+      <c r="KQ73" s="1" t="n">
+        <v>18.4</v>
+      </c>
+      <c r="KR73" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="KS73" t="n">
+        <v>23.06</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="2">
@@ -67348,8 +68443,23 @@
       <c r="KM74" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KN74" t="n">
+      <c r="KN74" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KO74" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="KP74" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KQ74" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="KR74" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS74" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="2">
@@ -68252,8 +69362,23 @@
       <c r="KM75" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="KN75" t="n">
+      <c r="KN75" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="KO75" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="KP75" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="KQ75" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KR75" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KS75" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="2">
@@ -69156,8 +70281,23 @@
       <c r="KM76" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KN76" t="n">
+      <c r="KN76" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KO76" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP76" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ76" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="KR76" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="KS76" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="2">
@@ -70060,8 +71200,23 @@
       <c r="KM77" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="KN77" t="n">
+      <c r="KN77" s="1" t="n">
         <v>69</v>
+      </c>
+      <c r="KO77" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KP77" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="KQ77" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="KR77" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="KS77" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="2">
@@ -70964,8 +72119,23 @@
       <c r="KM78" s="1" t="n">
         <v>2.24</v>
       </c>
-      <c r="KN78" t="n">
+      <c r="KN78" s="1" t="n">
         <v>2.56</v>
+      </c>
+      <c r="KO78" s="1" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="KP78" s="1" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="KQ78" s="1" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="KR78" s="1" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KS78" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="2">
@@ -71868,8 +73038,23 @@
       <c r="KM79" s="1" t="n">
         <v>3.11</v>
       </c>
-      <c r="KN79" t="n">
+      <c r="KN79" s="1" t="n">
         <v>3.83</v>
+      </c>
+      <c r="KO79" s="1" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="KP79" s="1" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="KQ79" s="1" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="KR79" s="1" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="KS79" t="n">
+        <v>6.43</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="2">
@@ -72772,8 +73957,23 @@
       <c r="KM80" s="1" t="n">
         <v>42.9</v>
       </c>
-      <c r="KN80" t="n">
+      <c r="KN80" s="1" t="n">
         <v>36.2</v>
+      </c>
+      <c r="KO80" s="1" t="n">
+        <v>35.6</v>
+      </c>
+      <c r="KP80" s="1" t="n">
+        <v>43.9</v>
+      </c>
+      <c r="KQ80" s="1" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KR80" s="1" t="n">
+        <v>37.5</v>
+      </c>
+      <c r="KS80" t="n">
+        <v>35.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="2">
@@ -73676,8 +74876,23 @@
       <c r="KM81" s="1" t="n">
         <v>32.1</v>
       </c>
-      <c r="KN81" t="n">
+      <c r="KN81" s="1" t="n">
         <v>26.1</v>
+      </c>
+      <c r="KO81" s="1" t="n">
+        <v>17.8</v>
+      </c>
+      <c r="KP81" s="1" t="n">
+        <v>29.8</v>
+      </c>
+      <c r="KQ81" s="1" t="n">
+        <v>34.3</v>
+      </c>
+      <c r="KR81" s="1" t="n">
+        <v>15.6</v>
+      </c>
+      <c r="KS81" t="n">
+        <v>15.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="2">
@@ -74580,8 +75795,23 @@
       <c r="KM82" s="1" t="n">
         <v>188.8</v>
       </c>
-      <c r="KN82" t="n">
+      <c r="KN82" s="1" t="n">
         <v>188.5</v>
+      </c>
+      <c r="KO82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KP82" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="KQ82" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="KR82" s="1" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KS82" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="2">
@@ -75484,8 +76714,23 @@
       <c r="KM83" s="1" t="n">
         <v>86.5</v>
       </c>
-      <c r="KN83" t="n">
+      <c r="KN83" s="1" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KO83" s="1" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="KP83" s="1" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="KQ83" s="1" t="n">
+        <v>87.40000000000001</v>
+      </c>
+      <c r="KR83" s="1" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="KS83" t="n">
+        <v>83.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="2">
@@ -76388,8 +77633,23 @@
       <c r="KM84" s="1" t="n">
         <v>25.58</v>
       </c>
-      <c r="KN84" t="n">
+      <c r="KN84" s="1" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KO84" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="KP84" s="1" t="n">
+        <v>25.66</v>
+      </c>
+      <c r="KQ84" s="1" t="n">
+        <v>25.74</v>
+      </c>
+      <c r="KR84" s="1" t="n">
+        <v>26.41</v>
+      </c>
+      <c r="KS84" t="n">
+        <v>24.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="2">
@@ -77292,8 +78552,23 @@
       <c r="KM85" s="1" t="n">
         <v>94.7</v>
       </c>
-      <c r="KN85" t="n">
+      <c r="KN85" s="1" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KO85" s="1" t="n">
+        <v>67.90000000000001</v>
+      </c>
+      <c r="KP85" s="1" t="n">
+        <v>108.9</v>
+      </c>
+      <c r="KQ85" s="1" t="n">
+        <v>99.40000000000001</v>
+      </c>
+      <c r="KR85" s="1" t="n">
+        <v>121.1</v>
+      </c>
+      <c r="KS85" t="n">
+        <v>78.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="2">
@@ -78196,8 +79471,23 @@
       <c r="KM86" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN86" t="n">
+      <c r="KN86" s="1" t="n">
         <v>9</v>
+      </c>
+      <c r="KO86" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KP86" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KQ86" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="KR86" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KS86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="2">
@@ -79100,8 +80390,23 @@
       <c r="KM87" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="KN87" t="n">
+      <c r="KN87" s="1" t="n">
         <v>7</v>
+      </c>
+      <c r="KO87" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KP87" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="KQ87" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR87" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="2">
@@ -80004,8 +81309,23 @@
       <c r="KM88" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="KN88" t="n">
+      <c r="KN88" s="1" t="n">
         <v>2</v>
+      </c>
+      <c r="KO88" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP88" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KQ88" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KR88" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KS88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="2">
@@ -80908,8 +82228,23 @@
       <c r="KM89" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="KN89" t="n">
+      <c r="KN89" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KO89" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KQ89" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR89" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="KS89" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="2">
@@ -81812,8 +83147,23 @@
       <c r="KM90" s="1" t="n">
         <v>143</v>
       </c>
-      <c r="KN90" t="n">
+      <c r="KN90" s="1" t="n">
         <v>135</v>
+      </c>
+      <c r="KO90" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="KP90" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="KQ90" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="KR90" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="KS90" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="2">
@@ -82716,8 +84066,23 @@
       <c r="KM91" s="1" t="n">
         <v>243</v>
       </c>
-      <c r="KN91" t="n">
+      <c r="KN91" s="1" t="n">
         <v>225</v>
+      </c>
+      <c r="KO91" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="KP91" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="KQ91" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="KR91" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="KS91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="2">
@@ -83620,8 +84985,23 @@
       <c r="KM92" s="1" t="n">
         <v>291</v>
       </c>
-      <c r="KN92" t="n">
+      <c r="KN92" s="1" t="n">
         <v>264</v>
+      </c>
+      <c r="KO92" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="KP92" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="KQ92" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="KR92" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="KS92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="2">
@@ -84524,8 +85904,23 @@
       <c r="KM93" s="1" t="n">
         <v>76.2</v>
       </c>
-      <c r="KN93" t="n">
+      <c r="KN93" s="1" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KO93" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="KP93" s="1" t="n">
+        <v>74.09999999999999</v>
+      </c>
+      <c r="KQ93" s="1" t="n">
+        <v>68.8</v>
+      </c>
+      <c r="KR93" s="1" t="n">
+        <v>72.40000000000001</v>
+      </c>
+      <c r="KS93" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="2">
@@ -85428,8 +86823,23 @@
       <c r="KM94" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="KN94" t="n">
+      <c r="KN94" s="1" t="n">
         <v>66</v>
+      </c>
+      <c r="KO94" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="KP94" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="KQ94" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="KR94" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="KS94" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="2">
@@ -86332,8 +87742,23 @@
       <c r="KM95" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="KN95" t="n">
+      <c r="KN95" s="1" t="n">
         <v>12</v>
+      </c>
+      <c r="KO95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KP95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ95" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KR95" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="KS95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="2">
@@ -87236,8 +88661,23 @@
       <c r="KM96" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="KN96" t="n">
+      <c r="KN96" s="1" t="n">
         <v>14</v>
+      </c>
+      <c r="KO96" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP96" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="KQ96" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR96" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="KS96" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="2">
@@ -88140,8 +89580,23 @@
       <c r="KM97" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KN97" t="n">
+      <c r="KN97" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="KO97" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="KP97" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="KQ97" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="KR97" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="KS97" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="2">
@@ -89044,8 +90499,23 @@
       <c r="KM98" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="KN98" t="n">
+      <c r="KN98" s="1" t="n">
         <v>40</v>
+      </c>
+      <c r="KO98" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="KP98" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="KQ98" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="KR98" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="KS98" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="2">
@@ -89948,8 +91418,23 @@
       <c r="KM99" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="KN99" t="n">
+      <c r="KN99" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="KO99" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="KP99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KQ99" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="KR99" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="KS99" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="2">
@@ -90852,8 +92337,23 @@
       <c r="KM100" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN100" t="n">
+      <c r="KN100" s="1" t="n">
         <v>5</v>
+      </c>
+      <c r="KO100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KP100" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="KQ100" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="KR100" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="KS100" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="2">
@@ -91756,8 +93256,23 @@
       <c r="KM101" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="KN101" t="n">
+      <c r="KN101" s="1" t="n">
         <v>15</v>
+      </c>
+      <c r="KO101" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="KP101" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="KQ101" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="KR101" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="KS101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="2">
@@ -92660,8 +94175,23 @@
       <c r="KM102" s="1" t="n">
         <v>55.6</v>
       </c>
-      <c r="KN102" t="n">
+      <c r="KN102" s="1" t="n">
         <v>83.3</v>
+      </c>
+      <c r="KO102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="KP102" s="1" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="KQ102" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="KR102" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="KS102" t="n">
+        <v>57.1</v>
       </c>
     </row>
   </sheetData>
